--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\Git working\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D25F88-56A8-4527-B097-EAC1FFE3DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25E2F0-A470-4699-B1E3-3CDA5426A6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
@@ -18,10 +18,12 @@
     <sheet name="Cleaned_Pest_Data" sheetId="2" r:id="rId3"/>
     <sheet name="TB_WQ_summ" sheetId="3" r:id="rId4"/>
     <sheet name="TB_Pest_Summ" sheetId="5" r:id="rId5"/>
-    <sheet name="Q5" sheetId="7" r:id="rId6"/>
-    <sheet name="Q6" sheetId="9" r:id="rId7"/>
-    <sheet name="Q7" sheetId="10" r:id="rId8"/>
-    <sheet name="Q8" sheetId="6" r:id="rId9"/>
+    <sheet name="Q1" sheetId="11" r:id="rId6"/>
+    <sheet name="Q2" sheetId="12" r:id="rId7"/>
+    <sheet name="Q5" sheetId="7" r:id="rId8"/>
+    <sheet name="Q6" sheetId="9" r:id="rId9"/>
+    <sheet name="Q7" sheetId="10" r:id="rId10"/>
+    <sheet name="Q8" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="172">
   <si>
     <t>Year</t>
   </si>
@@ -520,9 +522,6 @@
     <t>Q11</t>
   </si>
   <si>
-    <t>WQ - which months most similar (PCoA)</t>
-  </si>
-  <si>
     <t>Do WQ paramters vary among stations?   (How to group for analyses. PCoA?)</t>
   </si>
   <si>
@@ -551,6 +550,24 @@
   </si>
   <si>
     <t>Q5: Does Polydora and Cliona differ in parasite prevalence in TB Oysters? - want # infected out of total oysters per sample (1 sample = 1 year/month/station)</t>
+  </si>
+  <si>
+    <t>Q1: WQ trends during study - overall min/max/mean; annual min/max/mean</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>WQ - which months most similar (PCA)</t>
+  </si>
+  <si>
+    <t>Q2: WQ - which months most similar (PCA)</t>
   </si>
 </sst>
 </file>
@@ -624,6 +641,99 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
+      <xdr:colOff>5970</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>512446</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C59597-1BD8-2ED3-F33D-BD09D0A4F3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7321170" y="293372"/>
+          <a:ext cx="5390896" cy="3945254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360046</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFA3485-AB23-D664-1CF6-4549038AF182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371476" y="381000"/>
+          <a:ext cx="5486400" cy="4003255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -668,7 +778,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -717,7 +827,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -766,7 +876,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1134,9 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03054A56-4033-420F-8D95-9016AEA6629F}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1196,7 +1304,7 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,10 +1312,10 @@
         <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,10 +1323,10 @@
         <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,10 +1334,10 @@
         <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1240,7 +1348,7 @@
         <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1251,7 +1359,7 @@
         <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1262,7 +1370,7 @@
         <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1273,7 +1381,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1284,7 +1392,7 @@
         <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1295,7 +1403,7 @@
         <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1306,22 +1414,788 @@
         <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
         <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035DE31-C390-47A3-B376-CC2F4B6A70A6}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>43.597999999999999</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.0320000000000003E-11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>63.496000000000002</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.6070000000000001E-15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10">
+        <v>63.478000000000002</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.6219999999999999E-15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>230</v>
+      </c>
+      <c r="D16">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.43E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.129</v>
+      </c>
+      <c r="G16">
+        <v>9.2200000000000008E-3</v>
+      </c>
+      <c r="H16">
+        <v>0.108</v>
+      </c>
+      <c r="I16">
+        <v>0.154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>230</v>
+      </c>
+      <c r="D17">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>230</v>
+      </c>
+      <c r="D18">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E18">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G18">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.312</v>
+      </c>
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>230</v>
+      </c>
+      <c r="D19">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E19">
+        <v>2.47E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G19">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A652C540-8D35-473A-9B27-3A32BBD7E5F3}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>6.2969999999999997</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.21E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>258.27100000000002</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>26.222000000000001</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2.8549999999999999E-5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>0.317</v>
+      </c>
+      <c r="E15">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G15">
+        <v>2.46E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.184</v>
+      </c>
+      <c r="I15">
+        <v>0.309</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E16">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.122</v>
+      </c>
+      <c r="G16">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.184</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E17">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G17">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17">
+        <v>0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E18">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.105</v>
+      </c>
+      <c r="G18">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E19">
+        <v>4.24E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G19">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="J19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E20">
+        <v>4.19E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G20">
+        <v>2.46E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.186</v>
+      </c>
+      <c r="I20">
+        <v>0.312</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>46</v>
+      </c>
+      <c r="D21">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="E21">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G21">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.125</v>
+      </c>
+      <c r="I21">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="E22">
+        <v>5.57E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.38</v>
+      </c>
+      <c r="G22">
+        <v>2.52E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.318</v>
+      </c>
+      <c r="I22">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="J22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>0.378</v>
+      </c>
+      <c r="E23">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G23">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.215</v>
+      </c>
+      <c r="I23">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="J23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E24">
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.495</v>
+      </c>
+      <c r="G24">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.435</v>
+      </c>
+      <c r="I24">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23579,7 +24453,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B27" sqref="B27:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29042,6 +29916,630 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ED8842-399A-486D-8BEB-EBA427DAF95E}">
+  <dimension ref="A1:S46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>116</v>
+      </c>
+      <c r="R26" t="s">
+        <v>168</v>
+      </c>
+      <c r="S26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="M27">
+        <v>2018</v>
+      </c>
+      <c r="N27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>141</v>
+      </c>
+      <c r="P27">
+        <v>90.8</v>
+      </c>
+      <c r="Q27">
+        <v>1.44</v>
+      </c>
+      <c r="R27">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="S27">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>555</v>
+      </c>
+      <c r="C28">
+        <v>92.106725999999995</v>
+      </c>
+      <c r="D28">
+        <v>0.79239367999999999</v>
+      </c>
+      <c r="E28">
+        <v>10.6</v>
+      </c>
+      <c r="F28">
+        <v>152.6</v>
+      </c>
+      <c r="M28">
+        <v>2019</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>147</v>
+      </c>
+      <c r="P28">
+        <v>93.5</v>
+      </c>
+      <c r="Q28">
+        <v>1.45</v>
+      </c>
+      <c r="R28">
+        <v>48.3</v>
+      </c>
+      <c r="S28">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>555</v>
+      </c>
+      <c r="C29">
+        <v>6.4773129999999997</v>
+      </c>
+      <c r="D29">
+        <v>6.3869549999999997E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.68</v>
+      </c>
+      <c r="F29">
+        <v>11.8</v>
+      </c>
+      <c r="M29">
+        <v>2020</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>130</v>
+      </c>
+      <c r="P29">
+        <v>94.3</v>
+      </c>
+      <c r="Q29">
+        <v>1.88</v>
+      </c>
+      <c r="R29">
+        <v>25.8</v>
+      </c>
+      <c r="S29">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>555</v>
+      </c>
+      <c r="C30">
+        <v>28.453156</v>
+      </c>
+      <c r="D30">
+        <v>0.19077371000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.45</v>
+      </c>
+      <c r="F30">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="M30">
+        <v>2021</v>
+      </c>
+      <c r="N30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>137</v>
+      </c>
+      <c r="P30">
+        <v>90.2</v>
+      </c>
+      <c r="Q30">
+        <v>1.58</v>
+      </c>
+      <c r="R30">
+        <v>10.6</v>
+      </c>
+      <c r="S30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>555</v>
+      </c>
+      <c r="C31">
+        <v>25.00375</v>
+      </c>
+      <c r="D31">
+        <v>0.20427659000000001</v>
+      </c>
+      <c r="E31">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M31">
+        <v>2018</v>
+      </c>
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>141</v>
+      </c>
+      <c r="P31">
+        <v>6.47</v>
+      </c>
+      <c r="Q31">
+        <v>0.126</v>
+      </c>
+      <c r="R31">
+        <v>2.41</v>
+      </c>
+      <c r="S31">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>555</v>
+      </c>
+      <c r="C32">
+        <v>8.0558329999999998</v>
+      </c>
+      <c r="D32">
+        <v>1.170206E-2</v>
+      </c>
+      <c r="E32">
+        <v>6.2</v>
+      </c>
+      <c r="F32">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="M32">
+        <v>2019</v>
+      </c>
+      <c r="N32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>147</v>
+      </c>
+      <c r="P32">
+        <v>6.51</v>
+      </c>
+      <c r="Q32">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="R32">
+        <v>3.24</v>
+      </c>
+      <c r="S32">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="33" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>2020</v>
+      </c>
+      <c r="N33" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>130</v>
+      </c>
+      <c r="P33">
+        <v>6.53</v>
+      </c>
+      <c r="Q33">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="R33">
+        <v>1.79</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>2021</v>
+      </c>
+      <c r="N34" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>137</v>
+      </c>
+      <c r="P34">
+        <v>6.4</v>
+      </c>
+      <c r="Q34">
+        <v>0.127</v>
+      </c>
+      <c r="R34">
+        <v>0.68</v>
+      </c>
+      <c r="S34">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="35" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>2018</v>
+      </c>
+      <c r="N35" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>141</v>
+      </c>
+      <c r="P35">
+        <v>28.8</v>
+      </c>
+      <c r="Q35">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="R35">
+        <v>0.45</v>
+      </c>
+      <c r="S35">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>2019</v>
+      </c>
+      <c r="N36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>147</v>
+      </c>
+      <c r="P36">
+        <v>27.8</v>
+      </c>
+      <c r="Q36">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="R36">
+        <v>8.48</v>
+      </c>
+      <c r="S36">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="37" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>2020</v>
+      </c>
+      <c r="N37" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37">
+        <v>130</v>
+      </c>
+      <c r="P37">
+        <v>28.6</v>
+      </c>
+      <c r="Q37">
+        <v>0.3</v>
+      </c>
+      <c r="R37">
+        <v>19.8</v>
+      </c>
+      <c r="S37">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="38" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>2021</v>
+      </c>
+      <c r="N38" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>137</v>
+      </c>
+      <c r="P38">
+        <v>28.7</v>
+      </c>
+      <c r="Q38">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="R38">
+        <v>15.3</v>
+      </c>
+      <c r="S38">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="39" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>2018</v>
+      </c>
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>141</v>
+      </c>
+      <c r="P39">
+        <v>24.6</v>
+      </c>
+      <c r="Q39">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="R39">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="S39">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>2019</v>
+      </c>
+      <c r="N40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O40">
+        <v>147</v>
+      </c>
+      <c r="P40">
+        <v>25.2</v>
+      </c>
+      <c r="Q40">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="R40">
+        <v>14.6</v>
+      </c>
+      <c r="S40">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="41" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>2020</v>
+      </c>
+      <c r="N41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O41">
+        <v>130</v>
+      </c>
+      <c r="P41">
+        <v>25.4</v>
+      </c>
+      <c r="Q41">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="R41">
+        <v>15.8</v>
+      </c>
+      <c r="S41">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="42" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>2021</v>
+      </c>
+      <c r="N42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42">
+        <v>137</v>
+      </c>
+      <c r="P42">
+        <v>24.8</v>
+      </c>
+      <c r="Q42">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="R42">
+        <v>15.3</v>
+      </c>
+      <c r="S42">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="43" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>2018</v>
+      </c>
+      <c r="N43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>141</v>
+      </c>
+      <c r="P43">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="Q43">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="R43">
+        <v>6.2</v>
+      </c>
+      <c r="S43">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>2019</v>
+      </c>
+      <c r="N44" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44">
+        <v>147</v>
+      </c>
+      <c r="P44">
+        <v>8.1</v>
+      </c>
+      <c r="Q44">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="R44">
+        <v>7.31</v>
+      </c>
+      <c r="S44">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>2020</v>
+      </c>
+      <c r="N45" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <v>130</v>
+      </c>
+      <c r="P45">
+        <v>8.06</v>
+      </c>
+      <c r="Q45">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="R45">
+        <v>6.72</v>
+      </c>
+      <c r="S45">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="46" spans="13:19" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>2021</v>
+      </c>
+      <c r="N46" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>137</v>
+      </c>
+      <c r="P46">
+        <v>8.02</v>
+      </c>
+      <c r="Q46">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="R46">
+        <v>7.25</v>
+      </c>
+      <c r="S46">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE58FF-50D1-446A-8C66-07AEB901989B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D2DF1-6467-40B9-BDD3-5B081097D1E8}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -29053,7 +30551,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -29202,7 +30700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B56724E-CB8A-4F61-8AAE-FE627EE22B44}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -29214,7 +30712,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -29462,772 +30960,6 @@
       </c>
       <c r="J19" t="s">
         <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035DE31-C390-47A3-B376-CC2F4B6A70A6}">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8">
-        <v>43.597999999999999</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.0320000000000003E-11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>63.496000000000002</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.6070000000000001E-15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10">
-        <v>63.478000000000002</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.6219999999999999E-15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>230</v>
-      </c>
-      <c r="D16">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E16">
-        <v>1.43E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.129</v>
-      </c>
-      <c r="G16">
-        <v>9.2200000000000008E-3</v>
-      </c>
-      <c r="H16">
-        <v>0.108</v>
-      </c>
-      <c r="I16">
-        <v>0.154</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>230</v>
-      </c>
-      <c r="D17">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E17">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G17">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I17">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>230</v>
-      </c>
-      <c r="D18">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="E18">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G18">
-        <v>1.12E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.312</v>
-      </c>
-      <c r="J18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>230</v>
-      </c>
-      <c r="D19">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="E19">
-        <v>2.47E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G19">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I19">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="J19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A652C540-8D35-473A-9B27-3A32BBD7E5F3}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7">
-        <v>6.2969999999999997</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1.21E-2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>258.27100000000002</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9">
-        <v>26.222000000000001</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.8549999999999999E-5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>0.317</v>
-      </c>
-      <c r="E15">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="G15">
-        <v>2.46E-2</v>
-      </c>
-      <c r="H15">
-        <v>0.184</v>
-      </c>
-      <c r="I15">
-        <v>0.309</v>
-      </c>
-      <c r="J15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E16">
-        <v>2.23E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.122</v>
-      </c>
-      <c r="G16">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="H16">
-        <v>7.8899999999999998E-2</v>
-      </c>
-      <c r="I16">
-        <v>0.184</v>
-      </c>
-      <c r="J16" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16">
-        <v>0.18099999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>46</v>
-      </c>
-      <c r="D17">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="E17">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="G17">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="I17">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="J17" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17">
-        <v>0.79400000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>46</v>
-      </c>
-      <c r="D18">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="E18">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.105</v>
-      </c>
-      <c r="G18">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="H18">
-        <v>6.5100000000000005E-2</v>
-      </c>
-      <c r="I18">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="J18" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18">
-        <v>0.16400000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>46</v>
-      </c>
-      <c r="D19">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="E19">
-        <v>4.24E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="G19">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="I19">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="J19" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19">
-        <v>0.90200000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>46</v>
-      </c>
-      <c r="D20">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="E20">
-        <v>4.19E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="G20">
-        <v>2.46E-2</v>
-      </c>
-      <c r="H20">
-        <v>0.186</v>
-      </c>
-      <c r="I20">
-        <v>0.312</v>
-      </c>
-      <c r="J20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="E21">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="G21">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="H21">
-        <v>0.125</v>
-      </c>
-      <c r="I21">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="J21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21">
-        <v>0.26600000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>46</v>
-      </c>
-      <c r="D22">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="E22">
-        <v>5.57E-2</v>
-      </c>
-      <c r="F22">
-        <v>0.38</v>
-      </c>
-      <c r="G22">
-        <v>2.52E-2</v>
-      </c>
-      <c r="H22">
-        <v>0.318</v>
-      </c>
-      <c r="I22">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="J22" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22">
-        <v>0.68899999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>0.378</v>
-      </c>
-      <c r="E23">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="F23">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="G23">
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="H23">
-        <v>0.215</v>
-      </c>
-      <c r="I23">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="J23" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>46</v>
-      </c>
-      <c r="D24">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E24">
-        <v>9.2800000000000001E-3</v>
-      </c>
-      <c r="F24">
-        <v>0.495</v>
-      </c>
-      <c r="G24">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="H24">
-        <v>0.435</v>
-      </c>
-      <c r="I24">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="J24" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24">
-        <v>1.01</v>
       </c>
     </row>
   </sheetData>

--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB23991-141B-4B54-888D-E38327EAB9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6547E0CE-5816-4C68-A9A8-894A1F54960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="498">
   <si>
     <t>Year</t>
   </si>
@@ -381,30 +381,9 @@
 Richness: species richness (0 speices, 1 = Cliona or Polydora, 2 = both Cliona and Polydora)</t>
   </si>
   <si>
-    <t>Pest_model_2 &lt;- glm(cbind(nI, nT) ~ Type * Station, family = binomial, data = t1)</t>
-  </si>
-  <si>
-    <t>Analysis of Deviance Table (Type II tests)</t>
-  </si>
-  <si>
-    <t>Response: cbind(nI, nT)</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
-  </si>
-  <si>
-    <t>LR Chisq</t>
-  </si>
-  <si>
     <t>Df</t>
   </si>
   <si>
-    <t>Pr(&gt;Chisq)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -420,27 +399,12 @@
     <t>Type:Station</t>
   </si>
   <si>
-    <t>meanProp</t>
-  </si>
-  <si>
-    <t>prob</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
-    <t>asymp.LCL</t>
-  </si>
-  <si>
-    <t>asymp.UCL</t>
-  </si>
-  <si>
     <t>Letters</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
     <t>Cliona</t>
   </si>
   <si>
@@ -474,15 +438,9 @@
     <t>Does Polydora and Cliona differ in parasite prevalence in TB Oysters?</t>
   </si>
   <si>
-    <t>Pest_model &lt;- glm(cbind(nI, nT) ~ Type, family = binomial, data = t1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Does Polydora or Cliona differ in parasite prevalence impact among shell surfaces in TB Oysters? </t>
   </si>
   <si>
-    <t>Side_model &lt;- glm(cbind(nI, nT) ~ Type * Measurement, family = binomial, data = t2)</t>
-  </si>
-  <si>
     <t>Type:Measurement</t>
   </si>
   <si>
@@ -495,12 +453,6 @@
     <t>Does Polydora or Cliona differ in parasite prevalence impact among shell position in TB Oysters?</t>
   </si>
   <si>
-    <t>Position_model &lt;- glm(cbind(nI, nT) ~ Type * Measurement, family = binomial, data = t3)</t>
-  </si>
-  <si>
-    <t>Need to rerun with scaling based on size of shell.</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -555,18 +507,6 @@
     <t>Bay summary</t>
   </si>
   <si>
-    <t>Q8: Does Polydora and Cliona differ in parasite prevalence in TB Oysters among stations? - # infected out of total oysters per sample (1 sample = 1 year/month/station)</t>
-  </si>
-  <si>
-    <t>Q7: Does Polydora or Cliona differ in parasite prevalence impact among shell position in TB Oysters? - want # infected out of total oysters per sample (1 sample = 1 year/month/station)</t>
-  </si>
-  <si>
-    <t>Q6: Does Polydora or Cliona differ in parasite prevalence impact among shell surfaces in TB Oysters? - want # infected out of total oysters per sample (1 sample = 1 year/month/station)</t>
-  </si>
-  <si>
-    <t>Q5: Does Polydora and Cliona differ in parasite prevalence in TB Oysters? - want # infected out of total oysters per sample (1 sample = 1 year/month/station)</t>
-  </si>
-  <si>
     <t>Q1: WQ trends during study - overall min/max/mean; annual min/max/mean</t>
   </si>
   <si>
@@ -621,9 +561,6 @@
     <t xml:space="preserve">Q2: WQ - which months most similar </t>
   </si>
   <si>
-    <t>PermANOVA</t>
-  </si>
-  <si>
     <t>Month_temp &lt;- aovp(Temperature ~ Month, data = ungroup(TB_WQ_df), perm = "", nperm = 10000)</t>
   </si>
   <si>
@@ -1435,6 +1372,272 @@
   </si>
   <si>
     <t>ConditionIndex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5: Does Polydora and Cliona differ in parasite prevalence in TB Oysters? </t>
+  </si>
+  <si>
+    <t># infected / # total oysters per sample (1 sample = 1 year/month/station) i.e. 3 infected / 5 oysters = 0.6 proportion infected</t>
+  </si>
+  <si>
+    <t>Pest_model &lt;- glm(Prop ~ Type, family = quasibinomial, data = t1)</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>Measurements: Internal, External</t>
+  </si>
+  <si>
+    <t>Side_model &lt;- glm(Prop ~ Type * Measurement, family = quasibinomial, data = t2)</t>
+  </si>
+  <si>
+    <r>
+      <t>Types: Only "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polydora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", only "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cliona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Both</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" polydora and cliona</t>
+    </r>
+  </si>
+  <si>
+    <t>PermANOVA, pairwise-t-test holm adjustment</t>
+  </si>
+  <si>
+    <t>quaisbinomial generalized linear model (inclusive of 0 and 1 proportions), emmeans post-hoc holm's adjustment</t>
+  </si>
+  <si>
+    <t>glm/F test/estimted marginal means-holm</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>odds.ratio</t>
+  </si>
+  <si>
+    <t>z.ratio</t>
+  </si>
+  <si>
+    <t>Polydora / Cliona</t>
+  </si>
+  <si>
+    <t>Polydora / Both</t>
+  </si>
+  <si>
+    <t>Cliona / Both</t>
+  </si>
+  <si>
+    <t>External Polydora / External Both</t>
+  </si>
+  <si>
+    <t>External Polydora / Internal Both</t>
+  </si>
+  <si>
+    <t>Internal Polydora / External Both</t>
+  </si>
+  <si>
+    <t>Internal Polydora / Internal Both</t>
+  </si>
+  <si>
+    <t>External Cliona / External Both</t>
+  </si>
+  <si>
+    <t>External Cliona / Internal Both</t>
+  </si>
+  <si>
+    <t>Internal Cliona / External Both</t>
+  </si>
+  <si>
+    <t>Internal Cliona / Internal Both</t>
+  </si>
+  <si>
+    <t>External Both / Internal Both</t>
+  </si>
+  <si>
+    <t>Q7: Does Polydora or Cliona differ in parasite prevalence impact among shell position in TB Oysters?</t>
+  </si>
+  <si>
+    <t>Q6: Does Polydora or Cliona differ in parasite prevalence impact among shell surfaces in TB Oysters?</t>
+  </si>
+  <si>
+    <t>Measurements: Top, Bottom</t>
+  </si>
+  <si>
+    <t>Position_model &lt;- glm(Prop ~ Type * Measurement, family = quasibinomial, data = t3)</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Top Polydora / Top Cliona</t>
+  </si>
+  <si>
+    <t>Top Polydora / Bot Cliona</t>
+  </si>
+  <si>
+    <t>Top Polydora / Bottom Both</t>
+  </si>
+  <si>
+    <t>Bottom Polydora / Bottom Both</t>
+  </si>
+  <si>
+    <t>Top Cliona / Bottom Both</t>
+  </si>
+  <si>
+    <t>Bot Cliona / Bottom Both</t>
+  </si>
+  <si>
+    <t>Top Both / Bottom Both</t>
+  </si>
+  <si>
+    <t>Pest_model_2 &lt;- glm(Prop ~ Type * Station, family = quasibinomial, data = t1)</t>
+  </si>
+  <si>
+    <t>Station1 Polydora / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station1 Polydora / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station2 Polydora / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station2 Polydora / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station3 Polydora / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station3 Polydora / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station4 Polydora / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station4 Polydora / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station5 Polydora / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station5 Polydora / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station1 Cliona / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station1 Cliona / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station2 Cliona / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station2 Cliona / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station3 Cliona / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station3 Cliona / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station4 Cliona / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station4 Cliona / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station1 Both / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station1 Both / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station2 Both / Station3 Both</t>
+  </si>
+  <si>
+    <t>Station2 Both / Station5 Both</t>
+  </si>
+  <si>
+    <t>Station3 Both / Station4 Both</t>
+  </si>
+  <si>
+    <t>Station4 Both / Station5 Both</t>
+  </si>
+  <si>
+    <t>Q8: Does Polydora and Cliona differ in parasite prevalence in TB Oysters among stations?</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1528,12 +1731,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2872,23 +3141,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>296422</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38850</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7A2850-81C7-D63B-5574-801A0E28C47E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A6B9D9-E886-E16B-D241-DE9A2AA30D91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,8 +3173,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="762000"/>
-          <a:ext cx="8221222" cy="5372850"/>
+          <a:off x="7515225" y="704850"/>
+          <a:ext cx="8210550" cy="5295900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2921,23 +3190,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>296422</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38850</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A241B8EB-31A9-A6CD-727C-CEF990933385}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7D81F8-D118-D1F4-FB76-5B9CDC6AD5A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,8 +3222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="571500"/>
-          <a:ext cx="8221222" cy="5372850"/>
+          <a:off x="8248650" y="457200"/>
+          <a:ext cx="8210550" cy="5295900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2971,22 +3240,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>296422</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38850</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9CD80B-CE2C-7CB2-486A-14805BB7177F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C566CE-D3F4-F198-A49C-785D5434EB3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,8 +3271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="571500"/>
-          <a:ext cx="8221222" cy="5372850"/>
+          <a:off x="7477125" y="495300"/>
+          <a:ext cx="8210550" cy="5295900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3019,23 +3288,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>324997</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57900</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57679</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C2A2AF-0470-E2C6-0921-18BEFC244D68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114C4C14-F81E-CA80-6071-FF29E43CF565}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,8 +3320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7953375" y="781050"/>
-          <a:ext cx="8221222" cy="5372850"/>
+          <a:off x="7658099" y="734728"/>
+          <a:ext cx="7219949" cy="4656951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,19 +3729,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3483,13 +3752,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3500,13 +3769,13 @@
         <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3517,13 +3786,13 @@
         <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3534,169 +3803,193 @@
         <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3706,160 +3999,327 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D2DF1-6467-40B9-BDD3-5B081097D1E8}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9">
+        <v>25.35</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>41.332999999999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <v>89.852999999999994</v>
+      </c>
+      <c r="C10">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" t="s">
+        <v>442</v>
+      </c>
+      <c r="J12" t="s">
+        <v>443</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="H13">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I13">
+        <v>0.57119419999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.66413290000000003</v>
+      </c>
+      <c r="K13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.18</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <v>0.126</v>
+      </c>
+      <c r="H14">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2467994</v>
+      </c>
+      <c r="J14">
+        <v>0.3733747</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15">
         <v>106</v>
       </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8">
-        <v>4.6323999999999996</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3.1370000000000002E-2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C15">
+        <v>0.34</v>
+      </c>
+      <c r="D15">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.29160940000000002</v>
+      </c>
+      <c r="J15">
+        <v>0.39117580000000002</v>
+      </c>
+      <c r="K15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.1639098000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.22136096</v>
+      </c>
+      <c r="D19">
+        <v>0.79808040000000002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.42482379999999997</v>
+      </c>
+      <c r="F19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.31688309999999997</v>
+      </c>
+      <c r="C20">
+        <v>4.8115699999999997E-2</v>
+      </c>
+      <c r="D20">
+        <v>-7.5686128999999998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.131692E-13</v>
+      </c>
+      <c r="F20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>230</v>
-      </c>
-      <c r="C14">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="D14">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="F14">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H14">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="I14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15">
-        <v>230</v>
-      </c>
-      <c r="C15">
-        <v>0.501</v>
-      </c>
-      <c r="D15">
-        <v>2.53E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="F15">
-        <v>1.14E-2</v>
-      </c>
-      <c r="G15">
-        <v>0.309</v>
-      </c>
-      <c r="H15">
-        <v>0.36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>121</v>
-      </c>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.27225749999999999</v>
+      </c>
+      <c r="C21">
+        <v>4.9777719999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>-7.1158115000000004</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.2251250000000002E-12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E9 E19:E21">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3867,109 +4327,136 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B56724E-CB8A-4F61-8AAE-FE627EE22B44}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10">
+        <v>27.283000000000001</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>53.339500000000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>1.149</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4.4931999999999999</v>
+      </c>
+      <c r="E11">
+        <v>3.4497E-2</v>
+      </c>
+      <c r="F11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8">
-        <v>14.614000000000001</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1.3190000000000001E-4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>45.811</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.3020000000000001E-11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10">
-        <v>10.131</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1.4582E-3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>2.673</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>5.2263000000000002</v>
+      </c>
+      <c r="E12">
+        <v>5.6559999999999996E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>134.779</v>
+      </c>
+      <c r="C13">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -3978,156 +4465,696 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="K15" t="s">
+        <v>443</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>434</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="D16">
-        <v>0.42499999999999999</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E16">
-        <v>2.58E-2</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="F16">
-        <v>0.29799999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
-        <v>1.1299999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.27100000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="I16">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="J16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J16">
+        <v>0.56386230000000004</v>
+      </c>
+      <c r="K16">
+        <v>0.65056309999999995</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>434</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>124</v>
+      </c>
+      <c r="D17">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J17">
+        <v>0.43069469999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.53711629999999999</v>
+      </c>
+      <c r="L17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>230</v>
-      </c>
-      <c r="D17">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="E17">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.191</v>
-      </c>
-      <c r="G17">
-        <v>1.04E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.218</v>
-      </c>
-      <c r="J17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
       <c r="C18">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>0.45200000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="E18">
-        <v>2.5399999999999999E-2</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="F18">
-        <v>0.311</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>1.1299999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0.28399999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.34</v>
-      </c>
-      <c r="J18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.56386230000000004</v>
+      </c>
+      <c r="K18">
+        <v>0.65056309999999995</v>
+      </c>
+      <c r="L18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
       <c r="C19">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="D19">
-        <v>0.36299999999999999</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="E19">
-        <v>2.3800000000000002E-2</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="F19">
-        <v>0.26600000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
-        <v>1.12E-2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.23899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="J19" t="s">
-        <v>121</v>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="J19">
+        <v>0.43069469999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.53711629999999999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.2</v>
+      </c>
+      <c r="G20">
+        <v>0.8</v>
+      </c>
+      <c r="H20">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.27143050000000002</v>
+      </c>
+      <c r="K20">
+        <v>0.38279479999999999</v>
+      </c>
+      <c r="L20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>69</v>
+      </c>
+      <c r="D21">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>0.8</v>
+      </c>
+      <c r="H21">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="J21">
+        <v>0.21373800000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.34362549999999997</v>
+      </c>
+      <c r="L21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.122</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <v>0.6</v>
+      </c>
+      <c r="H22">
+        <v>0.152</v>
+      </c>
+      <c r="I22">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="J22">
+        <v>0.27143050000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.38279479999999999</v>
+      </c>
+      <c r="L22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.122</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <v>0.6</v>
+      </c>
+      <c r="H23">
+        <v>0.152</v>
+      </c>
+      <c r="I23">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="J23">
+        <v>0.21373800000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.34362549999999997</v>
+      </c>
+      <c r="L23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>0.318</v>
+      </c>
+      <c r="E24">
+        <v>0.192</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.126</v>
+      </c>
+      <c r="I24">
+        <v>0.51</v>
+      </c>
+      <c r="J24">
+        <v>0.3119016</v>
+      </c>
+      <c r="K24">
+        <v>0.39898739999999999</v>
+      </c>
+      <c r="L24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>0.318</v>
+      </c>
+      <c r="E25">
+        <v>0.192</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.126</v>
+      </c>
+      <c r="I25">
+        <v>0.51</v>
+      </c>
+      <c r="J25">
+        <v>0.271229</v>
+      </c>
+      <c r="K25">
+        <v>0.3682783</v>
+      </c>
+      <c r="L25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>118</v>
+      </c>
+      <c r="D26">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E26">
+        <v>0.193</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0.161</v>
+      </c>
+      <c r="I26">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J26">
+        <v>0.3119016</v>
+      </c>
+      <c r="K26">
+        <v>0.39898739999999999</v>
+      </c>
+      <c r="L26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>118</v>
+      </c>
+      <c r="D27">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.193</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0.161</v>
+      </c>
+      <c r="I27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J27">
+        <v>0.271229</v>
+      </c>
+      <c r="K27">
+        <v>0.3682783</v>
+      </c>
+      <c r="L27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>446</v>
+      </c>
+      <c r="F30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31">
+        <v>0.3002359</v>
+      </c>
+      <c r="D31">
+        <v>4.4290429999999999E-2</v>
+      </c>
+      <c r="E31">
+        <v>-8.1561610000000009</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.1876260000000002E-15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32">
+        <v>0.49714979999999998</v>
+      </c>
+      <c r="D32">
+        <v>7.8630649999999996E-2</v>
+      </c>
+      <c r="E32">
+        <v>-4.418634</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9.9326889999999999E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33">
+        <v>0.35357880000000003</v>
+      </c>
+      <c r="D33">
+        <v>4.7607129999999998E-2</v>
+      </c>
+      <c r="E33">
+        <v>-7.7214869999999998</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.6097309999999999E-13</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34">
+        <v>0.58547850000000001</v>
+      </c>
+      <c r="D34">
+        <v>8.5613320000000007E-2</v>
+      </c>
+      <c r="E34">
+        <v>-3.6608999999999998</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2.0106500000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35">
+        <v>0.30983250000000001</v>
+      </c>
+      <c r="D35">
+        <v>4.9534229999999999E-2</v>
+      </c>
+      <c r="E35">
+        <v>-7.3290329999999999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2.7818370000000001E-12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36">
+        <v>0.51304059999999996</v>
+      </c>
+      <c r="D36">
+        <v>8.7086239999999995E-2</v>
+      </c>
+      <c r="E36">
+        <v>-3.9317739999999999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7.5889049999999997E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37">
+        <v>0.24315819999999999</v>
+      </c>
+      <c r="D37">
+        <v>4.6522470000000003E-2</v>
+      </c>
+      <c r="E37">
+        <v>-7.3907540000000003</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.8979760000000001E-12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38">
+        <v>0.40263700000000002</v>
+      </c>
+      <c r="D38">
+        <v>8.0385670000000006E-2</v>
+      </c>
+      <c r="E38">
+        <v>-4.5566190000000004</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5.7181910000000003E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39">
+        <v>1.6558641999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.23744276</v>
+      </c>
+      <c r="E39">
+        <v>3.5170180000000002</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3.0549689999999998E-3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E10:E12 F31:F39">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4135,272 +5162,566 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035DE31-C390-47A3-B376-CC2F4B6A70A6}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8">
-        <v>43.597999999999999</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.0320000000000003E-11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10">
+        <v>13.535</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>27.843800000000002</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.237E-12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>63.496000000000002</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.6070000000000001E-15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10">
-        <v>63.478000000000002</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1.6219999999999999E-15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.8825000000000003</v>
+      </c>
+      <c r="E11">
+        <v>3.0130000000000001E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>9.1010000000000009</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>18.7225</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.404E-8</v>
+      </c>
+      <c r="F12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>126.877</v>
+      </c>
+      <c r="C13">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>442</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16">
+        <v>119</v>
+      </c>
+      <c r="D16">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2.2170990000000002E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.55253450000000004</v>
+      </c>
+      <c r="J16">
+        <v>0.63923410000000003</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <v>0.317</v>
+      </c>
+      <c r="E17">
+        <v>0.187</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>2.5022659999999999E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.26977230000000002</v>
+      </c>
+      <c r="J17">
+        <v>0.36760900000000002</v>
+      </c>
+      <c r="K17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2.6308649999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.29222189999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.39503490000000002</v>
+      </c>
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="C16">
-        <v>230</v>
-      </c>
-      <c r="D16">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="E16">
-        <v>1.43E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.129</v>
-      </c>
-      <c r="G16">
-        <v>9.2200000000000008E-3</v>
-      </c>
-      <c r="H16">
-        <v>0.108</v>
-      </c>
-      <c r="I16">
-        <v>0.154</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="B19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>0.372</v>
+      </c>
+      <c r="E19">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>2.6978060000000002E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.32062239999999997</v>
+      </c>
+      <c r="J19">
+        <v>0.42601319999999998</v>
+      </c>
+      <c r="K19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>230</v>
-      </c>
-      <c r="D17">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="E17">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F17">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="G17">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I17">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="J17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="C18">
-        <v>230</v>
-      </c>
-      <c r="D18">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="E18">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="G18">
-        <v>1.12E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.312</v>
-      </c>
-      <c r="J18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>230</v>
-      </c>
-      <c r="D19">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="E19">
-        <v>2.47E-2</v>
-      </c>
-      <c r="F19">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G19">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I19">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="J19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>139</v>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+      <c r="E20">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.2</v>
+      </c>
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20">
+        <v>4.7735479999999997E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.16831760000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.3544291</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21">
+        <v>148</v>
+      </c>
+      <c r="D21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.9994390000000001E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.38031779999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.45853880000000002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>446</v>
+      </c>
+      <c r="F23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24">
+        <v>2.1627907</v>
+      </c>
+      <c r="D24">
+        <v>0.57857071999999998</v>
+      </c>
+      <c r="E24">
+        <v>2.8836149999999998</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3.5382480000000001E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12">
+        <v>1.5556916000000001</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.22065931</v>
+      </c>
+      <c r="E25" s="12">
+        <v>3.1156239999999999</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1.8355610000000001E-2</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26">
+        <v>0.48738949999999998</v>
+      </c>
+      <c r="D26">
+        <v>6.0155899999999998E-2</v>
+      </c>
+      <c r="E26">
+        <v>-5.8229170000000003</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6.9395080000000006E-8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27">
+        <v>0.35102929999999999</v>
+      </c>
+      <c r="D27">
+        <v>5.2259130000000001E-2</v>
+      </c>
+      <c r="E27">
+        <v>-7.0320239999999998</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.8498130000000001E-11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28">
+        <v>0.2253521</v>
+      </c>
+      <c r="D28">
+        <v>6.1012919999999998E-2</v>
+      </c>
+      <c r="E28">
+        <v>-5.5036740000000002</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.0915350000000002E-7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29">
+        <v>0.31329439999999997</v>
+      </c>
+      <c r="D29">
+        <v>4.6320029999999998E-2</v>
+      </c>
+      <c r="E29">
+        <v>-7.8500209999999999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6.2395259999999999E-14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30">
+        <v>0.400115</v>
+      </c>
+      <c r="D30">
+        <v>5.9115290000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>-6.1998620000000004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>7.3466390000000003E-9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E10:E12 F24:F30">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4408,492 +5729,1283 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A652C540-8D35-473A-9B27-3A32BBD7E5F3}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B10">
+        <v>8.9060000000000006</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>19.1053</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.6610000000000001E-8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>26.128</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>28.024100000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.2E-16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B12">
+        <v>12.553000000000001</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>6.7319000000000004</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.4869999999999997E-8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>65.498000000000005</v>
+      </c>
+      <c r="C13">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
         <v>106</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I15" t="s">
+        <v>442</v>
+      </c>
+      <c r="J15" t="s">
+        <v>443</v>
+      </c>
+      <c r="K15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7">
-        <v>6.2969999999999997</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1.21E-2</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0.153</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>4.3355200000000003E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.20327291</v>
+      </c>
+      <c r="J16">
+        <v>0.3721602</v>
+      </c>
+      <c r="K16" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>258.27100000000002</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9">
-        <v>26.222000000000001</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.8549999999999999E-5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>0.317</v>
-      </c>
-      <c r="E15">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="F15">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="G15">
-        <v>2.46E-2</v>
-      </c>
-      <c r="H15">
-        <v>0.184</v>
-      </c>
-      <c r="I15">
-        <v>0.309</v>
-      </c>
-      <c r="J15" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="E16">
-        <v>2.23E-2</v>
-      </c>
-      <c r="F16">
-        <v>0.122</v>
-      </c>
-      <c r="G16">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="H16">
-        <v>7.8899999999999998E-2</v>
-      </c>
-      <c r="I16">
-        <v>0.184</v>
-      </c>
-      <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16">
-        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>0.72199999999999998</v>
+        <v>0.314</v>
       </c>
       <c r="E17">
-        <v>5.1799999999999999E-2</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="F17">
-        <v>0.41899999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G17">
-        <v>2.4799999999999999E-2</v>
+        <v>0.8</v>
       </c>
       <c r="H17">
-        <v>0.35699999999999998</v>
+        <v>4.890916E-2</v>
       </c>
       <c r="I17">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="J17" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17">
-        <v>0.79400000000000004</v>
+        <v>0.22706398999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.4169388</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.11700000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E18">
-        <v>2.6800000000000001E-2</v>
+        <v>0.253</v>
       </c>
       <c r="F18">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>1.9099999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>6.5100000000000005E-2</v>
+        <v>6.8550589999999995E-2</v>
       </c>
       <c r="I18">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="J18" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18">
-        <v>0.16400000000000001</v>
+        <v>0.16646183000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.43094179999999999</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>0.83899999999999997</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="E19">
-        <v>4.24E-2</v>
+        <v>0.184</v>
       </c>
       <c r="F19">
-        <v>0.45600000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
-        <v>2.4199999999999999E-2</v>
+        <v>0.8</v>
       </c>
       <c r="H19">
-        <v>0.39500000000000002</v>
+        <v>3.8649849999999999E-2</v>
       </c>
       <c r="I19">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="J19" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19">
-        <v>0.90200000000000002</v>
+        <v>0.2892788</v>
+      </c>
+      <c r="J19">
+        <v>0.43974419999999997</v>
+      </c>
+      <c r="K19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>0.32200000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="E20">
-        <v>4.19E-2</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F20">
-        <v>0.24299999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G20">
-        <v>2.46E-2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.186</v>
+        <v>6.4411250000000003E-2</v>
       </c>
       <c r="I20">
-        <v>0.312</v>
-      </c>
-      <c r="J20" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20">
-        <v>0.38400000000000001</v>
+        <v>0.34954506000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.59681669999999998</v>
+      </c>
+      <c r="K20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>0.21299999999999999</v>
+        <v>0.309</v>
       </c>
       <c r="E21">
-        <v>3.2500000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F21">
-        <v>0.17599999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G21">
-        <v>2.2800000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="H21">
-        <v>0.125</v>
+        <v>4.756726E-2</v>
       </c>
       <c r="I21">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21">
-        <v>0.26600000000000001</v>
+        <v>0.22427274999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.40907090000000002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>0.61299999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="E22">
-        <v>5.57E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F22">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="G22">
-        <v>2.52E-2</v>
+        <v>0.4</v>
       </c>
       <c r="H22">
-        <v>0.318</v>
+        <v>5.106753E-2</v>
       </c>
       <c r="I22">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="J22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22">
-        <v>0.68899999999999995</v>
+        <v>0.12995498999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.32992139999999998</v>
+      </c>
+      <c r="K22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>0.378</v>
+        <v>0.39</v>
       </c>
       <c r="E23">
-        <v>4.4900000000000002E-2</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F23">
-        <v>0.27400000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G23">
-        <v>2.5100000000000001E-2</v>
+        <v>0.8</v>
       </c>
       <c r="H23">
-        <v>0.215</v>
+        <v>5.2656040000000001E-2</v>
       </c>
       <c r="I23">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="J23" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23">
-        <v>0.443</v>
+        <v>0.29294481</v>
+      </c>
+      <c r="J23">
+        <v>0.49662509999999999</v>
+      </c>
+      <c r="K23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0.25</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.4</v>
+      </c>
+      <c r="H24">
+        <v>0.10452895</v>
+      </c>
+      <c r="I24">
+        <v>0.10053736000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.49851089999999998</v>
+      </c>
+      <c r="K24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>46</v>
-      </c>
-      <c r="D24">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E24">
-        <v>9.2800000000000001E-3</v>
-      </c>
-      <c r="F24">
-        <v>0.495</v>
-      </c>
-      <c r="G24">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="H24">
-        <v>0.435</v>
-      </c>
-      <c r="I24">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="J24" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24">
-        <v>1.01</v>
-      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+      <c r="H25">
+        <v>0.19311923</v>
+      </c>
+      <c r="I25">
+        <v>2.293338E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.72698370000000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>0.39</v>
+      </c>
+      <c r="E26">
+        <v>0.22</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>5.2656040000000001E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.29294481</v>
+      </c>
+      <c r="J26">
+        <v>0.49662509999999999</v>
+      </c>
+      <c r="K26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E27">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27">
+        <v>0.4</v>
+      </c>
+      <c r="H27">
+        <v>5.4182710000000002E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.13959411999999999</v>
+      </c>
+      <c r="J27">
+        <v>0.35111870000000001</v>
+      </c>
+      <c r="K27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3.640964E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.64896224999999996</v>
+      </c>
+      <c r="J28">
+        <v>0.79108719999999999</v>
+      </c>
+      <c r="K28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.183</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+      <c r="G29">
+        <v>0.8</v>
+      </c>
+      <c r="H29">
+        <v>5.6755550000000002E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.19530731000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.41517500000000002</v>
+      </c>
+      <c r="K29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>0.873</v>
+      </c>
+      <c r="E30">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2.425633E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.81716778999999995</v>
+      </c>
+      <c r="J30">
+        <v>0.91319669999999997</v>
+      </c>
+      <c r="K30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>446</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33">
+        <v>0.14698163</v>
+      </c>
+      <c r="D33">
+        <v>4.1496350000000001E-2</v>
+      </c>
+      <c r="E33">
+        <v>-6.791671</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.0530010000000001E-9</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34">
+        <v>5.671296E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.7382160000000001E-2</v>
+      </c>
+      <c r="E34">
+        <v>-9.3631720000000005</v>
+      </c>
+      <c r="F34" s="3">
+        <v>8.1247289999999997E-19</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35">
+        <v>0.17322835</v>
+      </c>
+      <c r="D35">
+        <v>5.0493040000000003E-2</v>
+      </c>
+      <c r="E35">
+        <v>-6.0145790000000003</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.6051600000000001E-7</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36">
+        <v>6.6840280000000002E-2</v>
+      </c>
+      <c r="D36">
+        <v>2.105139E-2</v>
+      </c>
+      <c r="E36">
+        <v>-8.5900739999999995</v>
+      </c>
+      <c r="F36" s="3">
+        <v>8.7782089999999997E-16</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37">
+        <v>0.14698163</v>
+      </c>
+      <c r="D37">
+        <v>5.6750870000000002E-2</v>
+      </c>
+      <c r="E37">
+        <v>-4.9660840000000004</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.8753840000000003E-5</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38">
+        <v>5.671296E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.2918750000000002E-2</v>
+      </c>
+      <c r="E38">
+        <v>-7.1012659999999999</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.186741E-10</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39">
+        <v>0.21362547000000001</v>
+      </c>
+      <c r="D39">
+        <v>5.2987079999999999E-2</v>
+      </c>
+      <c r="E39">
+        <v>-6.2229789999999996</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.536553E-8</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40">
+        <v>8.2427539999999994E-2</v>
+      </c>
+      <c r="D40">
+        <v>2.2686950000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>-9.0680160000000001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.260525E-17</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41">
+        <v>0.33709299999999998</v>
+      </c>
+      <c r="D41">
+        <v>0.10674421000000001</v>
+      </c>
+      <c r="E41">
+        <v>-3.433945</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4.8778969999999998E-2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42">
+        <v>0.13006756999999999</v>
+      </c>
+      <c r="D42">
+        <v>4.401323E-2</v>
+      </c>
+      <c r="E42">
+        <v>-6.0277099999999999</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1.4966899999999999E-7</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43">
+        <v>0.16908413</v>
+      </c>
+      <c r="D43">
+        <v>4.8733600000000002E-2</v>
+      </c>
+      <c r="E43">
+        <v>-6.166652</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6.4170870000000004E-8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44">
+        <v>6.5241229999999997E-2</v>
+      </c>
+      <c r="D44">
+        <v>2.0351000000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>-8.7507560000000009</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2.1828620000000001E-16</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45">
+        <v>0.10249566</v>
+      </c>
+      <c r="D45">
+        <v>3.639005E-2</v>
+      </c>
+      <c r="E45">
+        <v>-6.415997</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1.315099E-8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46">
+        <v>3.9548020000000003E-2</v>
+      </c>
+      <c r="D46">
+        <v>1.4812580000000001E-2</v>
+      </c>
+      <c r="E46">
+        <v>-8.6243999999999996</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6.5718269999999997E-16</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47">
+        <v>0.24164193</v>
+      </c>
+      <c r="D47">
+        <v>6.9384319999999999E-2</v>
+      </c>
+      <c r="E47">
+        <v>-4.946415</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6.4253939999999994E-5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48">
+        <v>9.3237710000000001E-2</v>
+      </c>
+      <c r="D48">
+        <v>2.8990700000000001E-2</v>
+      </c>
+      <c r="E48">
+        <v>-7.6305880000000004</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2.2901199999999999E-12</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49">
+        <v>0.12598424999999999</v>
+      </c>
+      <c r="D49">
+        <v>7.3918529999999996E-2</v>
+      </c>
+      <c r="E49">
+        <v>-3.5307620000000002</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3.4392209999999999E-2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>102</v>
+      </c>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50">
+        <v>4.8611109999999999E-2</v>
+      </c>
+      <c r="D50">
+        <v>2.910511E-2</v>
+      </c>
+      <c r="E50">
+        <v>-5.0504980000000002</v>
+      </c>
+      <c r="F50" s="3">
+        <v>3.8337409999999997E-5</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51">
+        <v>0.24164193</v>
+      </c>
+      <c r="D51">
+        <v>6.9384319999999999E-2</v>
+      </c>
+      <c r="E51">
+        <v>-4.946415</v>
+      </c>
+      <c r="F51" s="3">
+        <v>6.4253939999999994E-5</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52">
+        <v>9.3237710000000001E-2</v>
+      </c>
+      <c r="D52">
+        <v>2.8990700000000001E-2</v>
+      </c>
+      <c r="E52">
+        <v>-7.6305880000000004</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2.2901199999999999E-12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53">
+        <v>0.111986</v>
+      </c>
+      <c r="D53">
+        <v>4.004692E-2</v>
+      </c>
+      <c r="E53">
+        <v>-6.1223200000000002</v>
+      </c>
+      <c r="F53" s="3">
+        <v>8.3922650000000004E-8</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54">
+        <v>4.3209879999999999E-2</v>
+      </c>
+      <c r="D54">
+        <v>1.628928E-2</v>
+      </c>
+      <c r="E54">
+        <v>-8.3338169999999998</v>
+      </c>
+      <c r="F54" s="3">
+        <v>7.8276560000000006E-15</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55">
+        <v>6.3740530299999998</v>
+      </c>
+      <c r="D55">
+        <v>2.0988321399999998</v>
+      </c>
+      <c r="E55">
+        <v>5.6251509999999998</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1.6310440000000001E-6</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56">
+        <v>6.0534589999999999E-2</v>
+      </c>
+      <c r="D56">
+        <v>2.1200549999999999E-2</v>
+      </c>
+      <c r="E56">
+        <v>-8.0078910000000008</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1.155249E-13</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E10:E12 F33:F56">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -32629,35 +34741,35 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="X1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="Y3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Z3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -32682,7 +34794,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="Y5">
         <v>540</v>
@@ -32699,19 +34811,19 @@
         <v>10</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Z8" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AA8" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC8" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -32736,7 +34848,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X10" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="Y10">
         <v>540</v>
@@ -32750,22 +34862,22 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X12" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Z12" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AA12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC12" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -32788,12 +34900,12 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="AD13" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X14" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="Y14">
         <v>538</v>
@@ -32807,22 +34919,22 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="X16" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Z16" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AA16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AB16" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC16" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -32847,7 +34959,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="X18" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="Y18">
         <v>540</v>
@@ -32867,16 +34979,16 @@
         <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="Q26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="R26" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="S26" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -32884,19 +34996,19 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="M27">
         <v>2018</v>
@@ -33455,9 +35567,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE58FF-50D1-446A-8C66-07AEB901989B}">
-  <dimension ref="A1:BF66"/>
+  <dimension ref="A1:BG66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33467,105 +35581,105 @@
     <col min="45" max="45" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="P3" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="AE3" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="AT3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="Q5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="R5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="T5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="U5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AE5" t="s">
         <v>10</v>
       </c>
       <c r="AF5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AH5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AI5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AJ5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AT5" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="AU5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AV5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AW5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AX5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AY5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -33585,10 +35699,10 @@
         <v>2E-16</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="P6" t="s">
         <v>1</v>
@@ -33609,10 +35723,10 @@
         <v>1.8500000000000001E-15</v>
       </c>
       <c r="V6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="AE6" t="s">
         <v>1</v>
@@ -33633,7 +35747,7 @@
         <v>4.1E-5</v>
       </c>
       <c r="AK6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AT6" t="s">
         <v>1</v>
@@ -33651,15 +35765,15 @@
         <v>26.81</v>
       </c>
       <c r="AY6" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="AZ6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>532</v>
@@ -33671,7 +35785,7 @@
         <v>3.8</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>530</v>
@@ -33683,7 +35797,7 @@
         <v>17.260000000000002</v>
       </c>
       <c r="AE7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AF7">
         <v>532</v>
@@ -33695,7 +35809,7 @@
         <v>7.2040000000000007E-2</v>
       </c>
       <c r="AT7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AU7">
         <v>532</v>
@@ -33707,7 +35821,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -33718,7 +35832,7 @@
         <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
@@ -33727,22 +35841,22 @@
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L9" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="M9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
         <v>1</v>
@@ -33754,7 +35868,7 @@
         <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="T9" t="s">
         <v>89</v>
@@ -33763,22 +35877,22 @@
         <v>90</v>
       </c>
       <c r="V9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="W9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Z9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AA9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AE9" t="s">
         <v>1</v>
@@ -33790,7 +35904,7 @@
         <v>87</v>
       </c>
       <c r="AH9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="AI9" t="s">
         <v>89</v>
@@ -33799,22 +35913,22 @@
         <v>90</v>
       </c>
       <c r="AK9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="AL9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AM9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AO9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AP9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="AQ9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AT9" t="s">
         <v>1</v>
@@ -33826,7 +35940,7 @@
         <v>87</v>
       </c>
       <c r="AW9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="AX9" t="s">
         <v>89</v>
@@ -33835,25 +35949,25 @@
         <v>90</v>
       </c>
       <c r="AZ9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="BA9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="BB9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BD9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="BE9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="BF9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -33879,10 +35993,10 @@
         <v>19.763999999999999</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="L10" s="3">
         <v>1.95E-28</v>
@@ -33890,6 +36004,9 @@
       <c r="M10" s="3">
         <v>6.0500000000000001E-27</v>
       </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
       <c r="P10">
         <v>1</v>
       </c>
@@ -33915,17 +36032,20 @@
         <v>31.997</v>
       </c>
       <c r="X10" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="Z10" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AA10" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="AB10">
         <v>3.32E-2</v>
       </c>
+      <c r="AC10" t="s">
+        <v>102</v>
+      </c>
       <c r="AE10">
         <v>1</v>
       </c>
@@ -33951,10 +36071,10 @@
         <v>8.2560000000000002</v>
       </c>
       <c r="AM10" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="AO10" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="AP10">
         <v>2.3099999999999999E-6</v>
@@ -33962,6 +36082,9 @@
       <c r="AQ10">
         <v>1.5300000000000001E-4</v>
       </c>
+      <c r="AR10" t="s">
+        <v>104</v>
+      </c>
       <c r="AT10">
         <v>1</v>
       </c>
@@ -33987,19 +36110,22 @@
         <v>9.2129999999999992</v>
       </c>
       <c r="BB10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="BD10" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="BE10" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="BF10" s="3">
         <v>9.9299999999999996E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -34025,10 +36151,10 @@
         <v>23.36</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="L11" s="3">
         <v>5.3499999999999998E-26</v>
@@ -34036,6 +36162,9 @@
       <c r="M11" s="3">
         <v>1.6000000000000001E-24</v>
       </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
       <c r="P11">
         <v>2</v>
       </c>
@@ -34061,17 +36190,20 @@
         <v>33.002000000000002</v>
       </c>
       <c r="X11" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="Z11" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="AA11" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="AB11">
         <v>2.4299999999999999E-2</v>
       </c>
+      <c r="AC11" t="s">
+        <v>102</v>
+      </c>
       <c r="AE11">
         <v>2</v>
       </c>
@@ -34097,10 +36229,10 @@
         <v>8.2940000000000005</v>
       </c>
       <c r="AM11" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="AO11" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AP11">
         <v>3.6300000000000001E-5</v>
@@ -34108,6 +36240,9 @@
       <c r="AQ11">
         <v>2.3600000000000001E-3</v>
       </c>
+      <c r="AR11" t="s">
+        <v>121</v>
+      </c>
       <c r="AT11">
         <v>2</v>
       </c>
@@ -34133,10 +36268,10 @@
         <v>8.2620000000000005</v>
       </c>
       <c r="BB11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="BD11" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="BE11" s="3">
         <v>3.08E-11</v>
@@ -34144,8 +36279,11 @@
       <c r="BF11" s="3">
         <v>1.6000000000000001E-9</v>
       </c>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -34171,10 +36309,10 @@
         <v>24.015000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L12" s="3">
         <v>4.4200000000000002E-39</v>
@@ -34182,6 +36320,9 @@
       <c r="M12" s="3">
         <v>1.6800000000000001E-37</v>
       </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
       <c r="P12">
         <v>3</v>
       </c>
@@ -34207,17 +36348,20 @@
         <v>33.555999999999997</v>
       </c>
       <c r="X12" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="Z12" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="AA12" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AB12">
         <v>4.7899999999999999E-5</v>
       </c>
+      <c r="AC12" t="s">
+        <v>104</v>
+      </c>
       <c r="AE12">
         <v>3</v>
       </c>
@@ -34243,10 +36387,10 @@
         <v>8.343</v>
       </c>
       <c r="AM12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="AP12">
         <v>4.3399999999999998E-4</v>
@@ -34254,6 +36398,9 @@
       <c r="AQ12">
         <v>2.6499999999999999E-2</v>
       </c>
+      <c r="AR12" t="s">
+        <v>102</v>
+      </c>
       <c r="AT12">
         <v>3</v>
       </c>
@@ -34279,19 +36426,22 @@
         <v>8.5039999999999996</v>
       </c>
       <c r="BB12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="BD12" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="BE12" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="BF12" s="3">
         <v>3.8300000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -34317,17 +36467,20 @@
         <v>25.116</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="L13" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M13" s="3">
         <v>3.2799999999999999E-3</v>
       </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
       <c r="P13">
         <v>4</v>
       </c>
@@ -34353,17 +36506,20 @@
         <v>33.820999999999998</v>
       </c>
       <c r="X13" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="Z13" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="AA13" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="AB13">
         <v>4.8699999999999998E-5</v>
       </c>
+      <c r="AC13" t="s">
+        <v>104</v>
+      </c>
       <c r="AE13">
         <v>4</v>
       </c>
@@ -34389,10 +36545,10 @@
         <v>8.2469999999999999</v>
       </c>
       <c r="AM13" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="AO13" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="AP13">
         <v>4.15E-4</v>
@@ -34400,6 +36556,9 @@
       <c r="AQ13">
         <v>2.5700000000000001E-2</v>
       </c>
+      <c r="AR13" t="s">
+        <v>102</v>
+      </c>
       <c r="AT13">
         <v>4</v>
       </c>
@@ -34425,19 +36584,22 @@
         <v>7.7880000000000003</v>
       </c>
       <c r="BB13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="BD13" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="BE13" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="BF13" s="3">
         <v>1.3799999999999999E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -34463,17 +36625,20 @@
         <v>28.298999999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="M14" s="3">
         <v>7.1799999999999997E-5</v>
       </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
       <c r="P14">
         <v>5</v>
       </c>
@@ -34499,17 +36664,20 @@
         <v>34.064</v>
       </c>
       <c r="X14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Z14" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="AA14" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="AB14">
         <v>1.48E-6</v>
       </c>
+      <c r="AC14" t="s">
+        <v>104</v>
+      </c>
       <c r="AE14">
         <v>5</v>
       </c>
@@ -34535,10 +36703,10 @@
         <v>8.4120000000000008</v>
       </c>
       <c r="AM14" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="AO14" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="AP14">
         <v>3.8099999999999998E-5</v>
@@ -34546,6 +36714,9 @@
       <c r="AQ14">
         <v>2.4399999999999999E-3</v>
       </c>
+      <c r="AR14" t="s">
+        <v>121</v>
+      </c>
       <c r="AT14">
         <v>5</v>
       </c>
@@ -34571,10 +36742,10 @@
         <v>7.5590000000000002</v>
       </c>
       <c r="BB14" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="BD14" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="BE14" s="3">
         <v>1.2000000000000001E-19</v>
@@ -34582,8 +36753,11 @@
       <c r="BF14" s="3">
         <v>7.5399999999999999E-18</v>
       </c>
-    </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -34609,10 +36783,10 @@
         <v>30.951000000000001</v>
       </c>
       <c r="I15" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="L15" s="3">
         <v>5.6200000000000002E-82</v>
@@ -34620,6 +36794,9 @@
       <c r="M15" s="3">
         <v>3.1999999999999999E-80</v>
       </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
       <c r="P15">
         <v>6</v>
       </c>
@@ -34645,17 +36822,20 @@
         <v>34.014000000000003</v>
       </c>
       <c r="X15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Z15" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="AA15" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="AB15">
         <v>6.5700000000000002E-7</v>
       </c>
+      <c r="AC15" t="s">
+        <v>104</v>
+      </c>
       <c r="AE15">
         <v>6</v>
       </c>
@@ -34681,10 +36861,10 @@
         <v>8.3279999999999994</v>
       </c>
       <c r="AM15" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AO15" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="AP15">
         <v>3.97E-4</v>
@@ -34692,6 +36872,9 @@
       <c r="AQ15">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="AR15" t="s">
+        <v>102</v>
+      </c>
       <c r="AT15">
         <v>6</v>
       </c>
@@ -34717,10 +36900,10 @@
         <v>6.8109999999999999</v>
       </c>
       <c r="BB15" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="BD15" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="BE15" s="3">
         <v>1.1399999999999999E-10</v>
@@ -34728,8 +36911,11 @@
       <c r="BF15" s="3">
         <v>5.4700000000000003E-9</v>
       </c>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -34755,10 +36941,10 @@
         <v>31.558</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L16" s="3">
         <v>8.2200000000000001E-29</v>
@@ -34766,6 +36952,9 @@
       <c r="M16" s="3">
         <v>2.6299999999999999E-27</v>
       </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
       <c r="P16">
         <v>7</v>
       </c>
@@ -34791,17 +36980,20 @@
         <v>33.82</v>
       </c>
       <c r="X16" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="Z16" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="AA16" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="AB16">
         <v>2.23E-4</v>
       </c>
+      <c r="AC16" t="s">
+        <v>104</v>
+      </c>
       <c r="AE16">
         <v>7</v>
       </c>
@@ -34827,7 +37019,7 @@
         <v>8.3740000000000006</v>
       </c>
       <c r="AM16" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AT16">
         <v>7</v>
@@ -34854,10 +37046,10 @@
         <v>6.5410000000000004</v>
       </c>
       <c r="BB16" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="BD16" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="BE16" s="3">
         <v>3.08E-13</v>
@@ -34865,8 +37057,11 @@
       <c r="BF16" s="3">
         <v>1.7599999999999999E-11</v>
       </c>
-    </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -34892,10 +37087,10 @@
         <v>31.957000000000001</v>
       </c>
       <c r="I17" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="L17" s="3">
         <v>2.8400000000000001E-34</v>
@@ -34903,6 +37098,9 @@
       <c r="M17" s="3">
         <v>9.95E-33</v>
       </c>
+      <c r="N17" t="s">
+        <v>104</v>
+      </c>
       <c r="P17">
         <v>8</v>
       </c>
@@ -34928,17 +37126,20 @@
         <v>31.009</v>
       </c>
       <c r="X17" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="Z17" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="AA17" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="AB17">
         <v>3.9899999999999998E-2</v>
       </c>
+      <c r="AC17" t="s">
+        <v>102</v>
+      </c>
       <c r="AE17">
         <v>8</v>
       </c>
@@ -34964,7 +37165,7 @@
         <v>8.1579999999999995</v>
       </c>
       <c r="AM17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AT17">
         <v>8</v>
@@ -34991,19 +37192,22 @@
         <v>6.9930000000000003</v>
       </c>
       <c r="BB17" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="BD17" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="BE17" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="BF17" s="3">
         <v>4.2700000000000002E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -35029,10 +37233,10 @@
         <v>30.989000000000001</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="L18" s="3">
         <v>7.0500000000000001E-12</v>
@@ -35040,6 +37244,9 @@
       <c r="M18" s="3">
         <v>1.41E-10</v>
       </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
       <c r="P18">
         <v>9</v>
       </c>
@@ -35065,17 +37272,20 @@
         <v>30.984000000000002</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="Z18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="AA18" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="AB18">
         <v>2.21E-6</v>
       </c>
+      <c r="AC18" t="s">
+        <v>104</v>
+      </c>
       <c r="AE18">
         <v>9</v>
       </c>
@@ -35101,7 +37311,7 @@
         <v>8.48</v>
       </c>
       <c r="AM18" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AT18">
         <v>9</v>
@@ -35128,10 +37338,10 @@
         <v>7.1349999999999998</v>
       </c>
       <c r="BB18" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="BD18" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="BE18" s="3">
         <v>2.01E-23</v>
@@ -35139,8 +37349,11 @@
       <c r="BF18" s="3">
         <v>1.3299999999999999E-21</v>
       </c>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -35166,10 +37379,10 @@
         <v>28.224</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="L19" s="3">
         <v>2.5799999999999998E-122</v>
@@ -35177,6 +37390,9 @@
       <c r="M19" s="3">
         <v>1.6499999999999998E-120</v>
       </c>
+      <c r="N19" t="s">
+        <v>104</v>
+      </c>
       <c r="P19">
         <v>10</v>
       </c>
@@ -35202,17 +37418,20 @@
         <v>31.003</v>
       </c>
       <c r="X19" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="Z19" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="AA19" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="AB19">
         <v>3.9500000000000003E-6</v>
       </c>
+      <c r="AC19" t="s">
+        <v>104</v>
+      </c>
       <c r="AE19">
         <v>10</v>
       </c>
@@ -35238,7 +37457,7 @@
         <v>8.2240000000000002</v>
       </c>
       <c r="AM19" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AT19">
         <v>10</v>
@@ -35265,10 +37484,10 @@
         <v>7.181</v>
       </c>
       <c r="BB19" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="BD19" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="BE19" s="3">
         <v>4.5099999999999998E-14</v>
@@ -35276,8 +37495,11 @@
       <c r="BF19" s="3">
         <v>2.61E-12</v>
       </c>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -35303,10 +37525,10 @@
         <v>23.486000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L20" s="3">
         <v>2.1100000000000002E-67</v>
@@ -35314,6 +37536,9 @@
       <c r="M20" s="3">
         <v>1.01E-65</v>
       </c>
+      <c r="N20" t="s">
+        <v>104</v>
+      </c>
       <c r="P20">
         <v>11</v>
       </c>
@@ -35339,10 +37564,10 @@
         <v>32.234000000000002</v>
       </c>
       <c r="X20" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="Z20" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="AA20" s="3">
         <v>8.0999999999999999E-10</v>
@@ -35350,6 +37575,9 @@
       <c r="AB20">
         <v>5.2700000000000002E-8</v>
       </c>
+      <c r="AC20" t="s">
+        <v>104</v>
+      </c>
       <c r="AE20">
         <v>11</v>
       </c>
@@ -35375,7 +37603,7 @@
         <v>8.2690000000000001</v>
       </c>
       <c r="AM20" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="AT20">
         <v>11</v>
@@ -35402,10 +37630,10 @@
         <v>8.093</v>
       </c>
       <c r="BB20" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="BD20" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="BE20" s="3">
         <v>6.7600000000000004E-17</v>
@@ -35413,8 +37641,11 @@
       <c r="BF20" s="3">
         <v>4.1899999999999998E-15</v>
       </c>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -35440,10 +37671,10 @@
         <v>22.629000000000001</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="L21" s="3">
         <v>2.9899999999999998E-75</v>
@@ -35451,6 +37682,9 @@
       <c r="M21" s="3">
         <v>1.6100000000000001E-73</v>
       </c>
+      <c r="N21" t="s">
+        <v>104</v>
+      </c>
       <c r="P21">
         <v>12</v>
       </c>
@@ -35476,10 +37710,10 @@
         <v>31.585000000000001</v>
       </c>
       <c r="X21" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="Z21" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="AA21" s="3">
         <v>2.84E-10</v>
@@ -35487,6 +37721,9 @@
       <c r="AB21">
         <v>1.8699999999999999E-8</v>
       </c>
+      <c r="AC21" t="s">
+        <v>104</v>
+      </c>
       <c r="AE21">
         <v>12</v>
       </c>
@@ -35512,7 +37749,7 @@
         <v>8.33</v>
       </c>
       <c r="AM21" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="AT21">
         <v>12</v>
@@ -35539,21 +37776,24 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="BB21" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="BD21" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="BE21" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="BF21" s="3">
         <v>1.3799999999999999E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="L22" s="3">
         <v>6.4099999999999999E-40</v>
@@ -35561,28 +37801,37 @@
       <c r="M22" s="3">
         <v>2.5000000000000002E-38</v>
       </c>
+      <c r="N22" t="s">
+        <v>104</v>
+      </c>
       <c r="Z22" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="AA22" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="AB22">
         <v>1.73E-5</v>
       </c>
+      <c r="AC22" t="s">
+        <v>104</v>
+      </c>
       <c r="BD22" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="BE22" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="BF22" s="3">
         <v>2.8300000000000001E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="L23" s="3">
         <v>6.9300000000000002E-15</v>
@@ -35590,20 +37839,26 @@
       <c r="M23" s="3">
         <v>1.66E-13</v>
       </c>
+      <c r="N23" t="s">
+        <v>104</v>
+      </c>
       <c r="P23" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="Z23" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="AA23" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="AB23">
         <v>2.7900000000000001E-2</v>
       </c>
+      <c r="AC23" t="s">
+        <v>102</v>
+      </c>
       <c r="BD23" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="BE23" s="3">
         <v>1.9299999999999999E-21</v>
@@ -35611,10 +37866,13 @@
       <c r="BF23" s="3">
         <v>1.2599999999999999E-19</v>
       </c>
-    </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="L24" s="3">
         <v>4.8799999999999999E-123</v>
@@ -35622,17 +37880,23 @@
       <c r="M24" s="3">
         <v>3.1699999999999999E-121</v>
       </c>
+      <c r="N24" t="s">
+        <v>104</v>
+      </c>
       <c r="Z24" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="AA24" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="AB24">
         <v>1.43E-2</v>
       </c>
+      <c r="AC24" t="s">
+        <v>102</v>
+      </c>
       <c r="BD24" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="BE24" s="3">
         <v>4.5800000000000003E-12</v>
@@ -35640,10 +37904,13 @@
       <c r="BF24" s="3">
         <v>2.4299999999999999E-10</v>
       </c>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L25" s="3">
         <v>1.7499999999999999E-70</v>
@@ -35651,17 +37918,23 @@
       <c r="M25" s="3">
         <v>8.91E-69</v>
       </c>
+      <c r="N25" t="s">
+        <v>104</v>
+      </c>
       <c r="Z25" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="AA25" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="AB25">
         <v>1.56E-3</v>
       </c>
+      <c r="AC25" t="s">
+        <v>121</v>
+      </c>
       <c r="BD25" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="BE25" s="3">
         <v>7.6700000000000004E-15</v>
@@ -35669,10 +37942,13 @@
       <c r="BF25" s="3">
         <v>4.5999999999999996E-13</v>
       </c>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="L26" s="3">
         <v>6.4500000000000001E-78</v>
@@ -35680,28 +37956,37 @@
       <c r="M26" s="3">
         <v>3.5499999999999997E-76</v>
       </c>
+      <c r="N26" t="s">
+        <v>104</v>
+      </c>
       <c r="Z26" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="AA26" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="AB26">
         <v>9.6400000000000001E-4</v>
       </c>
+      <c r="AC26" t="s">
+        <v>104</v>
+      </c>
       <c r="BD26" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="BE26" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="BF26" s="3">
         <v>5.8400000000000003E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L27" s="3">
         <v>7.53E-44</v>
@@ -35709,17 +37994,23 @@
       <c r="M27" s="3">
         <v>3.1600000000000001E-42</v>
       </c>
+      <c r="N27" t="s">
+        <v>104</v>
+      </c>
       <c r="Z27" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="AA27" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="AB27">
         <v>3.9100000000000003E-2</v>
       </c>
+      <c r="AC27" t="s">
+        <v>102</v>
+      </c>
       <c r="BD27" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="BE27" s="3">
         <v>1.11E-19</v>
@@ -35727,10 +38018,13 @@
       <c r="BF27" s="3">
         <v>7.09E-18</v>
       </c>
-    </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="L28" s="3">
         <v>9.1200000000000004E-19</v>
@@ -35738,17 +38032,23 @@
       <c r="M28" s="3">
         <v>2.5500000000000001E-17</v>
       </c>
+      <c r="N28" t="s">
+        <v>104</v>
+      </c>
       <c r="Z28" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="AA28" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="AB28">
         <v>4.3299999999999998E-2</v>
       </c>
+      <c r="AC28" t="s">
+        <v>102</v>
+      </c>
       <c r="BD28" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="BE28" s="3">
         <v>2.0399999999999999E-10</v>
@@ -35756,10 +38056,13 @@
       <c r="BF28" s="3">
         <v>9.3999999999999998E-9</v>
       </c>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="L29" s="3">
         <v>1.03E-125</v>
@@ -35767,8 +38070,11 @@
       <c r="M29" s="3">
         <v>6.7699999999999999E-124</v>
       </c>
+      <c r="N29" t="s">
+        <v>104</v>
+      </c>
       <c r="BD29" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="BE29" s="3">
         <v>4.3199999999999998E-13</v>
@@ -35776,10 +38082,13 @@
       <c r="BF29" s="3">
         <v>2.4200000000000001E-11</v>
       </c>
-    </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="L30" s="3">
         <v>7.9399999999999993E-71</v>
@@ -35787,19 +38096,25 @@
       <c r="M30" s="3">
         <v>4.13E-69</v>
       </c>
+      <c r="N30" t="s">
+        <v>104</v>
+      </c>
       <c r="BD30" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="BE30" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="BF30" s="3">
         <v>9.2000000000000003E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="L31" s="3">
         <v>7.3700000000000005E-79</v>
@@ -35807,8 +38122,11 @@
       <c r="M31" s="3">
         <v>4.1300000000000003E-77</v>
       </c>
+      <c r="N31" t="s">
+        <v>104</v>
+      </c>
       <c r="BD31" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="BE31" s="3">
         <v>1.94E-16</v>
@@ -35816,10 +38134,13 @@
       <c r="BF31" s="3">
         <v>1.1799999999999999E-14</v>
       </c>
-    </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BG31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="L32" s="3">
         <v>1.39E-42</v>
@@ -35827,19 +38148,25 @@
       <c r="M32" s="3">
         <v>5.6900000000000001E-41</v>
       </c>
+      <c r="N32" t="s">
+        <v>104</v>
+      </c>
       <c r="BD32" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="BE32" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="BF32" s="3">
         <v>1.2899999999999999E-6</v>
       </c>
-    </row>
-    <row r="33" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="L33" s="3">
         <v>6.8500000000000004E-17</v>
@@ -35847,8 +38174,11 @@
       <c r="M33" s="3">
         <v>1.8500000000000001E-15</v>
       </c>
+      <c r="N33" t="s">
+        <v>104</v>
+      </c>
       <c r="BD33" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="BE33" s="3">
         <v>1.9900000000000001E-10</v>
@@ -35856,10 +38186,13 @@
       <c r="BF33" s="3">
         <v>9.3600000000000008E-9</v>
       </c>
-    </row>
-    <row r="34" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L34" s="3">
         <v>4.2500000000000001E-121</v>
@@ -35867,19 +38200,25 @@
       <c r="M34" s="3">
         <v>2.6799999999999999E-119</v>
       </c>
+      <c r="N34" t="s">
+        <v>104</v>
+      </c>
       <c r="BD34" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="BE34" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="BF34" s="3">
         <v>1.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="L35" s="3">
         <v>4.8100000000000003E-64</v>
@@ -35887,19 +38226,25 @@
       <c r="M35" s="3">
         <v>2.2100000000000001E-62</v>
       </c>
+      <c r="N35" t="s">
+        <v>104</v>
+      </c>
       <c r="BD35" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="BE35" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="BF35" s="3">
         <v>8.26E-3</v>
       </c>
-    </row>
-    <row r="36" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L36" s="3">
         <v>3.0900000000000001E-72</v>
@@ -35907,8 +38252,11 @@
       <c r="M36" s="3">
         <v>1.64E-70</v>
       </c>
+      <c r="N36" t="s">
+        <v>104</v>
+      </c>
       <c r="BD36" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="BE36" s="3">
         <v>9.0699999999999997E-10</v>
@@ -35916,10 +38264,13 @@
       <c r="BF36" s="3">
         <v>4.0800000000000001E-8</v>
       </c>
-    </row>
-    <row r="37" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="L37" s="3">
         <v>4.9199999999999998E-36</v>
@@ -35927,19 +38278,25 @@
       <c r="M37" s="3">
         <v>1.8200000000000001E-34</v>
       </c>
+      <c r="N37" t="s">
+        <v>104</v>
+      </c>
       <c r="BD37" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="BE37" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="BF37" s="3">
         <v>3.1400000000000003E-11</v>
       </c>
-    </row>
-    <row r="38" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L38" s="3">
         <v>2.07E-11</v>
@@ -35947,8 +38304,11 @@
       <c r="M38" s="3">
         <v>3.73E-10</v>
       </c>
+      <c r="N38" t="s">
+        <v>104</v>
+      </c>
       <c r="BD38" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="BE38" s="3">
         <v>4.9499999999999997E-11</v>
@@ -35956,30 +38316,39 @@
       <c r="BF38" s="3">
         <v>2.52E-9</v>
       </c>
-    </row>
-    <row r="39" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="M39" s="3">
         <v>2.5899999999999999E-2</v>
       </c>
+      <c r="N39" t="s">
+        <v>102</v>
+      </c>
       <c r="BD39" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="BE39" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="BF39" s="3">
         <v>7.8899999999999998E-8</v>
       </c>
-    </row>
-    <row r="40" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="L40" s="3">
         <v>1.4799999999999999E-88</v>
@@ -35987,19 +38356,25 @@
       <c r="M40" s="3">
         <v>8.8799999999999994E-87</v>
       </c>
+      <c r="N40" t="s">
+        <v>104</v>
+      </c>
       <c r="BD40" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="BE40" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="BF40" s="3">
         <v>5.8599999999999998E-6</v>
       </c>
-    </row>
-    <row r="41" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="L41" s="3">
         <v>4.7400000000000001E-34</v>
@@ -36007,19 +38382,25 @@
       <c r="M41" s="3">
         <v>1.6099999999999999E-32</v>
       </c>
+      <c r="N41" t="s">
+        <v>104</v>
+      </c>
       <c r="BD41" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="BE41" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="BF41" s="3">
         <v>2.5799999999999998E-3</v>
       </c>
-    </row>
-    <row r="42" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="L42" s="3">
         <v>4.9500000000000001E-40</v>
@@ -36027,8 +38408,11 @@
       <c r="M42" s="3">
         <v>1.98E-38</v>
       </c>
+      <c r="N42" t="s">
+        <v>104</v>
+      </c>
       <c r="BD42" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="BE42" s="3">
         <v>6.1200000000000006E-11</v>
@@ -36036,10 +38420,13 @@
       <c r="BF42" s="3">
         <v>3.0600000000000002E-9</v>
       </c>
-    </row>
-    <row r="43" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="L43" s="3">
         <v>4.3999999999999997E-15</v>
@@ -36047,8 +38434,11 @@
       <c r="M43" s="3">
         <v>1.1E-13</v>
       </c>
+      <c r="N43" t="s">
+        <v>104</v>
+      </c>
       <c r="BD43" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="BE43" s="3">
         <v>2.3699999999999999E-14</v>
@@ -36056,10 +38446,13 @@
       <c r="BF43" s="3">
         <v>1.4000000000000001E-12</v>
       </c>
-    </row>
-    <row r="44" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="L44" s="3">
         <v>8.4200000000000001E-12</v>
@@ -36067,8 +38460,11 @@
       <c r="M44" s="3">
         <v>1.5999999999999999E-10</v>
       </c>
+      <c r="N44" t="s">
+        <v>104</v>
+      </c>
       <c r="BD44" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="BE44" s="3">
         <v>2.41E-12</v>
@@ -36076,10 +38472,13 @@
       <c r="BF44" s="3">
         <v>1.2999999999999999E-10</v>
       </c>
-    </row>
-    <row r="45" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="L45" s="3">
         <v>1.6699999999999999E-15</v>
@@ -36087,8 +38486,11 @@
       <c r="M45" s="3">
         <v>4.3400000000000003E-14</v>
       </c>
+      <c r="N45" t="s">
+        <v>104</v>
+      </c>
       <c r="BD45" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="BE45" s="3">
         <v>1.09E-10</v>
@@ -36096,10 +38498,13 @@
       <c r="BF45" s="3">
         <v>5.3199999999999998E-9</v>
       </c>
-    </row>
-    <row r="46" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="L46" s="3">
         <v>1.2800000000000001E-13</v>
@@ -36107,30 +38512,39 @@
       <c r="M46" s="3">
         <v>2.8099999999999999E-12</v>
       </c>
+      <c r="N46" t="s">
+        <v>104</v>
+      </c>
       <c r="BD46" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="BE46" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="BF46" s="3">
         <v>7.4499999999999996E-7</v>
       </c>
-    </row>
-    <row r="47" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="BG46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K47" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M47" s="3">
         <v>2.35E-7</v>
       </c>
-    </row>
-    <row r="48" spans="11:58" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="11:59" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="L48" s="3">
         <v>1.96E-23</v>
@@ -36138,21 +38552,27 @@
       <c r="M48" s="3">
         <v>5.6800000000000003E-22</v>
       </c>
-    </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
+        <v>213</v>
+      </c>
+      <c r="L49" t="s">
         <v>234</v>
-      </c>
-      <c r="L49" t="s">
-        <v>255</v>
       </c>
       <c r="M49" s="3">
         <v>3.97E-4</v>
       </c>
-    </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="L50" s="3">
         <v>1.13E-29</v>
@@ -36160,10 +38580,13 @@
       <c r="M50" s="3">
         <v>3.7299999999999998E-28</v>
       </c>
-    </row>
-    <row r="51" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="L51" s="3">
         <v>1.9800000000000001E-66</v>
@@ -36171,10 +38594,13 @@
       <c r="M51" s="3">
         <v>9.3100000000000008E-65</v>
       </c>
-    </row>
-    <row r="52" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="L52" s="3">
         <v>1.29E-69</v>
@@ -36182,10 +38608,13 @@
       <c r="M52" s="3">
         <v>6.2999999999999998E-68</v>
       </c>
-    </row>
-    <row r="53" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K53" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L53" s="3">
         <v>1.17E-69</v>
@@ -36193,10 +38622,13 @@
       <c r="M53" s="3">
         <v>5.8700000000000004E-68</v>
       </c>
-    </row>
-    <row r="54" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="L54" s="3">
         <v>5.1000000000000002E-63</v>
@@ -36204,10 +38636,13 @@
       <c r="M54" s="3">
         <v>2.2999999999999999E-61</v>
       </c>
-    </row>
-    <row r="55" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K55" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="L55" s="3">
         <v>1.0999999999999999E-34</v>
@@ -36215,10 +38650,13 @@
       <c r="M55" s="3">
         <v>3.9600000000000003E-33</v>
       </c>
-    </row>
-    <row r="56" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L56" s="3">
         <v>1.89E-14</v>
@@ -36226,32 +38664,41 @@
       <c r="M56" s="3">
         <v>4.3400000000000002E-13</v>
       </c>
-    </row>
-    <row r="57" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K57" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="M57" s="3">
         <v>1.34E-3</v>
       </c>
-    </row>
-    <row r="58" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="L58" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="M58" s="3">
         <v>2.5499999999999998E-2</v>
       </c>
-    </row>
-    <row r="59" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="L59" s="3">
         <v>1.9199999999999999E-12</v>
@@ -36259,10 +38706,13 @@
       <c r="M59" s="3">
         <v>4.0299999999999999E-11</v>
       </c>
-    </row>
-    <row r="60" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="L60" s="3">
         <v>1.06E-45</v>
@@ -36270,10 +38720,13 @@
       <c r="M60" s="3">
         <v>4.5800000000000003E-44</v>
       </c>
-    </row>
-    <row r="61" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K61" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="L61" s="3">
         <v>1.22E-86</v>
@@ -36281,10 +38734,13 @@
       <c r="M61" s="3">
         <v>7.1699999999999998E-85</v>
       </c>
-    </row>
-    <row r="62" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="L62" s="3">
         <v>7.16E-89</v>
@@ -36292,10 +38748,13 @@
       <c r="M62" s="3">
         <v>4.3599999999999998E-87</v>
       </c>
-    </row>
-    <row r="63" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="L63" s="3">
         <v>3.6900000000000001E-90</v>
@@ -36303,10 +38762,13 @@
       <c r="M63" s="3">
         <v>2.2900000000000001E-88</v>
       </c>
-    </row>
-    <row r="64" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="L64" s="3">
         <v>4.9099999999999997E-84</v>
@@ -36314,10 +38776,13 @@
       <c r="M64" s="3">
         <v>2.85E-82</v>
       </c>
-    </row>
-    <row r="65" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L65" s="3">
         <v>9.3699999999999994E-52</v>
@@ -36325,29 +38790,35 @@
       <c r="M65" s="3">
         <v>4.1199999999999999E-50</v>
       </c>
-    </row>
-    <row r="66" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="M66" s="3">
         <v>0.03</v>
       </c>
+      <c r="N66" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M10:M66 AB10:AB28 U6 F6 AJ6 AQ10:AQ15 AY6 BF10:BF46">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+  <conditionalFormatting sqref="F6 U6 AJ6 AY6 AQ10:AQ15 AB10:AB28 BF10:BF46 M10:M66 AC17 AC10:AC11">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36358,9 +38829,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A789D19-3FCA-477B-AC88-9255E7E902F0}">
-  <dimension ref="A1:BC46"/>
+  <dimension ref="A1:BD46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36370,98 +38843,98 @@
     <col min="42" max="42" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="M3" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="AB3" t="s">
-        <v>396</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="W4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="R5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AC5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AE5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AR5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AT5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AU5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AV5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -36481,7 +38954,7 @@
         <v>0.3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="H6" s="4"/>
       <c r="M6" t="s">
@@ -36503,10 +38976,10 @@
         <v>2E-16</v>
       </c>
       <c r="S6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="AB6" t="s">
         <v>5</v>
@@ -36524,10 +38997,10 @@
         <v>33.18</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="AH6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AQ6" t="s">
         <v>5</v>
@@ -36548,12 +39021,12 @@
         <v>1.97E-11</v>
       </c>
       <c r="AW6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>539</v>
@@ -36565,7 +39038,7 @@
         <v>23.12</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="N7">
         <v>537</v>
@@ -36577,7 +39050,7 @@
         <v>9.4</v>
       </c>
       <c r="AB7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AC7">
         <v>539</v>
@@ -36589,7 +39062,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
       <c r="AQ7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AR7">
         <v>539</v>
@@ -36601,7 +39074,7 @@
         <v>2.056</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -36612,7 +39085,7 @@
         <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
@@ -36621,13 +39094,13 @@
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
@@ -36639,7 +39112,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="Q9" t="s">
         <v>89</v>
@@ -36648,22 +39121,22 @@
         <v>90</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="T9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="U9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="W9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="X9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Y9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AB9" t="s">
         <v>5</v>
@@ -36675,7 +39148,7 @@
         <v>87</v>
       </c>
       <c r="AE9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="AF9" t="s">
         <v>89</v>
@@ -36684,22 +39157,22 @@
         <v>90</v>
       </c>
       <c r="AH9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="AI9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AJ9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AL9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AM9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="AN9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AQ9" t="s">
         <v>5</v>
@@ -36711,7 +39184,7 @@
         <v>87</v>
       </c>
       <c r="AT9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="AU9" t="s">
         <v>89</v>
@@ -36720,25 +39193,25 @@
         <v>90</v>
       </c>
       <c r="AW9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="AX9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AY9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BA9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="BB9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="BC9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -36764,7 +39237,7 @@
         <v>29.433</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -36791,17 +39264,20 @@
         <v>33.340000000000003</v>
       </c>
       <c r="U10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="W10" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="X10" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="Y10" s="3">
         <v>9.8900000000000005E-5</v>
       </c>
+      <c r="Z10" t="s">
+        <v>104</v>
+      </c>
       <c r="AB10">
         <v>1</v>
       </c>
@@ -36827,17 +39303,20 @@
         <v>8.3079999999999998</v>
       </c>
       <c r="AJ10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="AM10" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="AN10" s="3">
         <v>7.0899999999999999E-4</v>
       </c>
+      <c r="AO10" t="s">
+        <v>104</v>
+      </c>
       <c r="AQ10">
         <v>1</v>
       </c>
@@ -36863,19 +39342,22 @@
         <v>7.9420000000000002</v>
       </c>
       <c r="AY10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="BA10" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="BB10" s="3" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="BC10" s="3">
         <v>2.8700000000000002E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -36901,7 +39383,7 @@
         <v>29.518999999999998</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -36928,10 +39410,10 @@
         <v>32.67</v>
       </c>
       <c r="U11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="W11" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="X11" s="3">
         <v>3.8200000000000003E-10</v>
@@ -36939,6 +39421,9 @@
       <c r="Y11" s="3">
         <v>2.2900000000000002E-9</v>
       </c>
+      <c r="Z11" t="s">
+        <v>104</v>
+      </c>
       <c r="AB11">
         <v>2</v>
       </c>
@@ -36964,17 +39449,20 @@
         <v>8.3670000000000009</v>
       </c>
       <c r="AJ11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AL11" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="AM11" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="AN11" s="3">
         <v>7.0899999999999999E-4</v>
       </c>
+      <c r="AO11" t="s">
+        <v>104</v>
+      </c>
       <c r="AQ11">
         <v>2</v>
       </c>
@@ -37000,19 +39488,22 @@
         <v>8.5579999999999998</v>
       </c>
       <c r="AY11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="BA11" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="BB11" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="BC11" s="3">
         <v>1.1299999999999999E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -37038,7 +39529,7 @@
         <v>29.751999999999999</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -37065,17 +39556,20 @@
         <v>33.402999999999999</v>
       </c>
       <c r="U12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="W12" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="X12" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="Y12" s="3">
         <v>5.0200000000000002E-7</v>
       </c>
+      <c r="Z12" t="s">
+        <v>104</v>
+      </c>
       <c r="AB12">
         <v>3</v>
       </c>
@@ -37101,17 +39595,20 @@
         <v>8.35</v>
       </c>
       <c r="AJ12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AL12" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="AM12" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="AN12" s="3">
         <v>7.0899999999999999E-4</v>
       </c>
+      <c r="AO12" t="s">
+        <v>104</v>
+      </c>
       <c r="AQ12">
         <v>3</v>
       </c>
@@ -37137,19 +39634,22 @@
         <v>8.1340000000000003</v>
       </c>
       <c r="AY12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="BA12" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="BB12" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="BC12" s="3">
         <v>7.4700000000000001E-7</v>
       </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -37175,7 +39675,7 @@
         <v>30.646999999999998</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M13">
         <v>4</v>
@@ -37202,10 +39702,10 @@
         <v>33.713000000000001</v>
       </c>
       <c r="U13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="W13" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="X13" s="3">
         <v>3.8300000000000002E-36</v>
@@ -37213,6 +39713,9 @@
       <c r="Y13" s="3">
         <v>2.6799999999999998E-35</v>
       </c>
+      <c r="Z13" t="s">
+        <v>104</v>
+      </c>
       <c r="AB13">
         <v>4</v>
       </c>
@@ -37238,17 +39741,20 @@
         <v>8.2850000000000001</v>
       </c>
       <c r="AJ13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="AM13" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="AN13" s="3">
         <v>7.0899999999999999E-4</v>
       </c>
+      <c r="AO13" t="s">
+        <v>104</v>
+      </c>
       <c r="AQ13">
         <v>4</v>
       </c>
@@ -37274,19 +39780,22 @@
         <v>7.7039999999999997</v>
       </c>
       <c r="AY13" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="BA13" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="BC13" s="3">
         <v>2.4399999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -37312,7 +39821,7 @@
         <v>29.855</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -37339,10 +39848,10 @@
         <v>26.152999999999999</v>
       </c>
       <c r="U14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="W14" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="X14" s="3">
         <v>3.4100000000000002E-57</v>
@@ -37350,6 +39859,9 @@
       <c r="Y14" s="3">
         <v>2.7300000000000002E-56</v>
       </c>
+      <c r="Z14" t="s">
+        <v>104</v>
+      </c>
       <c r="AB14">
         <v>5</v>
       </c>
@@ -37375,17 +39887,20 @@
         <v>8.2010000000000005</v>
       </c>
       <c r="AJ14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AL14" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AM14" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="AN14" s="3">
         <v>5.2699999999999999E-7</v>
       </c>
+      <c r="AO14" t="s">
+        <v>104</v>
+      </c>
       <c r="AQ14">
         <v>5</v>
       </c>
@@ -37411,10 +39926,10 @@
         <v>7.3639999999999999</v>
       </c>
       <c r="AY14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="BA14" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="BB14" s="3">
         <v>1.1E-12</v>
@@ -37422,10 +39937,13 @@
       <c r="BC14" s="3">
         <v>1.1000000000000001E-11</v>
       </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="W15" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="X15" s="3">
         <v>3.5599999999999997E-73</v>
@@ -37433,8 +39951,11 @@
       <c r="Y15" s="3">
         <v>3.5600000000000001E-72</v>
       </c>
+      <c r="Z15" t="s">
+        <v>104</v>
+      </c>
       <c r="AL15" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="AM15" s="3">
         <v>7.3700000000000003E-20</v>
@@ -37442,19 +39963,25 @@
       <c r="AN15" s="3">
         <v>6.6299999999999996E-19</v>
       </c>
+      <c r="AO15" t="s">
+        <v>104</v>
+      </c>
       <c r="BA15" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="BB15" s="3" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="BC15" s="3">
         <v>2.8700000000000002E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="W16" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="X16" s="3">
         <v>1.72E-59</v>
@@ -37462,8 +39989,11 @@
       <c r="Y16" s="3">
         <v>1.55E-58</v>
       </c>
+      <c r="Z16" t="s">
+        <v>104</v>
+      </c>
       <c r="AL16" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="AM16" s="3">
         <v>1.7999999999999999E-21</v>
@@ -37471,16 +40001,22 @@
       <c r="AN16" s="3">
         <v>1.7999999999999999E-20</v>
       </c>
+      <c r="AO16" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="13:55" x14ac:dyDescent="0.25">
       <c r="AL17" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="AM17" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="AN17" s="3">
         <v>1.27E-5</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>104</v>
       </c>
       <c r="BC17" s="3"/>
     </row>
@@ -37594,16 +40130,16 @@
       <c r="BC46" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R6 F6 AG6 AV6 Y10:Y16 AN10:AN17 BC10:BC15">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+  <conditionalFormatting sqref="F6 R6 AG6 AV6 BC10:BC15 Y10:Y16 AN10:AN17">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37614,9 +40150,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2B8035-BF8A-44D9-B70F-BC190136BAA3}">
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AR23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -37625,89 +40163,89 @@
     <col min="30" max="30" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="P3" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="AE3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="Z4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="P5" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="Q5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="R5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="S5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="T5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="U5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AE5" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="AF5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AH5" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AI5" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AJ5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -37727,7 +40265,7 @@
         <v>2E-16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -37752,7 +40290,7 @@
         <v>2E-16</v>
       </c>
       <c r="V6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="W6" s="4"/>
       <c r="AE6" t="s">
@@ -37774,12 +40312,12 @@
         <v>4.3999999999999997E-8</v>
       </c>
       <c r="AK6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>1145</v>
@@ -37791,7 +40329,7 @@
         <v>85.5</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>1145</v>
@@ -37803,7 +40341,7 @@
         <v>136</v>
       </c>
       <c r="AE7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="AF7">
         <v>1145</v>
@@ -37815,7 +40353,7 @@
         <v>2.1680000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -37826,7 +40364,7 @@
         <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
@@ -37835,22 +40373,22 @@
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
         <v>5</v>
@@ -37862,7 +40400,7 @@
         <v>87</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="T9" t="s">
         <v>89</v>
@@ -37871,22 +40409,22 @@
         <v>90</v>
       </c>
       <c r="V9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="W9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Z9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AA9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AE9" t="s">
         <v>5</v>
@@ -37898,7 +40436,7 @@
         <v>87</v>
       </c>
       <c r="AH9" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="AI9" t="s">
         <v>89</v>
@@ -37907,25 +40445,25 @@
         <v>90</v>
       </c>
       <c r="AK9" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="AL9" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AM9" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AO9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="AP9" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="AQ9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -37951,17 +40489,20 @@
         <v>57.472999999999999</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="M10" s="3">
         <v>6.9700000000000002E-6</v>
       </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
       <c r="P10">
         <v>1</v>
       </c>
@@ -37987,10 +40528,10 @@
         <v>23.076000000000001</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="AA10" s="3">
         <v>3.0300000000000002E-13</v>
@@ -37998,6 +40539,9 @@
       <c r="AB10" s="3">
         <v>1.51E-12</v>
       </c>
+      <c r="AC10" t="s">
+        <v>104</v>
+      </c>
       <c r="AE10">
         <v>1</v>
       </c>
@@ -38023,10 +40567,10 @@
         <v>5.3769999999999998</v>
       </c>
       <c r="AM10" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AO10" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="AP10">
         <v>2.4499999999999999E-3</v>
@@ -38034,8 +40578,11 @@
       <c r="AQ10" s="3">
         <v>1.7100000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -38061,10 +40608,10 @@
         <v>62.595999999999997</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="L11" s="3">
         <v>1.5700000000000001E-13</v>
@@ -38072,6 +40619,9 @@
       <c r="M11" s="3">
         <v>1.2499999999999999E-12</v>
       </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
       <c r="P11">
         <v>2</v>
       </c>
@@ -38097,17 +40647,20 @@
         <v>33.591999999999999</v>
       </c>
       <c r="X11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Z11" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="AA11" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="AB11" s="3">
         <v>1.04E-25</v>
       </c>
+      <c r="AC11" t="s">
+        <v>104</v>
+      </c>
       <c r="AE11">
         <v>2</v>
       </c>
@@ -38133,10 +40686,10 @@
         <v>5.6239999999999997</v>
       </c>
       <c r="AM11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AO11" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="AP11">
         <v>1.7600000000000001E-6</v>
@@ -38144,8 +40697,11 @@
       <c r="AQ11" s="3">
         <v>1.59E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -38171,17 +40727,20 @@
         <v>66.644000000000005</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="M12" s="3">
         <v>2.6700000000000002E-2</v>
       </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
       <c r="P12">
         <v>3</v>
       </c>
@@ -38207,17 +40766,20 @@
         <v>42.485999999999997</v>
       </c>
       <c r="X12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Z12" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="AB12" s="3">
         <v>7.4200000000000004E-4</v>
       </c>
+      <c r="AC12" t="s">
+        <v>104</v>
+      </c>
       <c r="AE12">
         <v>3</v>
       </c>
@@ -38243,10 +40805,10 @@
         <v>4.9509999999999996</v>
       </c>
       <c r="AM12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="AP12">
         <v>3.6499999999999998E-4</v>
@@ -38254,8 +40816,11 @@
       <c r="AQ12" s="3">
         <v>2.9199999999999999E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -38281,17 +40846,20 @@
         <v>59.338000000000001</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="M13" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
       <c r="P13">
         <v>4</v>
       </c>
@@ -38317,17 +40885,20 @@
         <v>27.792000000000002</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Z13" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="AB13" s="3">
         <v>3.8400000000000001E-3</v>
       </c>
+      <c r="AC13" t="s">
+        <v>121</v>
+      </c>
       <c r="AE13">
         <v>4</v>
       </c>
@@ -38353,10 +40924,10 @@
         <v>5.5540000000000003</v>
       </c>
       <c r="AM13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="AO13" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="AP13">
         <v>3.3999999999999998E-9</v>
@@ -38364,8 +40935,11 @@
       <c r="AQ13" s="3">
         <v>3.4E-8</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -38391,17 +40965,20 @@
         <v>70.116</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="M14" s="3">
         <v>3.0099999999999998E-2</v>
       </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
       <c r="P14">
         <v>5</v>
       </c>
@@ -38427,17 +41004,20 @@
         <v>50.238</v>
       </c>
       <c r="X14" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="AB14" s="3">
         <v>3.2400000000000001E-5</v>
       </c>
+      <c r="AC14" t="s">
+        <v>104</v>
+      </c>
       <c r="AE14">
         <v>5</v>
       </c>
@@ -38463,10 +41043,10 @@
         <v>6.6909999999999998</v>
       </c>
       <c r="AM14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AO14" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="AP14" s="3">
         <v>3.5599999999999998E-3</v>
@@ -38474,30 +41054,39 @@
       <c r="AQ14" s="3">
         <v>2.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="M15" s="3">
         <v>3.3000000000000002E-6</v>
       </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
       <c r="Z15" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="AB15" s="3">
         <v>1.4E-14</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AC15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="L16" s="3">
         <v>9.9299999999999994E-25</v>
@@ -38505,8 +41094,11 @@
       <c r="M16" s="3">
         <v>9.9300000000000002E-24</v>
       </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
       <c r="Z16" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="AA16" s="3">
         <v>2.9299999999999998E-46</v>
@@ -38514,21 +41106,27 @@
       <c r="AB16" s="3">
         <v>2.9300000000000003E-45</v>
       </c>
+      <c r="AC16" t="s">
+        <v>104</v>
+      </c>
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
     </row>
     <row r="17" spans="11:43" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="L17" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M17" s="3">
         <v>1.35E-7</v>
       </c>
+      <c r="N17" t="s">
+        <v>104</v>
+      </c>
       <c r="Z17" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="AA17" s="3">
         <v>8.0600000000000005E-14</v>
@@ -38536,31 +41134,40 @@
       <c r="AB17" s="3">
         <v>4.8299999999999996E-13</v>
       </c>
+      <c r="AC17" t="s">
+        <v>104</v>
+      </c>
       <c r="AQ17" s="3"/>
     </row>
     <row r="18" spans="11:43" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="L18" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="M18" s="3">
         <v>9.7199999999999995E-3</v>
       </c>
+      <c r="N18" t="s">
+        <v>121</v>
+      </c>
       <c r="Z18" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="AA18" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="AB18" s="3">
         <v>2.0900000000000001E-4</v>
       </c>
+      <c r="AC18" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="11:43" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="L19" s="3">
         <v>1.69E-15</v>
@@ -38568,14 +41175,20 @@
       <c r="M19" s="3">
         <v>1.5200000000000001E-14</v>
       </c>
+      <c r="N19" t="s">
+        <v>104</v>
+      </c>
       <c r="Z19" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="AB19" s="3">
         <v>1.3499999999999999E-30</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="11:43" x14ac:dyDescent="0.25">
@@ -38587,16 +41200,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U6 F6 AJ6 M10:M19 AB10:AB19 AQ10:AQ14">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+  <conditionalFormatting sqref="F6 U6 AJ6 AQ10:AQ14 M10:M19 AB10:AB19">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6547E0CE-5816-4C68-A9A8-894A1F54960E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D13164-0CF1-4C1F-8158-5D6CD8B3C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3653" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3704" uniqueCount="502">
   <si>
     <t>Year</t>
   </si>
@@ -1637,14 +1637,26 @@
     <t>Q8: Does Polydora and Cliona differ in parasite prevalence in TB Oysters among stations?</t>
   </si>
   <si>
-    <t>in progress</t>
+    <t>Sake of curiosity, what happens if we only look at Cliona or Polydora, not Both?</t>
+  </si>
+  <si>
+    <t>Pest_model_2b &lt;- glm(Prop ~ Type * Station, family = quasibinomial, data = (t1 %&gt;% filter(Type != "Both")))</t>
+  </si>
+  <si>
+    <t>Station: 1, 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>Station5 Polydora / Station2 Cliona</t>
+  </si>
+  <si>
+    <t>Very minor differences among stations.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1670,6 +1682,13 @@
       <sz val="10"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1707,7 +1726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1732,14 +1751,138 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3288,16 +3431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>163228</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>247648</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57679</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3320,8 +3463,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658099" y="734728"/>
+          <a:off x="7639049" y="1077628"/>
           <a:ext cx="7219949" cy="4656951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>26409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>39246</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>124564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B1D7E2-9E70-9409-4976-AB11612628A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15525750" y="6122409"/>
+          <a:ext cx="6059046" cy="3908155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3945,7 +4132,7 @@
         <v>441</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>497</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,15 +4495,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E9 E19:E21">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5143,15 +5330,15 @@
     <mergeCell ref="A35:B35"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E12 F31:F39">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5572,24 +5759,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12">
+      <c r="B25" s="11"/>
+      <c r="C25">
         <v>1.5556916000000001</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25">
         <v>0.22065931</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25">
         <v>3.1156239999999999</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="3">
         <v>1.8355610000000001E-2</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5710,15 +5897,15 @@
     <mergeCell ref="A28:B28"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E12 F24:F30">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5729,10 +5916,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A652C540-8D35-473A-9B27-3A32BBD7E5F3}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5741,37 +5928,60 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y1" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y2" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="Z8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>149</v>
       </c>
@@ -5785,8 +5995,23 @@
         <v>152</v>
       </c>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z9">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0.1946</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0.65969999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -5805,8 +6030,26 @@
       <c r="F10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>1.806</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AB10">
+        <v>2.7587999999999999</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>2.9729999999999999E-2</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -5825,8 +6068,26 @@
       <c r="F11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z11">
+        <v>1.3396999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
+        <v>2.0465</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>9.0450000000000003E-2</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -5845,8 +6106,17 @@
       <c r="F12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z12">
+        <v>25.8582</v>
+      </c>
+      <c r="AA12">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>153</v>
       </c>
@@ -5857,7 +6127,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -5891,8 +6161,41 @@
       <c r="K15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -5926,8 +6229,41 @@
       <c r="K16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA16">
+        <v>22</v>
+      </c>
+      <c r="AB16">
+        <v>0.309</v>
+      </c>
+      <c r="AC16">
+        <v>0.16</v>
+      </c>
+      <c r="AD16">
+        <v>0.2</v>
+      </c>
+      <c r="AE16">
+        <v>0.6</v>
+      </c>
+      <c r="AF16">
+        <v>3.9857789999999997E-2</v>
+      </c>
+      <c r="AG16">
+        <v>0.23682216</v>
+      </c>
+      <c r="AH16">
+        <v>0.39208320000000002</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -5961,8 +6297,41 @@
       <c r="K17" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA17">
+        <v>25</v>
+      </c>
+      <c r="AB17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC17">
+        <v>0.153</v>
+      </c>
+      <c r="AD17">
+        <v>0.2</v>
+      </c>
+      <c r="AE17">
+        <v>0.8</v>
+      </c>
+      <c r="AF17">
+        <v>3.6328399999999997E-2</v>
+      </c>
+      <c r="AG17">
+        <v>0.21456114000000001</v>
+      </c>
+      <c r="AH17">
+        <v>0.3563423</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -5996,8 +6365,41 @@
       <c r="K18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA18">
+        <v>15</v>
+      </c>
+      <c r="AB18">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="AC18">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AD18">
+        <v>0.2</v>
+      </c>
+      <c r="AE18">
+        <v>0.4</v>
+      </c>
+      <c r="AF18">
+        <v>4.2790750000000002E-2</v>
+      </c>
+      <c r="AG18">
+        <v>0.14128065000000001</v>
+      </c>
+      <c r="AH18">
+        <v>0.30891350000000001</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -6031,8 +6433,41 @@
       <c r="K19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA19">
+        <v>21</v>
+      </c>
+      <c r="AB19">
+        <v>0.314</v>
+      </c>
+      <c r="AC19">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>0.2</v>
+      </c>
+      <c r="AE19">
+        <v>0.8</v>
+      </c>
+      <c r="AF19">
+        <v>4.0982200000000003E-2</v>
+      </c>
+      <c r="AG19">
+        <v>0.23996482</v>
+      </c>
+      <c r="AH19">
+        <v>0.39952500000000002</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -6066,8 +6501,41 @@
       <c r="K20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA20">
+        <v>20</v>
+      </c>
+      <c r="AB20">
+        <v>0.39</v>
+      </c>
+      <c r="AC20">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AD20">
+        <v>0.2</v>
+      </c>
+      <c r="AE20">
+        <v>0.8</v>
+      </c>
+      <c r="AF20">
+        <v>4.4121800000000003E-2</v>
+      </c>
+      <c r="AG20">
+        <v>0.30771701000000001</v>
+      </c>
+      <c r="AH20">
+        <v>0.47905969999999998</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -6101,8 +6569,41 @@
       <c r="K21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC21">
+        <v>0.253</v>
+      </c>
+      <c r="AD21">
+        <v>0.2</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>5.7440239999999997E-2</v>
+      </c>
+      <c r="AG21">
+        <v>0.18199367999999999</v>
+      </c>
+      <c r="AH21">
+        <v>0.40467449999999999</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -6136,8 +6637,41 @@
       <c r="K22" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <v>0.25</v>
+      </c>
+      <c r="AC22">
+        <v>0.1</v>
+      </c>
+      <c r="AD22">
+        <v>0.2</v>
+      </c>
+      <c r="AE22">
+        <v>0.4</v>
+      </c>
+      <c r="AF22">
+        <v>8.7587390000000001E-2</v>
+      </c>
+      <c r="AG22">
+        <v>0.11772257999999999</v>
+      </c>
+      <c r="AH22">
+        <v>0.45436510000000002</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -6171,8 +6705,41 @@
       <c r="K23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA23">
+        <v>36</v>
+      </c>
+      <c r="AB23">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="AC23">
+        <v>0.184</v>
+      </c>
+      <c r="AD23">
+        <v>0.2</v>
+      </c>
+      <c r="AE23">
+        <v>0.8</v>
+      </c>
+      <c r="AF23">
+        <v>3.2385659999999997E-2</v>
+      </c>
+      <c r="AG23">
+        <v>0.30034137</v>
+      </c>
+      <c r="AH23">
+        <v>0.42667820000000001</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -6206,8 +6773,41 @@
       <c r="K24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>5</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0.2</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD24">
+        <v>0.2</v>
+      </c>
+      <c r="AE24">
+        <v>0.2</v>
+      </c>
+      <c r="AF24">
+        <v>0.16181938000000001</v>
+      </c>
+      <c r="AG24">
+        <v>3.3293089999999997E-2</v>
+      </c>
+      <c r="AH24">
+        <v>0.64473069999999999</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -6241,8 +6841,41 @@
       <c r="K25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA25">
+        <v>14</v>
+      </c>
+      <c r="AB25">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="AC25">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AD25">
+        <v>0.2</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>5.3971779999999997E-2</v>
+      </c>
+      <c r="AG25">
+        <v>0.36843711000000001</v>
+      </c>
+      <c r="AH25">
+        <v>0.57691130000000002</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>434</v>
       </c>
@@ -6277,7 +6910,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>434</v>
       </c>
@@ -6312,7 +6945,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>434</v>
       </c>
@@ -6346,8 +6979,23 @@
       <c r="K28" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>434</v>
       </c>
@@ -6381,8 +7029,23 @@
       <c r="K29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z29">
+        <v>3.2888510000000002</v>
+      </c>
+      <c r="AA29">
+        <v>1.100298</v>
+      </c>
+      <c r="AB29">
+        <v>3.558586</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>1.6778540000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>434</v>
       </c>
@@ -6416,8 +7079,12 @@
       <c r="K30" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>444</v>
       </c>
@@ -6967,6 +7634,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
@@ -6974,35 +7659,43 @@
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E12 F33:F56">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AC11">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7013,7 +7706,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA47AD8-B2AE-42F1-AC75-29E236EDAC95}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P244"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7073,7 +7765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -7123,7 +7815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7173,7 +7865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7223,7 +7915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -7273,7 +7965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -7323,7 +8015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -7373,7 +8065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -7423,7 +8115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7473,7 +8165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -7523,7 +8215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -7573,7 +8265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -7623,7 +8315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2020</v>
       </c>
@@ -7673,7 +8365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -7723,7 +8415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -7773,7 +8465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -7823,7 +8515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -7873,7 +8565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -7923,7 +8615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -7973,7 +8665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -8023,7 +8715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -8073,7 +8765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -8123,7 +8815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -8173,7 +8865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -8223,7 +8915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -8273,7 +8965,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2020</v>
       </c>
@@ -8323,7 +9015,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -8373,7 +9065,7 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2020</v>
       </c>
@@ -8423,7 +9115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2020</v>
       </c>
@@ -8473,7 +9165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2020</v>
       </c>
@@ -8523,7 +9215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -8573,7 +9265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -8623,7 +9315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2020</v>
       </c>
@@ -8673,7 +9365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2020</v>
       </c>
@@ -8723,7 +9415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2020</v>
       </c>
@@ -8773,7 +9465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -8823,7 +9515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -8873,7 +9565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -8923,7 +9615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -8973,7 +9665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -9023,7 +9715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -9073,7 +9765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -9123,7 +9815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -9173,7 +9865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -9223,7 +9915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -9273,7 +9965,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -9323,7 +10015,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -9373,7 +10065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -9423,7 +10115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -9473,7 +10165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -9523,7 +10215,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2020</v>
       </c>
@@ -9573,7 +10265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2020</v>
       </c>
@@ -9623,7 +10315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2020</v>
       </c>
@@ -9673,7 +10365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -9723,7 +10415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2020</v>
       </c>
@@ -9773,7 +10465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2020</v>
       </c>
@@ -9823,7 +10515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2020</v>
       </c>
@@ -9873,7 +10565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2020</v>
       </c>
@@ -9923,7 +10615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2020</v>
       </c>
@@ -9973,7 +10665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2020</v>
       </c>
@@ -10023,7 +10715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2020</v>
       </c>
@@ -10073,7 +10765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2020</v>
       </c>
@@ -10123,7 +10815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2020</v>
       </c>
@@ -10173,7 +10865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -10223,7 +10915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -10273,7 +10965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -10323,7 +11015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -10373,7 +11065,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -10423,7 +11115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -10473,7 +11165,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -10523,7 +11215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -10573,7 +11265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -10623,7 +11315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -10673,7 +11365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -10723,7 +11415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -10773,7 +11465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2020</v>
       </c>
@@ -10823,7 +11515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2020</v>
       </c>
@@ -10873,7 +11565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2020</v>
       </c>
@@ -10923,7 +11615,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2020</v>
       </c>
@@ -10973,7 +11665,7 @@
         <v>5.125</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2020</v>
       </c>
@@ -11023,7 +11715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2020</v>
       </c>
@@ -11073,7 +11765,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2020</v>
       </c>
@@ -11123,7 +11815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2020</v>
       </c>
@@ -11173,7 +11865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2020</v>
       </c>
@@ -11223,7 +11915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2020</v>
       </c>
@@ -11273,7 +11965,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -11323,7 +12015,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2020</v>
       </c>
@@ -11373,7 +12065,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -11423,7 +12115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -11473,7 +12165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -11523,7 +12215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -11573,7 +12265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -11623,7 +12315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -11673,7 +12365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -11723,7 +12415,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -11773,7 +12465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -11823,7 +12515,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -11873,7 +12565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -11923,7 +12615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -11973,7 +12665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -12023,7 +12715,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -12073,7 +12765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -12123,7 +12815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -12173,7 +12865,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -12223,7 +12915,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -12273,7 +12965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -12323,7 +13015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -12373,7 +13065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -12423,7 +13115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -12473,7 +13165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -12523,7 +13215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -12573,7 +13265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -12623,7 +13315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -12673,7 +13365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -12723,7 +13415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -12773,7 +13465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -12823,7 +13515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -12873,7 +13565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -12923,7 +13615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -12973,7 +13665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -13023,7 +13715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -13073,7 +13765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -13123,7 +13815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -13173,7 +13865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -13223,7 +13915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -13273,7 +13965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -13323,7 +14015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -13373,7 +14065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -13423,7 +14115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -13473,7 +14165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -13523,7 +14215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -13573,7 +14265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -13623,7 +14315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -13673,7 +14365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -13723,7 +14415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -13773,7 +14465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -13823,7 +14515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -13873,7 +14565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -13923,7 +14615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -13973,7 +14665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -14023,7 +14715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -14073,7 +14765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -14123,7 +14815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -14173,7 +14865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -14223,7 +14915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -14273,7 +14965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -14323,7 +15015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -14373,7 +15065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -14423,7 +15115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -14473,7 +15165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -14523,7 +15215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -14623,7 +15315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -14673,7 +15365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -14723,7 +15415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -14773,7 +15465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -14823,7 +15515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -14873,7 +15565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -14923,7 +15615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -14973,7 +15665,7 @@
         <v>9.0500000000000007</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -15023,7 +15715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -15073,7 +15765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2021</v>
       </c>
@@ -15123,7 +15815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2021</v>
       </c>
@@ -15173,7 +15865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2021</v>
       </c>
@@ -15223,7 +15915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2021</v>
       </c>
@@ -15273,7 +15965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2021</v>
       </c>
@@ -15323,7 +16015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2021</v>
       </c>
@@ -15373,7 +16065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2021</v>
       </c>
@@ -15423,7 +16115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2021</v>
       </c>
@@ -15473,7 +16165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2021</v>
       </c>
@@ -15523,7 +16215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2021</v>
       </c>
@@ -15573,7 +16265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2021</v>
       </c>
@@ -15623,7 +16315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -15673,7 +16365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2021</v>
       </c>
@@ -15723,7 +16415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2021</v>
       </c>
@@ -15773,7 +16465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2021</v>
       </c>
@@ -15823,7 +16515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2021</v>
       </c>
@@ -15873,7 +16565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2021</v>
       </c>
@@ -15923,7 +16615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2021</v>
       </c>
@@ -15973,7 +16665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2021</v>
       </c>
@@ -16023,7 +16715,7 @@
         <v>7.8333329999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2021</v>
       </c>
@@ -16073,7 +16765,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2021</v>
       </c>
@@ -16123,7 +16815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2021</v>
       </c>
@@ -16173,7 +16865,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2021</v>
       </c>
@@ -16223,7 +16915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2021</v>
       </c>
@@ -16273,7 +16965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2021</v>
       </c>
@@ -16323,7 +17015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2021</v>
       </c>
@@ -16373,7 +17065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2021</v>
       </c>
@@ -16423,7 +17115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2021</v>
       </c>
@@ -16473,7 +17165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2021</v>
       </c>
@@ -16523,7 +17215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2021</v>
       </c>
@@ -16573,7 +17265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2021</v>
       </c>
@@ -16623,7 +17315,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2021</v>
       </c>
@@ -16673,7 +17365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2021</v>
       </c>
@@ -16723,7 +17415,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2021</v>
       </c>
@@ -16773,7 +17465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2021</v>
       </c>
@@ -16823,7 +17515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2021</v>
       </c>
@@ -16873,7 +17565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2021</v>
       </c>
@@ -16923,7 +17615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2021</v>
       </c>
@@ -16973,7 +17665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2021</v>
       </c>
@@ -17023,7 +17715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -17073,7 +17765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2021</v>
       </c>
@@ -17123,7 +17815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2021</v>
       </c>
@@ -17173,7 +17865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2021</v>
       </c>
@@ -17223,7 +17915,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2021</v>
       </c>
@@ -17273,7 +17965,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2021</v>
       </c>
@@ -17323,7 +18015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2021</v>
       </c>
@@ -17373,7 +18065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2021</v>
       </c>
@@ -17423,7 +18115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2021</v>
       </c>
@@ -17473,7 +18165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2021</v>
       </c>
@@ -17523,7 +18215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2021</v>
       </c>
@@ -17573,7 +18265,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2021</v>
       </c>
@@ -17623,7 +18315,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2021</v>
       </c>
@@ -17673,7 +18365,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2021</v>
       </c>
@@ -17723,7 +18415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2021</v>
       </c>
@@ -17773,7 +18465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2021</v>
       </c>
@@ -17823,7 +18515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2021</v>
       </c>
@@ -17873,7 +18565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2021</v>
       </c>
@@ -17923,7 +18615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2021</v>
       </c>
@@ -17973,7 +18665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2021</v>
       </c>
@@ -18023,7 +18715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2021</v>
       </c>
@@ -18073,7 +18765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2021</v>
       </c>
@@ -18123,7 +18815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2021</v>
       </c>
@@ -18223,7 +18915,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2021</v>
       </c>
@@ -18273,7 +18965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -18323,7 +19015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2021</v>
       </c>
@@ -18373,7 +19065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2021</v>
       </c>
@@ -18423,7 +19115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2021</v>
       </c>
@@ -18473,7 +19165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2021</v>
       </c>
@@ -18523,7 +19215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2021</v>
       </c>
@@ -18573,7 +19265,7 @@
         <v>9.2857140000000005</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2021</v>
       </c>
@@ -18623,7 +19315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2021</v>
       </c>
@@ -18673,7 +19365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2021</v>
       </c>
@@ -18723,7 +19415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2021</v>
       </c>
@@ -18773,7 +19465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2021</v>
       </c>
@@ -18823,7 +19515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2021</v>
       </c>
@@ -18873,7 +19565,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2021</v>
       </c>
@@ -18923,7 +19615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2021</v>
       </c>
@@ -18973,7 +19665,7 @@
         <v>7.875</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2021</v>
       </c>
@@ -19023,7 +19715,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2021</v>
       </c>
@@ -19073,7 +19765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2021</v>
       </c>
@@ -19123,7 +19815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2021</v>
       </c>
@@ -19173,7 +19865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2021</v>
       </c>
@@ -19224,14 +19916,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P244" xr:uid="{DBA47AD8-B2AE-42F1-AC75-29E236EDAC95}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="15.28"/>
-        <filter val="35.366"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P244" xr:uid="{DBA47AD8-B2AE-42F1-AC75-29E236EDAC95}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -38809,16 +39494,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6 U6 AJ6 AY6 AQ10:AQ15 AB10:AB28 BF10:BF46 M10:M66 AC17 AC10:AC11">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="between">
+  <conditionalFormatting sqref="F6 U6 AJ6 AY6 AC10:AC11 AQ10:AQ15 AB10:AB28 BF10:BF46 M10:M66 AC17">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40131,15 +40816,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6 R6 AG6 AV6 BC10:BC15 Y10:Y16 AN10:AN17">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41201,15 +41886,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6 U6 AJ6 AQ10:AQ14 M10:M19 AB10:AB19">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\Git working\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A28E28-A678-4B04-8198-B46ECCD7AD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB315657-051A-40E4-A21C-B9A49B8186D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" firstSheet="3" activeTab="14" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="Q7" sheetId="10" r:id="rId12"/>
     <sheet name="Q8" sheetId="6" r:id="rId13"/>
     <sheet name="Q9" sheetId="15" r:id="rId14"/>
+    <sheet name="Q10" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All_WQ_data!$A$1:$P$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Q9'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3798" uniqueCount="532">
   <si>
     <t>Year</t>
   </si>
@@ -1721,12 +1723,33 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>Proportions</t>
+  </si>
+  <si>
+    <t>Percentage of shell affected</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>Significant difference among percentages affected. Polydora &lt; Cliona &lt; Both (all p &lt; 0.001)</t>
+  </si>
+  <si>
+    <t>Polydora affects the surface of the shell less than Cliona (r = 0.578), but when both are present the effect is compounded (both r &gt;= 0.44)</t>
+  </si>
+  <si>
+    <t>Q9: What is the relationship between Polydora and Cliona proporiton of oysters affected, and percentage of shell affected?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,6 +1791,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1805,7 +1837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1832,12 +1864,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3480,15 +3534,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101348</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>223268</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>539116</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>51436</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3511,8 +3565,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6189728" y="678180"/>
+          <a:off x="6311648" y="472440"/>
           <a:ext cx="4704968" cy="3436620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289144</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>346823</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24FACEA1-6CD3-4E52-F993-F8C8D7153658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7596724" y="4099560"/>
+          <a:ext cx="4934479" cy="3604260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,8 +4005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03054A56-4033-420F-8D95-9016AEA6629F}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4206,7 +4304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6D2DF1-6467-40B9-BDD3-5B081097D1E8}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4513,15 +4613,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E9 E19:E21">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5348,15 +5448,15 @@
     <mergeCell ref="A35:B35"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E12 F31:F39">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5915,15 +6015,15 @@
     <mergeCell ref="A28:B28"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E12 F24:F30">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7679,41 +7779,41 @@
     <mergeCell ref="A36:B36"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E12 F33:F56">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AC11">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7724,10 +7824,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8335C718-D0BB-4791-A56E-F2A630D464E0}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7737,7 +7837,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="Y1" s="11" t="s">
         <v>496</v>
@@ -7765,72 +7865,51 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>505</v>
-      </c>
-      <c r="G6" t="s">
-        <v>506</v>
-      </c>
-      <c r="H6" t="s">
-        <v>507</v>
+      <c r="A6" s="14" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
-      </c>
-      <c r="C7">
-        <v>106</v>
-      </c>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.2</v>
-      </c>
-      <c r="G7">
-        <v>0.2</v>
-      </c>
-      <c r="H7">
-        <v>0.4</v>
+        <v>504</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H7" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>508</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>0.2</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -7844,86 +7923,83 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>508</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>0.2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
         <v>0.2</v>
       </c>
       <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
         <v>0.6</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B11" t="s">
-        <v>510</v>
-      </c>
-      <c r="C11" t="s">
-        <v>511</v>
-      </c>
-      <c r="D11" t="s">
-        <v>512</v>
-      </c>
-      <c r="E11" t="s">
-        <v>513</v>
-      </c>
-      <c r="F11" t="s">
-        <v>514</v>
-      </c>
-      <c r="G11" t="s">
-        <v>515</v>
-      </c>
-      <c r="H11" t="s">
-        <v>520</v>
-      </c>
-      <c r="I11" t="s">
-        <v>516</v>
+      <c r="H10">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12">
-        <v>106</v>
-      </c>
-      <c r="D12">
-        <v>62</v>
-      </c>
-      <c r="E12">
-        <v>3570</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.27600000000000002</v>
+        <v>510</v>
+      </c>
+      <c r="C12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D12" t="s">
+        <v>512</v>
+      </c>
+      <c r="E12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" t="s">
+        <v>514</v>
       </c>
       <c r="G12" t="s">
-        <v>434</v>
-      </c>
-      <c r="H12">
-        <v>8.4199999999999997E-2</v>
+        <v>515</v>
+      </c>
+      <c r="H12" t="s">
+        <v>520</v>
       </c>
       <c r="I12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -7931,71 +8007,360 @@
         <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>106</v>
       </c>
       <c r="D13">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>3613</v>
+        <v>3570</v>
       </c>
       <c r="F13" s="3">
-        <v>3.15E-10</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="G13" t="s">
-        <v>518</v>
+        <v>434</v>
       </c>
       <c r="H13">
-        <v>0.42199999999999999</v>
+        <v>8.4199999999999997E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
         <v>433</v>
       </c>
       <c r="C14">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>128</v>
       </c>
       <c r="E14">
-        <v>1868</v>
+        <v>3613</v>
       </c>
       <c r="F14" s="3">
-        <v>1.2E-9</v>
+        <v>3.15E-10</v>
       </c>
       <c r="G14" t="s">
         <v>518</v>
       </c>
       <c r="H14">
-        <v>0.44900000000000001</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="I14" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>1868</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.2E-9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>518</v>
+      </c>
+      <c r="H15">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>522</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>504</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>505</v>
+      </c>
+      <c r="G25" t="s">
+        <v>506</v>
+      </c>
+      <c r="H25" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>527</v>
+      </c>
+      <c r="C26">
+        <v>180</v>
+      </c>
+      <c r="D26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>21.5</v>
+      </c>
+      <c r="F26">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H26">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>527</v>
+      </c>
+      <c r="C27">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>41.6</v>
+      </c>
+      <c r="F27">
+        <v>2.41</v>
+      </c>
+      <c r="G27">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H27">
+        <v>11.6</v>
+      </c>
+      <c r="I27" s="11">
+        <f>G27/G26</f>
+        <v>9.4802494802494799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C28">
+        <v>396</v>
+      </c>
+      <c r="D28">
+        <v>0.307</v>
+      </c>
+      <c r="E28">
+        <v>90.7</v>
+      </c>
+      <c r="F28">
+        <v>10.7</v>
+      </c>
+      <c r="G28">
+        <v>20.3</v>
+      </c>
+      <c r="H28">
+        <v>34.9</v>
+      </c>
+      <c r="I28" s="11">
+        <f>G28/G27</f>
+        <v>4.4517543859649127</v>
+      </c>
+      <c r="J28" s="11">
+        <f>G28/G26</f>
+        <v>42.203742203742209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>509</v>
+      </c>
+      <c r="B30" t="s">
+        <v>510</v>
+      </c>
+      <c r="C30" t="s">
+        <v>511</v>
+      </c>
+      <c r="D30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E30" t="s">
+        <v>513</v>
+      </c>
+      <c r="F30" t="s">
+        <v>514</v>
+      </c>
+      <c r="G30" t="s">
+        <v>515</v>
+      </c>
+      <c r="H30" t="s">
+        <v>520</v>
+      </c>
+      <c r="I30" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31">
+        <v>180</v>
+      </c>
+      <c r="D31">
+        <v>95</v>
+      </c>
+      <c r="E31">
+        <v>2542</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9.7699999999999996E-22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>518</v>
+      </c>
+      <c r="H31">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="I31" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32">
+        <v>180</v>
+      </c>
+      <c r="D32">
+        <v>396</v>
+      </c>
+      <c r="E32">
+        <v>2341</v>
+      </c>
+      <c r="F32" s="3">
+        <v>7.4699999999999996E-72</v>
+      </c>
+      <c r="G32" t="s">
+        <v>518</v>
+      </c>
+      <c r="H32">
+        <v>0.749</v>
+      </c>
+      <c r="I32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C33">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <v>396</v>
+      </c>
+      <c r="E33">
+        <v>6625</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2.02E-22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>518</v>
+      </c>
+      <c r="H33">
+        <v>0.443</v>
+      </c>
+      <c r="I33" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F12:F14">
+  <conditionalFormatting sqref="F13:F15">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F33">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
@@ -8013,6 +8378,53 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C22FD8A-563D-45CB-A028-7DFAE1A1D103}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="Wilcoxon rank sum test" xr:uid="{2BEE5173-FE57-42B1-8088-E821CF3A2F3B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -39807,15 +40219,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6 U6 AJ6 AY6 AC10:AC11 AQ10:AQ15 AB10:AB28 BF10:BF46 M10:M66 AC17">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41128,15 +41540,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6 R6 AG6 AV6 BC10:BC15 Y10:Y16 AN10:AN17">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42198,15 +42610,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F6 U6 AJ6 AQ10:AQ14 M10:M19 AB10:AB19">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619BFEC2-2C64-4DC3-BA98-2EC0A5D80A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70931532-EFCD-4279-8754-0C38E1BD6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
@@ -30,7 +30,8 @@
     <sheet name="Q9" sheetId="16" r:id="rId15"/>
     <sheet name="Q10" sheetId="15" r:id="rId16"/>
     <sheet name="Q11" sheetId="20" r:id="rId17"/>
-    <sheet name="Refs" sheetId="18" r:id="rId18"/>
+    <sheet name="Q12" sheetId="21" r:id="rId18"/>
+    <sheet name="Refs" sheetId="18" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">All_WQ_data!$A$1:$P$244</definedName>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4638" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="805">
   <si>
     <t>Year</t>
   </si>
@@ -2663,6 +2664,39 @@
   </si>
   <si>
     <t>glm, F-test for factors</t>
+  </si>
+  <si>
+    <t>MLR of optimal parameters</t>
+  </si>
+  <si>
+    <t>Varaiable</t>
+  </si>
+  <si>
+    <t>Est</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p </t>
+  </si>
+  <si>
+    <t>Full model:</t>
+  </si>
+  <si>
+    <t>fullPoly &lt;- glm(Prop_t ~ Year * Season + DO_mgl + Salinity + Temperature + Turbidity + pH, data = Poly_df, family = quasibinomial)</t>
+  </si>
+  <si>
+    <t>Model parameters</t>
   </si>
 </sst>
 </file>
@@ -2868,7 +2902,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2960,14 +2994,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2977,6 +3007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -6541,7 +6572,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9987,8 +10018,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
@@ -14053,7 +14084,7 @@
     <col min="11" max="11" width="2.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="48"/>
+    <col min="23" max="23" width="9.140625" style="46"/>
     <col min="24" max="24" width="2.28515625" style="7" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" customWidth="1"/>
     <col min="31" max="31" width="13.140625" customWidth="1"/>
@@ -14098,61 +14129,61 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>147</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="47" t="s">
+      <c r="Q6" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="Y6" s="47" t="s">
+      <c r="Y6" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="Z6" s="47" t="s">
+      <c r="Z6" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" s="47" t="s">
+      <c r="AA6" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="AB6" s="47" t="s">
+      <c r="AB6" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="AC6" s="47" t="s">
+      <c r="AC6" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="AD6" s="47" t="s">
+      <c r="AD6" s="45" t="s">
         <v>147</v>
       </c>
     </row>
@@ -14177,19 +14208,19 @@
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="5"/>
-      <c r="L7" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="46">
+      <c r="L7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
         <v>3</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="6">
         <v>0.76400000000000001</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="6">
         <v>0.255</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="6">
         <v>16.100000000000001</v>
       </c>
       <c r="Q7" s="26">
@@ -14198,19 +14229,19 @@
       <c r="R7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="46">
+      <c r="Y7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6">
         <v>3</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7" s="6">
         <v>1.73</v>
       </c>
-      <c r="AB7" s="46">
+      <c r="AB7" s="6">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7" s="6">
         <v>11.7</v>
       </c>
       <c r="AD7" s="26">
@@ -14244,19 +14275,19 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="6">
         <v>4</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="6">
         <v>1.02</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="6">
         <v>0.25600000000000001</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="6">
         <v>16.2</v>
       </c>
       <c r="Q8" s="26">
@@ -14265,19 +14296,19 @@
       <c r="R8" t="s">
         <v>101</v>
       </c>
-      <c r="Y8" s="46" t="s">
+      <c r="Y8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8" s="6">
         <v>4</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8" s="6">
         <v>20.7</v>
       </c>
-      <c r="AB8" s="46">
+      <c r="AB8" s="6">
         <v>5.19</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8" s="6">
         <v>106</v>
       </c>
       <c r="AD8" s="26">
@@ -14411,7 +14442,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>648</v>
       </c>
       <c r="H11" s="6"/>
@@ -14422,7 +14453,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="43"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="Y11" s="6"/>
@@ -14431,7 +14462,7 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="44"/>
+      <c r="AE11" s="43"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
     </row>
@@ -14442,7 +14473,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>649</v>
       </c>
       <c r="H12" s="6"/>
@@ -14453,7 +14484,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="44"/>
+      <c r="R12" s="43"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="Y12" s="6"/>
@@ -14462,76 +14493,76 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="44"/>
+      <c r="AE12" s="43"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="45" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="45" t="s">
         <v>104</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="45" t="s">
         <v>653</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="47" t="s">
+      <c r="O13" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="P13" s="47" t="s">
+      <c r="P13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="Q13" s="47" t="s">
+      <c r="Q13" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="47" t="s">
+      <c r="R13" s="45" t="s">
         <v>104</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="Y13" s="47" t="s">
+      <c r="Y13" s="45" t="s">
         <v>653</v>
       </c>
-      <c r="Z13" s="47" t="s">
+      <c r="Z13" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="AA13" s="47" t="s">
+      <c r="AA13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="AB13" s="47" t="s">
+      <c r="AB13" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="AC13" s="47" t="s">
+      <c r="AC13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="AD13" s="47" t="s">
+      <c r="AD13" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="AE13" s="47" t="s">
+      <c r="AE13" s="45" t="s">
         <v>104</v>
       </c>
       <c r="AF13" s="6"/>
@@ -14561,25 +14592,25 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="L14" s="49">
+      <c r="L14" s="47">
         <v>2018</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="47">
         <v>60</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="47">
         <v>0.04</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="47">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="P14" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="49">
+      <c r="P14" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="47">
         <v>0.4</v>
       </c>
-      <c r="R14" s="49" t="s">
+      <c r="R14" s="47" t="s">
         <v>106</v>
       </c>
       <c r="S14" s="6"/>
@@ -14632,25 +14663,25 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="L15" s="46">
+      <c r="L15" s="6">
         <v>2019</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="6">
         <v>60</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="6">
         <v>2.7E-2</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="P15" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="46">
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>0.2</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="6" t="s">
         <v>107</v>
       </c>
       <c r="S15" s="6"/>
@@ -14702,25 +14733,25 @@
         <v>107</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="L16" s="46">
+      <c r="L16" s="6">
         <v>2020</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="6">
         <v>50</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="6">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="6">
         <v>0.152</v>
       </c>
-      <c r="P16" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="46">
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
         <v>0.6</v>
       </c>
-      <c r="R16" s="46" t="s">
+      <c r="R16" s="6" t="s">
         <v>107</v>
       </c>
       <c r="S16" s="6"/>
@@ -15158,76 +15189,76 @@
       <c r="AD23" s="6"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>642</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="45" t="s">
         <v>162</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="M24" s="47" t="s">
+      <c r="M24" s="45" t="s">
         <v>642</v>
       </c>
-      <c r="N24" s="47" t="s">
+      <c r="N24" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="O24" s="47" t="s">
+      <c r="O24" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="P24" s="47" t="s">
+      <c r="P24" s="45" t="s">
         <v>162</v>
       </c>
       <c r="Q24" s="6"/>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="S24" s="47" t="s">
+      <c r="S24" s="45" t="s">
         <v>642</v>
       </c>
-      <c r="T24" s="47" t="s">
+      <c r="T24" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="Y24" s="47" t="s">
+      <c r="Y24" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="Z24" s="47" t="s">
+      <c r="Z24" s="45" t="s">
         <v>642</v>
       </c>
-      <c r="AA24" s="47" t="s">
+      <c r="AA24" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="AB24" s="47" t="s">
+      <c r="AB24" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="AC24" s="47" t="s">
+      <c r="AC24" s="45" t="s">
         <v>162</v>
       </c>
       <c r="AD24" s="6"/>
-      <c r="AE24" s="47" t="s">
+      <c r="AE24" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="AF24" s="47" t="s">
+      <c r="AF24" s="45" t="s">
         <v>642</v>
       </c>
-      <c r="AG24" s="47" t="s">
+      <c r="AG24" s="45" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="44" t="s">
         <v>650</v>
       </c>
       <c r="B25" s="6">
@@ -15244,7 +15275,7 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="44" t="s">
         <v>654</v>
       </c>
       <c r="M25" s="6">
@@ -15269,7 +15300,7 @@
       <c r="T25" s="26">
         <v>6.601048E-3</v>
       </c>
-      <c r="Y25" s="45" t="s">
+      <c r="Y25" s="44" t="s">
         <v>654</v>
       </c>
       <c r="Z25" s="6">
@@ -17991,6 +18022,76 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95F6FF0-0D32-4912-9425-19D55588893A}">
+  <dimension ref="A3:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>795</v>
+      </c>
+      <c r="B20" t="s">
+        <v>796</v>
+      </c>
+      <c r="C20" t="s">
+        <v>797</v>
+      </c>
+      <c r="D20" t="s">
+        <v>798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E201DF3D-BCED-4637-89F8-B5052C56E63E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -18035,7 +18136,7 @@
   <dimension ref="A1:P244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>

--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93126D4-420D-4465-9C3F-6EDB1E4B0311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD32AAA0-7F1E-4D37-8F74-3BDF59040944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" firstSheet="4" activeTab="17" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5254" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5308" uniqueCount="968">
   <si>
     <t>Year</t>
   </si>
@@ -2225,39 +2225,9 @@
     <t>glm, F-test for factors</t>
   </si>
   <si>
-    <t>MLR of optimal parameters</t>
-  </si>
-  <si>
-    <t>Varaiable</t>
-  </si>
-  <si>
-    <t>Est</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p </t>
-  </si>
-  <si>
     <t>Full model:</t>
   </si>
   <si>
-    <t>fullPoly &lt;- glm(Prop_t ~ Year * Season + DO_mgl + Salinity + Temperature + Turbidity + pH, data = Poly_df, family = quasibinomial)</t>
-  </si>
-  <si>
-    <t>Model parameters</t>
-  </si>
-  <si>
     <t>Season_c</t>
   </si>
   <si>
@@ -3066,6 +3036,156 @@
   </si>
   <si>
     <t>Cliona affected more of the shell on average</t>
+  </si>
+  <si>
+    <t>Running full model with scaled parameters. Checking the model for collinearity and removing any factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking single term deletions for significant factor significance and creating model based on sig factors. </t>
+  </si>
+  <si>
+    <t>Models ranked using AIC and checked for goodness of fit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pest relationship to indivudal parameters illistrated </t>
+  </si>
+  <si>
+    <t>npar</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>LRT</t>
+  </si>
+  <si>
+    <t>Pr(Chi)</t>
+  </si>
+  <si>
+    <t>&lt;none&gt;</t>
+  </si>
+  <si>
+    <t>Sal_s</t>
+  </si>
+  <si>
+    <t>Temp_s</t>
+  </si>
+  <si>
+    <t>Turb_s</t>
+  </si>
+  <si>
+    <t>pH_s</t>
+  </si>
+  <si>
+    <t>Model Drop:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model selection table </t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>VIF 95% CI</t>
+  </si>
+  <si>
+    <t>Increased SE</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Tolerance 95% CI</t>
+  </si>
+  <si>
+    <t>Correlation check</t>
+  </si>
+  <si>
+    <t>fullPoly3 &lt;- glmer(cbind(Count, Total-Count) ~ Year + pH_s + (1|MonYrSta), data = Poly_df, family = binomial, glmerControl(optimizer = "bobyqa", optCtrl=list(maxfun=10000)))</t>
+  </si>
+  <si>
+    <t>(Int)</t>
+  </si>
+  <si>
+    <t>Ssn_c</t>
+  </si>
+  <si>
+    <t>Tmp_s</t>
+  </si>
+  <si>
+    <t>Trb_s</t>
+  </si>
+  <si>
+    <t>Yer</t>
+  </si>
+  <si>
+    <t>logLik</t>
+  </si>
+  <si>
+    <t>AICc</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>fullPoly3</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>fullPoly2</t>
+  </si>
+  <si>
+    <t>fullPoly</t>
+  </si>
+  <si>
+    <t>fullPoly &lt;- glmer(cbind(Count, Total-Count) ~ Year + Season_c + Sal_s + Temp_s + Turb_s + pH_s + (1|MonthSta), data = Poly_df, family = binomial, glmerControl(optimizer = "bobyqa", optCtrl=list(maxfun=10000)))</t>
+  </si>
+  <si>
+    <t>[0.68, 0.93]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.38]</t>
+  </si>
+  <si>
+    <t>[0.48, 0.69]</t>
+  </si>
+  <si>
+    <t>[0.33, 0.49]</t>
+  </si>
+  <si>
+    <t>[0.67, 0.92]</t>
+  </si>
+  <si>
+    <t>[0.59, 0.82]</t>
+  </si>
+  <si>
+    <t>[1.08, 1.47]</t>
+  </si>
+  <si>
+    <t>[2.63, 4.03]</t>
+  </si>
+  <si>
+    <t>[1.46, 2.09]</t>
+  </si>
+  <si>
+    <t>[2.03, 3.03]</t>
+  </si>
+  <si>
+    <t>[1.09, 1.50]</t>
+  </si>
+  <si>
+    <t>[1.22, 1.69]</t>
+  </si>
+  <si>
+    <t>fullPoly2 &lt;- glmer(cbind(Count, Total-Count) ~ Year + Sal_s + Temp_s + Turb_s + pH_s + (1|MonthSta), data = Poly_df, family = binomial, glmerControl(optimizer = "bobyqa", optCtrl=list(maxfun=10000)))</t>
   </si>
 </sst>
 </file>
@@ -3075,7 +3195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3151,6 +3271,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3282,7 +3409,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3387,7 +3514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3404,78 +3530,21 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <fill>
         <patternFill>
@@ -7055,7 +7124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03054A56-4033-420F-8D95-9016AEA6629F}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7358,7 +7427,7 @@
         <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>163</v>
@@ -9145,28 +9214,28 @@
     <sortCondition ref="AU40:AU44"/>
   </sortState>
   <conditionalFormatting sqref="F6 U6 AJ6 AQ10:AQ14 M10:M19 AB10:AB19">
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY6 BF10:BF16">
-    <cfRule type="cellIs" dxfId="98" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9509,54 +9578,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="cellIs" dxfId="95" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10178,41 +10247,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E34">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10502,8 +10571,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
@@ -10795,54 +10864,54 @@
     <mergeCell ref="A21:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="74" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="cellIs" dxfId="68" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="16" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="17" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="18" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E31">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12722,54 +12791,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C19">
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E26">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E79">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12794,7 +12863,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="AD1" s="8"/>
     </row>
@@ -12810,7 +12879,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -12823,10 +12892,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="U6" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -13513,7 +13582,7 @@
         <v>254</v>
       </c>
       <c r="V21" s="26" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="W21" s="3">
         <v>0.68</v>
@@ -13536,7 +13605,7 @@
         <v>255</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="W22" s="3">
         <v>0.53900000000000003</v>
@@ -13559,7 +13628,7 @@
         <v>473</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="W23" s="3">
         <v>1.6700000000000001E-6</v>
@@ -13582,7 +13651,7 @@
         <v>256</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="W24" s="3">
         <v>0.53900000000000003</v>
@@ -13602,7 +13671,7 @@
         <v>472</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="W25" s="3">
         <v>1.2099999999999999E-3</v>
@@ -13652,54 +13721,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C26">
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21:W26">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z11">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14437,7 +14506,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -14447,7 +14516,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -14473,7 +14542,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -14519,7 +14588,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -14567,7 +14636,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B58" s="26">
         <v>7.2700000000000005E-58</v>
@@ -14616,7 +14685,7 @@
         <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C62">
         <v>1150</v>
@@ -14648,7 +14717,7 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="C63">
         <v>1150</v>
@@ -14680,49 +14749,10 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F14:F19">
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="between">
-      <formula>0.01</formula>
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="between">
-      <formula>0.001</formula>
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F36">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="between">
-      <formula>0.01</formula>
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="between">
-      <formula>0.001</formula>
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F53">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="between">
-      <formula>0.01</formula>
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="between">
-      <formula>0.001</formula>
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C58">
     <cfRule type="cellIs" dxfId="29" priority="1" operator="between">
       <formula>0.01</formula>
@@ -14733,6 +14763,45 @@
       <formula>0.01</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F19">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F36">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F53">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15935,22 +16004,22 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="50">
         <v>0.2191592</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="51">
         <v>0.10089239999999999</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="52">
         <v>0.33742610000000001</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="53">
         <v>7.509851E-6</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G25" s="6"/>
@@ -16021,7 +16090,7 @@
       <c r="E26" s="26">
         <v>3.7539996999999999E-2</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" t="s">
         <v>99</v>
       </c>
       <c r="G26" s="6"/>
@@ -16092,7 +16161,7 @@
       <c r="E27" s="26">
         <v>1.4777069E-2</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" t="s">
         <v>99</v>
       </c>
       <c r="L27" s="21" t="s">
@@ -16160,7 +16229,7 @@
       <c r="E28" s="26">
         <v>1.313839E-3</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" t="s">
         <v>117</v>
       </c>
       <c r="L28" s="6" t="s">
@@ -16228,7 +16297,7 @@
       <c r="E29" s="26">
         <v>1.9391374999999999E-2</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" t="s">
         <v>99</v>
       </c>
       <c r="L29" s="6" t="s">
@@ -19533,54 +19602,67 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E25:E29">
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9 Q7:Q9 AD7:AD9">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P33">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T74">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25:AC35">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19597,19 +19679,6 @@
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T74">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
-      <formula>0.01</formula>
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
-      <formula>0.001</formula>
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -19617,10 +19686,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95F6FF0-0D32-4912-9425-19D55588893A}">
-  <dimension ref="A3:D20"/>
+  <dimension ref="A2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19628,56 +19697,478 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>655</v>
+        <v>919</v>
       </c>
       <c r="B3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="C3" s="55"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>933</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>934</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>937</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>648</v>
       </c>
-      <c r="B20" t="s">
-        <v>649</v>
-      </c>
-      <c r="C20" t="s">
-        <v>650</v>
-      </c>
-      <c r="D20" t="s">
-        <v>651</v>
+      <c r="B12" s="43">
+        <v>3.23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>928</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>929</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>930</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>931</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>926</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>503.13</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>535.12</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.1257000000000001</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.162824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>648</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6">
+        <v>530.91</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.82045999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>927</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>535.44000000000005</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1.4488000000000001</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.22872799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>928</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>534.73</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.39084200000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>929</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>534.45000000000005</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.45590000000000003</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.49955300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>930</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>544.76</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10.767300000000001</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.0330000000000001E-3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="B33" s="13">
+        <v>-1.714</v>
+      </c>
+      <c r="C33" s="13">
+        <v>-0.33939999999999998</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="I33" s="13">
+        <v>6</v>
+      </c>
+      <c r="J33" s="13">
+        <v>-258.12299999999999</v>
+      </c>
+      <c r="K33" s="57">
+        <v>528.70000000000005</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="B34" s="13">
+        <v>-1.7370000000000001</v>
+      </c>
+      <c r="C34" s="13">
+        <v>-0.4143</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.1847</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13">
+        <v>6.9470000000000004E-2</v>
+      </c>
+      <c r="G34" s="13">
+        <v>7.3139999999999997E-2</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="I34" s="13">
+        <v>9</v>
+      </c>
+      <c r="J34" s="13">
+        <v>-256.45600000000002</v>
+      </c>
+      <c r="K34" s="13">
+        <v>531.79999999999995</v>
+      </c>
+      <c r="L34" s="13">
+        <v>3.15</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B35" s="13">
+        <v>-1.5369999999999999</v>
+      </c>
+      <c r="C35" s="13">
+        <v>-0.40739999999999998</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.1779</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="G35" s="13">
+        <v>7.5179999999999997E-2</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="I35" s="13">
+        <v>12</v>
+      </c>
+      <c r="J35" s="13">
+        <v>-255.99600000000001</v>
+      </c>
+      <c r="K35" s="13">
+        <v>537.6</v>
+      </c>
+      <c r="L35" s="13">
+        <v>8.91</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -19764,7 +20255,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -19810,7 +20301,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -19860,7 +20351,7 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -19910,7 +20401,7 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -19960,7 +20451,7 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -20010,7 +20501,7 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -20060,7 +20551,7 @@
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -20110,7 +20601,7 @@
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -20160,7 +20651,7 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -20210,7 +20701,7 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -20260,7 +20751,7 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -20310,7 +20801,7 @@
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -20360,7 +20851,7 @@
       <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -20410,7 +20901,7 @@
       <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -20460,7 +20951,7 @@
       <c r="B15" s="6">
         <v>3</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -20510,7 +21001,7 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -20560,7 +21051,7 @@
       <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -20610,7 +21101,7 @@
       <c r="B18" s="6">
         <v>4</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -20660,7 +21151,7 @@
       <c r="B19" s="6">
         <v>4</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -20710,7 +21201,7 @@
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -20760,7 +21251,7 @@
       <c r="B21" s="6">
         <v>4</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -20810,7 +21301,7 @@
       <c r="B22" s="6">
         <v>5</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -20860,7 +21351,7 @@
       <c r="B23" s="6">
         <v>5</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -20910,7 +21401,7 @@
       <c r="B24" s="6">
         <v>5</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -20960,7 +21451,7 @@
       <c r="B25" s="6">
         <v>5</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -21010,7 +21501,7 @@
       <c r="B26" s="6">
         <v>5</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -21060,7 +21551,7 @@
       <c r="B27" s="6">
         <v>6</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -21110,7 +21601,7 @@
       <c r="B28" s="6">
         <v>6</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -21160,7 +21651,7 @@
       <c r="B29" s="6">
         <v>6</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -21210,7 +21701,7 @@
       <c r="B30" s="6">
         <v>6</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -21260,7 +21751,7 @@
       <c r="B31" s="6">
         <v>6</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -21310,7 +21801,7 @@
       <c r="B32" s="6">
         <v>7</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -21360,7 +21851,7 @@
       <c r="B33" s="6">
         <v>7</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -21410,7 +21901,7 @@
       <c r="B34" s="6">
         <v>7</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -21460,7 +21951,7 @@
       <c r="B35" s="6">
         <v>7</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -21510,7 +22001,7 @@
       <c r="B36" s="6">
         <v>7</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -21560,7 +22051,7 @@
       <c r="B37" s="6">
         <v>8</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -21610,7 +22101,7 @@
       <c r="B38" s="6">
         <v>8</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -21660,7 +22151,7 @@
       <c r="B39" s="6">
         <v>8</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -21710,7 +22201,7 @@
       <c r="B40" s="6">
         <v>8</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -21760,7 +22251,7 @@
       <c r="B41" s="6">
         <v>8</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -21810,7 +22301,7 @@
       <c r="B42" s="6">
         <v>9</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -21860,7 +22351,7 @@
       <c r="B43" s="6">
         <v>9</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -21910,7 +22401,7 @@
       <c r="B44" s="6">
         <v>9</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -21960,7 +22451,7 @@
       <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -22010,7 +22501,7 @@
       <c r="B46" s="6">
         <v>9</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -22060,7 +22551,7 @@
       <c r="B47" s="6">
         <v>10</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -22110,7 +22601,7 @@
       <c r="B48" s="6">
         <v>10</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -22160,7 +22651,7 @@
       <c r="B49" s="6">
         <v>10</v>
       </c>
-      <c r="C49" s="49" t="s">
+      <c r="C49" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -22210,7 +22701,7 @@
       <c r="B50" s="6">
         <v>10</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -22260,7 +22751,7 @@
       <c r="B51" s="6">
         <v>10</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -22310,7 +22801,7 @@
       <c r="B52" s="6">
         <v>11</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -22360,7 +22851,7 @@
       <c r="B53" s="6">
         <v>11</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -22410,7 +22901,7 @@
       <c r="B54" s="6">
         <v>11</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -22460,7 +22951,7 @@
       <c r="B55" s="6">
         <v>11</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -22510,7 +23001,7 @@
       <c r="B56" s="6">
         <v>11</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -22560,7 +23051,7 @@
       <c r="B57" s="6">
         <v>12</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -22610,7 +23101,7 @@
       <c r="B58" s="6">
         <v>12</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -22660,7 +23151,7 @@
       <c r="B59" s="6">
         <v>12</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -22710,7 +23201,7 @@
       <c r="B60" s="6">
         <v>12</v>
       </c>
-      <c r="C60" s="49" t="s">
+      <c r="C60" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -22760,7 +23251,7 @@
       <c r="B61" s="6">
         <v>12</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -22810,7 +23301,7 @@
       <c r="B62" s="6">
         <v>1</v>
       </c>
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -22860,7 +23351,7 @@
       <c r="B63" s="6">
         <v>1</v>
       </c>
-      <c r="C63" s="49" t="s">
+      <c r="C63" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -22910,7 +23401,7 @@
       <c r="B64" s="6">
         <v>1</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -22960,7 +23451,7 @@
       <c r="B65" s="6">
         <v>1</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -23010,7 +23501,7 @@
       <c r="B66" s="6">
         <v>1</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -23060,7 +23551,7 @@
       <c r="B67" s="6">
         <v>2</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -23110,7 +23601,7 @@
       <c r="B68" s="6">
         <v>2</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -23160,7 +23651,7 @@
       <c r="B69" s="6">
         <v>2</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -23210,7 +23701,7 @@
       <c r="B70" s="6">
         <v>2</v>
       </c>
-      <c r="C70" s="49" t="s">
+      <c r="C70" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -23260,7 +23751,7 @@
       <c r="B71" s="6">
         <v>2</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -23310,7 +23801,7 @@
       <c r="B72" s="6">
         <v>3</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C72" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -23360,7 +23851,7 @@
       <c r="B73" s="6">
         <v>3</v>
       </c>
-      <c r="C73" s="49" t="s">
+      <c r="C73" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -23410,7 +23901,7 @@
       <c r="B74" s="6">
         <v>3</v>
       </c>
-      <c r="C74" s="49" t="s">
+      <c r="C74" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -23460,7 +23951,7 @@
       <c r="B75" s="6">
         <v>3</v>
       </c>
-      <c r="C75" s="49" t="s">
+      <c r="C75" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -23510,7 +24001,7 @@
       <c r="B76" s="6">
         <v>3</v>
       </c>
-      <c r="C76" s="49" t="s">
+      <c r="C76" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -23560,7 +24051,7 @@
       <c r="B77" s="6">
         <v>4</v>
       </c>
-      <c r="C77" s="49" t="s">
+      <c r="C77" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -23610,7 +24101,7 @@
       <c r="B78" s="6">
         <v>4</v>
       </c>
-      <c r="C78" s="49" t="s">
+      <c r="C78" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -23660,7 +24151,7 @@
       <c r="B79" s="6">
         <v>4</v>
       </c>
-      <c r="C79" s="49" t="s">
+      <c r="C79" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -23710,7 +24201,7 @@
       <c r="B80" s="6">
         <v>4</v>
       </c>
-      <c r="C80" s="49" t="s">
+      <c r="C80" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -23760,7 +24251,7 @@
       <c r="B81" s="6">
         <v>4</v>
       </c>
-      <c r="C81" s="49" t="s">
+      <c r="C81" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -23810,7 +24301,7 @@
       <c r="B82" s="6">
         <v>5</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -23860,7 +24351,7 @@
       <c r="B83" s="6">
         <v>5</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -23910,7 +24401,7 @@
       <c r="B84" s="6">
         <v>5</v>
       </c>
-      <c r="C84" s="49" t="s">
+      <c r="C84" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -23960,7 +24451,7 @@
       <c r="B85" s="6">
         <v>5</v>
       </c>
-      <c r="C85" s="49" t="s">
+      <c r="C85" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -24010,7 +24501,7 @@
       <c r="B86" s="6">
         <v>5</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="6" t="s">
@@ -24060,7 +24551,7 @@
       <c r="B87" s="6">
         <v>6</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -24110,7 +24601,7 @@
       <c r="B88" s="6">
         <v>6</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -24160,7 +24651,7 @@
       <c r="B89" s="6">
         <v>6</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="6" t="s">
@@ -24210,7 +24701,7 @@
       <c r="B90" s="6">
         <v>6</v>
       </c>
-      <c r="C90" s="49" t="s">
+      <c r="C90" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -24260,7 +24751,7 @@
       <c r="B91" s="6">
         <v>6</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C91" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -24310,7 +24801,7 @@
       <c r="B92" s="6">
         <v>7</v>
       </c>
-      <c r="C92" s="49" t="s">
+      <c r="C92" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -24360,7 +24851,7 @@
       <c r="B93" s="6">
         <v>7</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -24410,7 +24901,7 @@
       <c r="B94" s="6">
         <v>7</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -24460,7 +24951,7 @@
       <c r="B95" s="6">
         <v>7</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -24510,7 +25001,7 @@
       <c r="B96" s="6">
         <v>7</v>
       </c>
-      <c r="C96" s="49" t="s">
+      <c r="C96" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -24560,7 +25051,7 @@
       <c r="B97" s="6">
         <v>8</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -24610,7 +25101,7 @@
       <c r="B98" s="6">
         <v>8</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -24660,7 +25151,7 @@
       <c r="B99" s="6">
         <v>8</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -24710,7 +25201,7 @@
       <c r="B100" s="6">
         <v>8</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -24760,7 +25251,7 @@
       <c r="B101" s="6">
         <v>8</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -24810,7 +25301,7 @@
       <c r="B102" s="6">
         <v>9</v>
       </c>
-      <c r="C102" s="49" t="s">
+      <c r="C102" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -24860,7 +25351,7 @@
       <c r="B103" s="6">
         <v>9</v>
       </c>
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -24910,7 +25401,7 @@
       <c r="B104" s="6">
         <v>9</v>
       </c>
-      <c r="C104" s="49" t="s">
+      <c r="C104" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -24960,7 +25451,7 @@
       <c r="B105" s="6">
         <v>9</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -25010,7 +25501,7 @@
       <c r="B106" s="6">
         <v>9</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -25060,7 +25551,7 @@
       <c r="B107" s="6">
         <v>10</v>
       </c>
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -25110,7 +25601,7 @@
       <c r="B108" s="6">
         <v>10</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -25160,7 +25651,7 @@
       <c r="B109" s="6">
         <v>10</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -25210,7 +25701,7 @@
       <c r="B110" s="6">
         <v>10</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C110" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -25260,7 +25751,7 @@
       <c r="B111" s="6">
         <v>10</v>
       </c>
-      <c r="C111" s="49" t="s">
+      <c r="C111" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -25310,7 +25801,7 @@
       <c r="B112" s="6">
         <v>11</v>
       </c>
-      <c r="C112" s="49" t="s">
+      <c r="C112" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -25360,7 +25851,7 @@
       <c r="B113" s="6">
         <v>11</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -25410,7 +25901,7 @@
       <c r="B114" s="6">
         <v>11</v>
       </c>
-      <c r="C114" s="49" t="s">
+      <c r="C114" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -25460,7 +25951,7 @@
       <c r="B115" s="6">
         <v>11</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -25510,7 +26001,7 @@
       <c r="B116" s="6">
         <v>11</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -25560,7 +26051,7 @@
       <c r="B117" s="6">
         <v>12</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -25610,7 +26101,7 @@
       <c r="B118" s="6">
         <v>12</v>
       </c>
-      <c r="C118" s="49" t="s">
+      <c r="C118" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -25660,7 +26151,7 @@
       <c r="B119" s="6">
         <v>12</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -25710,7 +26201,7 @@
       <c r="B120" s="6">
         <v>12</v>
       </c>
-      <c r="C120" s="49" t="s">
+      <c r="C120" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -25760,7 +26251,7 @@
       <c r="B121" s="6">
         <v>12</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -25810,7 +26301,7 @@
       <c r="B122" s="6">
         <v>1</v>
       </c>
-      <c r="C122" s="49" t="s">
+      <c r="C122" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -25860,7 +26351,7 @@
       <c r="B123" s="6">
         <v>1</v>
       </c>
-      <c r="C123" s="49" t="s">
+      <c r="C123" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -25910,7 +26401,7 @@
       <c r="B124" s="6">
         <v>1</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -25960,7 +26451,7 @@
       <c r="B125" s="6">
         <v>1</v>
       </c>
-      <c r="C125" s="49" t="s">
+      <c r="C125" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -26010,7 +26501,7 @@
       <c r="B126" s="6">
         <v>1</v>
       </c>
-      <c r="C126" s="49" t="s">
+      <c r="C126" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -26060,7 +26551,7 @@
       <c r="B127" s="6">
         <v>2</v>
       </c>
-      <c r="C127" s="49" t="s">
+      <c r="C127" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -26110,7 +26601,7 @@
       <c r="B128" s="6">
         <v>2</v>
       </c>
-      <c r="C128" s="49" t="s">
+      <c r="C128" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -26160,7 +26651,7 @@
       <c r="B129" s="6">
         <v>2</v>
       </c>
-      <c r="C129" s="49" t="s">
+      <c r="C129" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -26210,7 +26701,7 @@
       <c r="B130" s="6">
         <v>2</v>
       </c>
-      <c r="C130" s="49" t="s">
+      <c r="C130" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -26260,7 +26751,7 @@
       <c r="B131" s="6">
         <v>2</v>
       </c>
-      <c r="C131" s="49" t="s">
+      <c r="C131" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D131" s="6" t="s">
@@ -26310,7 +26801,7 @@
       <c r="B132" s="6">
         <v>3</v>
       </c>
-      <c r="C132" s="49" t="s">
+      <c r="C132" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D132" s="6" t="s">
@@ -26360,7 +26851,7 @@
       <c r="B133" s="6">
         <v>3</v>
       </c>
-      <c r="C133" s="49" t="s">
+      <c r="C133" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D133" s="6" t="s">
@@ -26410,7 +26901,7 @@
       <c r="B134" s="6">
         <v>3</v>
       </c>
-      <c r="C134" s="49" t="s">
+      <c r="C134" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -26460,7 +26951,7 @@
       <c r="B135" s="6">
         <v>3</v>
       </c>
-      <c r="C135" s="49" t="s">
+      <c r="C135" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -26510,7 +27001,7 @@
       <c r="B136" s="6">
         <v>3</v>
       </c>
-      <c r="C136" s="49" t="s">
+      <c r="C136" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D136" s="6" t="s">
@@ -26560,7 +27051,7 @@
       <c r="B137" s="6">
         <v>4</v>
       </c>
-      <c r="C137" s="49" t="s">
+      <c r="C137" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D137" s="6" t="s">
@@ -26610,7 +27101,7 @@
       <c r="B138" s="6">
         <v>4</v>
       </c>
-      <c r="C138" s="49" t="s">
+      <c r="C138" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -26660,7 +27151,7 @@
       <c r="B139" s="6">
         <v>4</v>
       </c>
-      <c r="C139" s="49" t="s">
+      <c r="C139" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D139" s="6" t="s">
@@ -26710,7 +27201,7 @@
       <c r="B140" s="6">
         <v>4</v>
       </c>
-      <c r="C140" s="49" t="s">
+      <c r="C140" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D140" s="6" t="s">
@@ -26760,7 +27251,7 @@
       <c r="B141" s="6">
         <v>5</v>
       </c>
-      <c r="C141" s="49" t="s">
+      <c r="C141" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D141" s="6" t="s">
@@ -26810,7 +27301,7 @@
       <c r="B142" s="6">
         <v>5</v>
       </c>
-      <c r="C142" s="49" t="s">
+      <c r="C142" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D142" s="6" t="s">
@@ -26860,7 +27351,7 @@
       <c r="B143" s="6">
         <v>5</v>
       </c>
-      <c r="C143" s="49" t="s">
+      <c r="C143" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="6" t="s">
@@ -26910,7 +27401,7 @@
       <c r="B144" s="6">
         <v>5</v>
       </c>
-      <c r="C144" s="49" t="s">
+      <c r="C144" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D144" s="6" t="s">
@@ -26960,7 +27451,7 @@
       <c r="B145" s="6">
         <v>5</v>
       </c>
-      <c r="C145" s="49" t="s">
+      <c r="C145" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="6" t="s">
@@ -27010,7 +27501,7 @@
       <c r="B146" s="6">
         <v>6</v>
       </c>
-      <c r="C146" s="49" t="s">
+      <c r="C146" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="6" t="s">
@@ -27060,7 +27551,7 @@
       <c r="B147" s="6">
         <v>6</v>
       </c>
-      <c r="C147" s="49" t="s">
+      <c r="C147" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="6" t="s">
@@ -27110,7 +27601,7 @@
       <c r="B148" s="6">
         <v>6</v>
       </c>
-      <c r="C148" s="49" t="s">
+      <c r="C148" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -27160,7 +27651,7 @@
       <c r="B149" s="6">
         <v>6</v>
       </c>
-      <c r="C149" s="49" t="s">
+      <c r="C149" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D149" s="6" t="s">
@@ -27210,7 +27701,7 @@
       <c r="B150" s="6">
         <v>6</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -27260,7 +27751,7 @@
       <c r="B151" s="6">
         <v>7</v>
       </c>
-      <c r="C151" s="49" t="s">
+      <c r="C151" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="6" t="s">
@@ -27310,7 +27801,7 @@
       <c r="B152" s="6">
         <v>7</v>
       </c>
-      <c r="C152" s="49" t="s">
+      <c r="C152" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="6" t="s">
@@ -27360,7 +27851,7 @@
       <c r="B153" s="6">
         <v>7</v>
       </c>
-      <c r="C153" s="49" t="s">
+      <c r="C153" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D153" s="6" t="s">
@@ -27410,7 +27901,7 @@
       <c r="B154" s="6">
         <v>7</v>
       </c>
-      <c r="C154" s="49" t="s">
+      <c r="C154" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D154" s="6" t="s">
@@ -27460,7 +27951,7 @@
       <c r="B155" s="6">
         <v>7</v>
       </c>
-      <c r="C155" s="49" t="s">
+      <c r="C155" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="6" t="s">
@@ -27510,7 +28001,7 @@
       <c r="B156" s="6">
         <v>8</v>
       </c>
-      <c r="C156" s="49" t="s">
+      <c r="C156" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D156" s="6" t="s">
@@ -27560,7 +28051,7 @@
       <c r="B157" s="6">
         <v>8</v>
       </c>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D157" s="6" t="s">
@@ -27610,7 +28101,7 @@
       <c r="B158" s="6">
         <v>8</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="C158" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D158" s="6" t="s">
@@ -27660,7 +28151,7 @@
       <c r="B159" s="6">
         <v>8</v>
       </c>
-      <c r="C159" s="49" t="s">
+      <c r="C159" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D159" s="6" t="s">
@@ -27710,7 +28201,7 @@
       <c r="B160" s="6">
         <v>8</v>
       </c>
-      <c r="C160" s="49" t="s">
+      <c r="C160" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D160" s="6" t="s">
@@ -27760,7 +28251,7 @@
       <c r="B161" s="6">
         <v>9</v>
       </c>
-      <c r="C161" s="49" t="s">
+      <c r="C161" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="6" t="s">
@@ -27810,7 +28301,7 @@
       <c r="B162" s="6">
         <v>9</v>
       </c>
-      <c r="C162" s="49" t="s">
+      <c r="C162" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D162" s="6" t="s">
@@ -27860,7 +28351,7 @@
       <c r="B163" s="6">
         <v>9</v>
       </c>
-      <c r="C163" s="49" t="s">
+      <c r="C163" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -27910,7 +28401,7 @@
       <c r="B164" s="6">
         <v>9</v>
       </c>
-      <c r="C164" s="49" t="s">
+      <c r="C164" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="6" t="s">
@@ -27960,7 +28451,7 @@
       <c r="B165" s="6">
         <v>9</v>
       </c>
-      <c r="C165" s="49" t="s">
+      <c r="C165" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D165" s="6" t="s">
@@ -28010,7 +28501,7 @@
       <c r="B166" s="6">
         <v>10</v>
       </c>
-      <c r="C166" s="49" t="s">
+      <c r="C166" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D166" s="6" t="s">
@@ -28060,7 +28551,7 @@
       <c r="B167" s="6">
         <v>10</v>
       </c>
-      <c r="C167" s="49" t="s">
+      <c r="C167" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -28110,7 +28601,7 @@
       <c r="B168" s="6">
         <v>10</v>
       </c>
-      <c r="C168" s="49" t="s">
+      <c r="C168" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D168" s="6" t="s">
@@ -28160,7 +28651,7 @@
       <c r="B169" s="6">
         <v>10</v>
       </c>
-      <c r="C169" s="49" t="s">
+      <c r="C169" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -28210,7 +28701,7 @@
       <c r="B170" s="6">
         <v>10</v>
       </c>
-      <c r="C170" s="49" t="s">
+      <c r="C170" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D170" s="6" t="s">
@@ -28260,7 +28751,7 @@
       <c r="B171" s="6">
         <v>11</v>
       </c>
-      <c r="C171" s="49" t="s">
+      <c r="C171" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D171" s="6" t="s">
@@ -28310,7 +28801,7 @@
       <c r="B172" s="6">
         <v>11</v>
       </c>
-      <c r="C172" s="49" t="s">
+      <c r="C172" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D172" s="6" t="s">
@@ -28360,7 +28851,7 @@
       <c r="B173" s="6">
         <v>11</v>
       </c>
-      <c r="C173" s="49" t="s">
+      <c r="C173" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D173" s="6" t="s">
@@ -28410,7 +28901,7 @@
       <c r="B174" s="6">
         <v>11</v>
       </c>
-      <c r="C174" s="49" t="s">
+      <c r="C174" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D174" s="6" t="s">
@@ -28460,7 +28951,7 @@
       <c r="B175" s="6">
         <v>11</v>
       </c>
-      <c r="C175" s="49" t="s">
+      <c r="C175" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="6" t="s">
@@ -28510,7 +29001,7 @@
       <c r="B176" s="6">
         <v>12</v>
       </c>
-      <c r="C176" s="49" t="s">
+      <c r="C176" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D176" s="6" t="s">
@@ -28560,7 +29051,7 @@
       <c r="B177" s="6">
         <v>12</v>
       </c>
-      <c r="C177" s="49" t="s">
+      <c r="C177" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D177" s="6" t="s">
@@ -28610,7 +29101,7 @@
       <c r="B178" s="6">
         <v>12</v>
       </c>
-      <c r="C178" s="49" t="s">
+      <c r="C178" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D178" s="6" t="s">
@@ -28660,7 +29151,7 @@
       <c r="B179" s="6">
         <v>12</v>
       </c>
-      <c r="C179" s="49" t="s">
+      <c r="C179" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D179" s="6" t="s">
@@ -28710,7 +29201,7 @@
       <c r="B180" s="6">
         <v>12</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="48" t="s">
         <v>20</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -28760,7 +29251,7 @@
       <c r="B181" s="6">
         <v>1</v>
       </c>
-      <c r="C181" s="49" t="s">
+      <c r="C181" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D181" s="6" t="s">
@@ -28810,7 +29301,7 @@
       <c r="B182" s="6">
         <v>1</v>
       </c>
-      <c r="C182" s="49" t="s">
+      <c r="C182" s="48" t="s">
         <v>21</v>
       </c>
       <c r="D182" s="6" t="s">
@@ -31808,7 +32299,7 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -31852,7 +32343,7 @@
         <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -31896,7 +32387,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -31940,7 +32431,7 @@
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -31984,7 +32475,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -32028,7 +32519,7 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -32072,7 +32563,7 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -32116,7 +32607,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -32160,7 +32651,7 @@
         <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -32204,7 +32695,7 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -32248,7 +32739,7 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -32292,7 +32783,7 @@
         <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -32336,7 +32827,7 @@
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -32380,7 +32871,7 @@
         <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -32424,7 +32915,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -32468,7 +32959,7 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -32512,7 +33003,7 @@
         <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -32556,7 +33047,7 @@
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="I18">
         <v>3.0360045173566301</v>
@@ -32600,7 +33091,7 @@
         <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="I19">
         <v>0.82923205054063698</v>
@@ -32644,7 +33135,7 @@
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="I20">
         <v>2.2067724668159898</v>
@@ -32688,7 +33179,7 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="I21">
         <v>1.51800225867831</v>
@@ -32732,7 +33223,7 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -32776,7 +33267,7 @@
         <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="I23">
         <v>2.9121944922810399</v>
@@ -32820,7 +33311,7 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="I24">
         <v>1.9485194280500799</v>
@@ -32864,7 +33355,7 @@
         <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="I25">
         <v>0.96367506423096005</v>
@@ -32908,7 +33399,7 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="I26">
         <v>1.4560972461405199</v>
@@ -32952,7 +33443,7 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -32996,7 +33487,7 @@
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -33040,7 +33531,7 @@
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -33084,7 +33575,7 @@
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -33128,7 +33619,7 @@
         <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -33172,7 +33663,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -33216,7 +33707,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -33260,7 +33751,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -33304,7 +33795,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -33348,7 +33839,7 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -33392,7 +33883,7 @@
         <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="I37">
         <v>0.48773471168386801</v>
@@ -33436,7 +33927,7 @@
         <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="I38">
         <v>0.39415709374785701</v>
@@ -33480,7 +33971,7 @@
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -33524,7 +34015,7 @@
         <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="I40">
         <v>0.88189180543172496</v>
@@ -33568,7 +34059,7 @@
         <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="I41">
         <v>0.44094590271586198</v>
@@ -33612,7 +34103,7 @@
         <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -33656,7 +34147,7 @@
         <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -33700,7 +34191,7 @@
         <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -33744,7 +34235,7 @@
         <v>34</v>
       </c>
       <c r="H45" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -33788,7 +34279,7 @@
         <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -33832,7 +34323,7 @@
         <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -33876,7 +34367,7 @@
         <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I48">
         <v>1.5757810279882201</v>
@@ -33920,7 +34411,7 @@
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -33964,7 +34455,7 @@
         <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I50">
         <v>1.5757810279882201</v>
@@ -34008,7 +34499,7 @@
         <v>35</v>
       </c>
       <c r="H51" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I51">
         <v>0.78789051399411103</v>
@@ -34052,7 +34543,7 @@
         <v>31</v>
       </c>
       <c r="H52" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -34096,7 +34587,7 @@
         <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I53">
         <v>0.45558388971487301</v>
@@ -34140,7 +34631,7 @@
         <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -34184,7 +34675,7 @@
         <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I55">
         <v>0.45558388971487301</v>
@@ -34228,7 +34719,7 @@
         <v>35</v>
       </c>
       <c r="H56" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I56">
         <v>0.22779194485743701</v>
@@ -34272,7 +34763,7 @@
         <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I57">
         <v>0.213013364972403</v>
@@ -34316,7 +34807,7 @@
         <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -34360,7 +34851,7 @@
         <v>33</v>
       </c>
       <c r="H59" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I59">
         <v>0.213013364972403</v>
@@ -34404,7 +34895,7 @@
         <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -34448,7 +34939,7 @@
         <v>35</v>
       </c>
       <c r="H61" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="I61">
         <v>0.106506682486201</v>
@@ -34492,7 +34983,7 @@
         <v>31</v>
       </c>
       <c r="H62" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I62">
         <v>9.1563765031028393E-2</v>
@@ -34536,7 +35027,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I63">
         <v>0.14436290293485199</v>
@@ -34580,7 +35071,7 @@
         <v>33</v>
       </c>
       <c r="H64" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I64">
         <v>4.5141280424423398E-2</v>
@@ -34624,7 +35115,7 @@
         <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I65">
         <v>0.19078538754145699</v>
@@ -34668,7 +35159,7 @@
         <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="I66">
         <v>0.11796333398294</v>
@@ -34712,7 +35203,7 @@
         <v>31</v>
       </c>
       <c r="H67" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I67">
         <v>7.0975359611846894E-2</v>
@@ -34756,7 +35247,7 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I68">
         <v>7.0551859816405704</v>
@@ -34800,7 +35291,7 @@
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I69">
         <v>7.1261613412524198</v>
@@ -34844,7 +35335,7 @@
         <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -34888,7 +35379,7 @@
         <v>35</v>
       </c>
       <c r="H71" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I71">
         <v>3.5630806706262099</v>
@@ -34932,7 +35423,7 @@
         <v>31</v>
       </c>
       <c r="H72" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="I72">
         <v>0.16947243677198101</v>
@@ -34976,7 +35467,7 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="I73">
         <v>2.5317459915763099</v>
@@ -35020,7 +35511,7 @@
         <v>33</v>
       </c>
       <c r="H74" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="I74">
         <v>0.68822721493290895</v>
@@ -35064,7 +35555,7 @@
         <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="I75">
         <v>2.0129912134153898</v>
@@ -35108,7 +35599,7 @@
         <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="I76">
         <v>1.3506092141741499</v>
@@ -35152,7 +35643,7 @@
         <v>31</v>
       </c>
       <c r="H77" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -35196,7 +35687,7 @@
         <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I78">
         <v>0.71506079305016601</v>
@@ -35240,7 +35731,7 @@
         <v>33</v>
       </c>
       <c r="H79" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -35284,7 +35775,7 @@
         <v>34</v>
       </c>
       <c r="H80" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I80">
         <v>0.71506079305016601</v>
@@ -35328,7 +35819,7 @@
         <v>35</v>
       </c>
       <c r="H81" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="I81">
         <v>0.35753039652508301</v>
@@ -35372,7 +35863,7 @@
         <v>31</v>
       </c>
       <c r="H82" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -35416,7 +35907,7 @@
         <v>32</v>
       </c>
       <c r="H83" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="I83">
         <v>4.7435604694585596</v>
@@ -35460,7 +35951,7 @@
         <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="I84">
         <v>4.7435604694585596</v>
@@ -35504,7 +35995,7 @@
         <v>34</v>
       </c>
       <c r="H85" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -35548,7 +36039,7 @@
         <v>35</v>
       </c>
       <c r="H86" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="I86">
         <v>2.3717802347292798</v>
@@ -35592,7 +36083,7 @@
         <v>31</v>
       </c>
       <c r="H87" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -35636,7 +36127,7 @@
         <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -35680,7 +36171,7 @@
         <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -35724,7 +36215,7 @@
         <v>34</v>
       </c>
       <c r="H90" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -35768,7 +36259,7 @@
         <v>35</v>
       </c>
       <c r="H91" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -35812,7 +36303,7 @@
         <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -35856,7 +36347,7 @@
         <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="I93">
         <v>2.68700000402518</v>
@@ -35900,7 +36391,7 @@
         <v>33</v>
       </c>
       <c r="H94" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="I94">
         <v>2.68700000402518</v>
@@ -35944,7 +36435,7 @@
         <v>34</v>
       </c>
       <c r="H95" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -35988,7 +36479,7 @@
         <v>35</v>
       </c>
       <c r="H96" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="I96">
         <v>1.34350000201259</v>
@@ -36032,7 +36523,7 @@
         <v>31</v>
       </c>
       <c r="H97" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -36076,7 +36567,7 @@
         <v>32</v>
       </c>
       <c r="H98" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -36120,7 +36611,7 @@
         <v>33</v>
       </c>
       <c r="H99" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -36164,7 +36655,7 @@
         <v>34</v>
       </c>
       <c r="H100" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -36208,7 +36699,7 @@
         <v>35</v>
       </c>
       <c r="H101" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -36252,7 +36743,7 @@
         <v>31</v>
       </c>
       <c r="H102" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="I102">
         <v>0.98754775097353897</v>
@@ -36296,7 +36787,7 @@
         <v>32</v>
       </c>
       <c r="H103" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="I103">
         <v>24.232544720345</v>
@@ -36340,7 +36831,7 @@
         <v>33</v>
       </c>
       <c r="H104" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="I104">
         <v>12.879610852168099</v>
@@ -36384,7 +36875,7 @@
         <v>34</v>
       </c>
       <c r="H105" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="I105">
         <v>12.3404816191505</v>
@@ -36428,7 +36919,7 @@
         <v>35</v>
       </c>
       <c r="H106" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="I106">
         <v>12.610046235659301</v>
@@ -36472,7 +36963,7 @@
         <v>31</v>
       </c>
       <c r="H107" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -36516,7 +37007,7 @@
         <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -36560,7 +37051,7 @@
         <v>33</v>
       </c>
       <c r="H109" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -36604,7 +37095,7 @@
         <v>34</v>
       </c>
       <c r="H110" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -36648,7 +37139,7 @@
         <v>35</v>
       </c>
       <c r="H111" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -36692,7 +37183,7 @@
         <v>31</v>
       </c>
       <c r="H112" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I112">
         <v>9.6865850124606204E-2</v>
@@ -36736,7 +37227,7 @@
         <v>32</v>
       </c>
       <c r="H113" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I113">
         <v>14.3647341413569</v>
@@ -36780,7 +37271,7 @@
         <v>33</v>
       </c>
       <c r="H114" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I114">
         <v>2.2531840315675402</v>
@@ -36824,7 +37315,7 @@
         <v>34</v>
       </c>
       <c r="H115" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I115">
         <v>12.208415959913999</v>
@@ -36868,7 +37359,7 @@
         <v>35</v>
       </c>
       <c r="H116" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I116">
         <v>7.23079999574077</v>
@@ -36912,7 +37403,7 @@
         <v>31</v>
       </c>
       <c r="H117" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="I117">
         <v>2.4777270082049698</v>
@@ -36956,7 +37447,7 @@
         <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="I118">
         <v>0.44481948817169398</v>
@@ -37000,7 +37491,7 @@
         <v>33</v>
       </c>
       <c r="H119" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="I119">
         <v>0.435922584916144</v>
@@ -37044,7 +37535,7 @@
         <v>34</v>
       </c>
       <c r="H120" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="I120">
         <v>2.4866239114605202</v>
@@ -37088,7 +37579,7 @@
         <v>35</v>
       </c>
       <c r="H121" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="I121">
         <v>1.4612732481883299</v>
@@ -37132,7 +37623,7 @@
         <v>31</v>
       </c>
       <c r="H122" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="I122">
         <v>0.17449881354996899</v>
@@ -37176,7 +37667,7 @@
         <v>32</v>
       </c>
       <c r="H123" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -37220,7 +37711,7 @@
         <v>33</v>
       </c>
       <c r="H124" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -37264,7 +37755,7 @@
         <v>34</v>
       </c>
       <c r="H125" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="I125">
         <v>0.17449881354996899</v>
@@ -37308,7 +37799,7 @@
         <v>35</v>
       </c>
       <c r="H126" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="I126">
         <v>8.7249406774984398E-2</v>
@@ -37352,7 +37843,7 @@
         <v>31</v>
       </c>
       <c r="H127" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -37396,7 +37887,7 @@
         <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -37440,7 +37931,7 @@
         <v>33</v>
       </c>
       <c r="H129" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -37484,7 +37975,7 @@
         <v>34</v>
       </c>
       <c r="H130" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -37528,7 +38019,7 @@
         <v>35</v>
       </c>
       <c r="H131" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -37572,7 +38063,7 @@
         <v>31</v>
       </c>
       <c r="H132" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -37616,7 +38107,7 @@
         <v>32</v>
       </c>
       <c r="H133" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -37660,7 +38151,7 @@
         <v>33</v>
       </c>
       <c r="H134" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -37704,7 +38195,7 @@
         <v>34</v>
       </c>
       <c r="H135" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -37748,7 +38239,7 @@
         <v>35</v>
       </c>
       <c r="H136" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -37792,7 +38283,7 @@
         <v>31</v>
       </c>
       <c r="H137" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -37836,7 +38327,7 @@
         <v>32</v>
       </c>
       <c r="H138" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -37880,7 +38371,7 @@
         <v>33</v>
       </c>
       <c r="H139" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -37924,7 +38415,7 @@
         <v>34</v>
       </c>
       <c r="H140" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -37968,7 +38459,7 @@
         <v>35</v>
       </c>
       <c r="H141" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -38012,7 +38503,7 @@
         <v>31</v>
       </c>
       <c r="H142" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -38056,7 +38547,7 @@
         <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -38100,7 +38591,7 @@
         <v>33</v>
       </c>
       <c r="H144" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -38144,7 +38635,7 @@
         <v>34</v>
       </c>
       <c r="H145" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -38188,7 +38679,7 @@
         <v>35</v>
       </c>
       <c r="H146" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -38232,7 +38723,7 @@
         <v>31</v>
       </c>
       <c r="H147" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -38276,7 +38767,7 @@
         <v>32</v>
       </c>
       <c r="H148" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -38320,7 +38811,7 @@
         <v>33</v>
       </c>
       <c r="H149" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -38364,7 +38855,7 @@
         <v>34</v>
       </c>
       <c r="H150" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -38408,7 +38899,7 @@
         <v>35</v>
       </c>
       <c r="H151" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -38452,7 +38943,7 @@
         <v>31</v>
       </c>
       <c r="H152" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -38496,7 +38987,7 @@
         <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I153">
         <v>9.0919291242935998</v>
@@ -38540,7 +39031,7 @@
         <v>33</v>
       </c>
       <c r="H154" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I154">
         <v>6.2554555265010796</v>
@@ -38584,7 +39075,7 @@
         <v>34</v>
       </c>
       <c r="H155" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I155">
         <v>2.83647359779251</v>
@@ -38628,7 +39119,7 @@
         <v>35</v>
       </c>
       <c r="H156" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="I156">
         <v>4.5459645621467999</v>
@@ -38672,7 +39163,7 @@
         <v>31</v>
       </c>
       <c r="H157" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -38716,7 +39207,7 @@
         <v>32</v>
       </c>
       <c r="H158" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="I158">
         <v>1.67926055167042</v>
@@ -38760,7 +39251,7 @@
         <v>33</v>
       </c>
       <c r="H159" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -38804,7 +39295,7 @@
         <v>34</v>
       </c>
       <c r="H160" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="I160">
         <v>1.67926055167042</v>
@@ -38848,7 +39339,7 @@
         <v>35</v>
       </c>
       <c r="H161" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="I161">
         <v>0.83963027583521199</v>
@@ -38892,7 +39383,7 @@
         <v>31</v>
       </c>
       <c r="H162" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -38936,7 +39427,7 @@
         <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -38980,7 +39471,7 @@
         <v>33</v>
       </c>
       <c r="H164" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -39024,7 +39515,7 @@
         <v>34</v>
       </c>
       <c r="H165" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -39068,7 +39559,7 @@
         <v>35</v>
       </c>
       <c r="H166" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -39112,7 +39603,7 @@
         <v>31</v>
       </c>
       <c r="H167" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -39156,7 +39647,7 @@
         <v>32</v>
       </c>
       <c r="H168" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="I168">
         <v>22.817010733913001</v>
@@ -39200,7 +39691,7 @@
         <v>33</v>
       </c>
       <c r="H169" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="I169">
         <v>21.5693432697067</v>
@@ -39244,7 +39735,7 @@
         <v>34</v>
       </c>
       <c r="H170" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="I170">
         <v>1.2476674642063901</v>
@@ -39288,7 +39779,7 @@
         <v>35</v>
       </c>
       <c r="H171" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="I171">
         <v>11.408505366956501</v>
@@ -39332,7 +39823,7 @@
         <v>31</v>
       </c>
       <c r="H172" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -39376,7 +39867,7 @@
         <v>32</v>
       </c>
       <c r="H173" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="I173">
         <v>11.8578759679403</v>
@@ -39420,7 +39911,7 @@
         <v>33</v>
       </c>
       <c r="H174" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="I174">
         <v>11.8578759679403</v>
@@ -39464,7 +39955,7 @@
         <v>34</v>
       </c>
       <c r="H175" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -39508,7 +39999,7 @@
         <v>35</v>
       </c>
       <c r="H176" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="I176">
         <v>5.9289379839701501</v>
@@ -39552,7 +40043,7 @@
         <v>31</v>
       </c>
       <c r="H177" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="I177">
         <v>0.14778253580119399</v>
@@ -39596,7 +40087,7 @@
         <v>32</v>
       </c>
       <c r="H178" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="I178">
         <v>0.92352409187686402</v>
@@ -39640,7 +40131,7 @@
         <v>33</v>
       </c>
       <c r="H179" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="I179">
         <v>1.01805328975539</v>
@@ -39684,7 +40175,7 @@
         <v>34</v>
       </c>
       <c r="H180" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="I180">
         <v>5.3253337922668703E-2</v>
@@ -39728,7 +40219,7 @@
         <v>35</v>
       </c>
       <c r="H181" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="I181">
         <v>0.53565331383902903</v>
@@ -39772,7 +40263,7 @@
         <v>31</v>
       </c>
       <c r="H182" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="I182">
         <v>0.14147383235200101</v>
@@ -39816,7 +40307,7 @@
         <v>32</v>
       </c>
       <c r="H183" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="I183">
         <v>2.5300859840999399</v>
@@ -39860,7 +40351,7 @@
         <v>33</v>
       </c>
       <c r="H184" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="I184">
         <v>1.20826338214134</v>
@@ -39904,7 +40395,7 @@
         <v>34</v>
       </c>
       <c r="H185" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="I185">
         <v>1.4632964343106001</v>
@@ -39948,7 +40439,7 @@
         <v>35</v>
       </c>
       <c r="H186" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="I186">
         <v>1.33577990822597</v>
@@ -39992,7 +40483,7 @@
         <v>31</v>
       </c>
       <c r="H187" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="I187">
         <v>0.220582954056216</v>
@@ -40036,7 +40527,7 @@
         <v>32</v>
       </c>
       <c r="H188" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="I188">
         <v>0.38828573481269302</v>
@@ -40080,7 +40571,7 @@
         <v>33</v>
       </c>
       <c r="H189" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="I189">
         <v>0.144205157509702</v>
@@ -40124,7 +40615,7 @@
         <v>34</v>
       </c>
       <c r="H190" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="I190">
         <v>0.46466353135920702</v>
@@ -40168,7 +40659,7 @@
         <v>35</v>
       </c>
       <c r="H191" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="I191">
         <v>0.304434344434454</v>
@@ -40212,7 +40703,7 @@
         <v>31</v>
       </c>
       <c r="H192" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="I192">
         <v>7.8721459937159705E-2</v>
@@ -40256,7 +40747,7 @@
         <v>32</v>
       </c>
       <c r="H193" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="I193">
         <v>0.118497128659432</v>
@@ -40300,7 +40791,7 @@
         <v>33</v>
       </c>
       <c r="H194" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -40344,7 +40835,7 @@
         <v>34</v>
       </c>
       <c r="H195" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="I195">
         <v>0.197218588596592</v>
@@ -40388,7 +40879,7 @@
         <v>35</v>
       </c>
       <c r="H196" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="I196">
         <v>9.8609294298296096E-2</v>
@@ -40432,7 +40923,7 @@
         <v>31</v>
       </c>
       <c r="H197" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -40476,7 +40967,7 @@
         <v>32</v>
       </c>
       <c r="H198" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -40520,7 +41011,7 @@
         <v>33</v>
       </c>
       <c r="H199" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -40564,7 +41055,7 @@
         <v>34</v>
       </c>
       <c r="H200" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -40608,7 +41099,7 @@
         <v>35</v>
       </c>
       <c r="H201" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -40652,7 +41143,7 @@
         <v>31</v>
       </c>
       <c r="H202" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -40696,7 +41187,7 @@
         <v>32</v>
       </c>
       <c r="H203" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -40740,7 +41231,7 @@
         <v>33</v>
       </c>
       <c r="H204" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -40784,7 +41275,7 @@
         <v>34</v>
       </c>
       <c r="H205" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -40828,7 +41319,7 @@
         <v>35</v>
       </c>
       <c r="H206" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -40872,7 +41363,7 @@
         <v>31</v>
       </c>
       <c r="H207" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -40916,7 +41407,7 @@
         <v>32</v>
       </c>
       <c r="H208" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="I208">
         <v>0</v>
@@ -40960,7 +41451,7 @@
         <v>33</v>
       </c>
       <c r="H209" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="I209">
         <v>0</v>
@@ -41004,7 +41495,7 @@
         <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -41048,7 +41539,7 @@
         <v>35</v>
       </c>
       <c r="H211" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -41092,7 +41583,7 @@
         <v>31</v>
       </c>
       <c r="H212" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I212">
         <v>0</v>
@@ -41136,7 +41627,7 @@
         <v>32</v>
       </c>
       <c r="H213" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I213">
         <v>0</v>
@@ -41180,7 +41671,7 @@
         <v>33</v>
       </c>
       <c r="H214" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -41224,7 +41715,7 @@
         <v>34</v>
       </c>
       <c r="H215" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -41268,7 +41759,7 @@
         <v>35</v>
       </c>
       <c r="H216" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -41312,7 +41803,7 @@
         <v>31</v>
       </c>
       <c r="H217" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -41356,7 +41847,7 @@
         <v>32</v>
       </c>
       <c r="H218" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -41400,7 +41891,7 @@
         <v>33</v>
       </c>
       <c r="H219" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -41444,7 +41935,7 @@
         <v>34</v>
       </c>
       <c r="H220" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -41488,7 +41979,7 @@
         <v>35</v>
       </c>
       <c r="H221" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -41532,7 +42023,7 @@
         <v>31</v>
       </c>
       <c r="H222" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I222">
         <v>4.0778212644331499E-2</v>
@@ -41576,7 +42067,7 @@
         <v>32</v>
       </c>
       <c r="H223" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -41620,7 +42111,7 @@
         <v>33</v>
       </c>
       <c r="H224" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I224">
         <v>4.0778212644331499E-2</v>
@@ -41664,7 +42155,7 @@
         <v>34</v>
       </c>
       <c r="H225" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -41708,7 +42199,7 @@
         <v>35</v>
       </c>
       <c r="H226" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="I226">
         <v>2.0389106322165701E-2</v>
@@ -41752,7 +42243,7 @@
         <v>31</v>
       </c>
       <c r="H227" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -41796,7 +42287,7 @@
         <v>32</v>
       </c>
       <c r="H228" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -41840,7 +42331,7 @@
         <v>33</v>
       </c>
       <c r="H229" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -41884,7 +42375,7 @@
         <v>34</v>
       </c>
       <c r="H230" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -41928,7 +42419,7 @@
         <v>35</v>
       </c>
       <c r="H231" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -41972,7 +42463,7 @@
         <v>31</v>
       </c>
       <c r="H232" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I232">
         <v>1.9983464636975199</v>
@@ -42016,7 +42507,7 @@
         <v>32</v>
       </c>
       <c r="H233" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I233">
         <v>0.71494286050268097</v>
@@ -42060,7 +42551,7 @@
         <v>33</v>
       </c>
       <c r="H234" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I234">
         <v>1.2912460266747401</v>
@@ -42104,7 +42595,7 @@
         <v>34</v>
       </c>
       <c r="H235" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I235">
         <v>1.42204329752546</v>
@@ -42148,7 +42639,7 @@
         <v>35</v>
       </c>
       <c r="H236" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="I236">
         <v>1.3566446621001</v>
@@ -42192,7 +42683,7 @@
         <v>31</v>
       </c>
       <c r="H237" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="I237">
         <v>0.91080636701150897</v>
@@ -42236,7 +42727,7 @@
         <v>32</v>
       </c>
       <c r="H238" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="I238">
         <v>6.3118756714262396</v>
@@ -42280,7 +42771,7 @@
         <v>33</v>
       </c>
       <c r="H239" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="I239">
         <v>3.6469027836341801</v>
@@ -42324,7 +42815,7 @@
         <v>34</v>
       </c>
       <c r="H240" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="I240">
         <v>3.5757792548035701</v>
@@ -42368,7 +42859,7 @@
         <v>35</v>
       </c>
       <c r="H241" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="I241">
         <v>3.6113410192188802</v>
@@ -42412,7 +42903,7 @@
         <v>31</v>
       </c>
       <c r="H242" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I242">
         <v>0.28418814561128403</v>
@@ -42456,7 +42947,7 @@
         <v>32</v>
       </c>
       <c r="H243" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I243">
         <v>0.42708368739101499</v>
@@ -42500,7 +42991,7 @@
         <v>33</v>
       </c>
       <c r="H244" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I244">
         <v>0.23605404590888501</v>
@@ -42544,7 +43035,7 @@
         <v>34</v>
       </c>
       <c r="H245" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I245">
         <v>0.475217787093413</v>
@@ -42588,7 +43079,7 @@
         <v>35</v>
       </c>
       <c r="H246" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="I246">
         <v>0.35563591650114901</v>
@@ -42626,13 +43117,13 @@
         <v>5</v>
       </c>
       <c r="F247" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G247" t="s">
         <v>31</v>
       </c>
       <c r="H247" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -42670,13 +43161,13 @@
         <v>5</v>
       </c>
       <c r="F248" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
       </c>
       <c r="H248" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="I248">
         <v>2.7332227689711499</v>
@@ -42714,13 +43205,13 @@
         <v>5</v>
       </c>
       <c r="F249" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G249" t="s">
         <v>33</v>
       </c>
       <c r="H249" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -42758,13 +43249,13 @@
         <v>5</v>
       </c>
       <c r="F250" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G250" t="s">
         <v>34</v>
       </c>
       <c r="H250" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="I250">
         <v>2.7332227689711499</v>
@@ -42802,13 +43293,13 @@
         <v>5</v>
       </c>
       <c r="F251" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G251" t="s">
         <v>35</v>
       </c>
       <c r="H251" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="I251">
         <v>1.3666113844855801</v>
@@ -42846,13 +43337,13 @@
         <v>1</v>
       </c>
       <c r="F252" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="G252" t="s">
         <v>31</v>
       </c>
       <c r="H252" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -42890,13 +43381,13 @@
         <v>1</v>
       </c>
       <c r="F253" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="G253" t="s">
         <v>32</v>
       </c>
       <c r="H253" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="I253">
         <v>0</v>
@@ -42934,13 +43425,13 @@
         <v>1</v>
       </c>
       <c r="F254" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="G254" t="s">
         <v>33</v>
       </c>
       <c r="H254" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="I254">
         <v>0</v>
@@ -42978,13 +43469,13 @@
         <v>1</v>
       </c>
       <c r="F255" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="G255" t="s">
         <v>34</v>
       </c>
       <c r="H255" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -43022,13 +43513,13 @@
         <v>1</v>
       </c>
       <c r="F256" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="G256" t="s">
         <v>35</v>
       </c>
       <c r="H256" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -43066,13 +43557,13 @@
         <v>1</v>
       </c>
       <c r="F257" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G257" t="s">
         <v>31</v>
       </c>
       <c r="H257" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -43110,13 +43601,13 @@
         <v>1</v>
       </c>
       <c r="F258" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G258" t="s">
         <v>32</v>
       </c>
       <c r="H258" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -43154,13 +43645,13 @@
         <v>1</v>
       </c>
       <c r="F259" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G259" t="s">
         <v>33</v>
       </c>
       <c r="H259" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I259">
         <v>0</v>
@@ -43198,13 +43689,13 @@
         <v>1</v>
       </c>
       <c r="F260" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G260" t="s">
         <v>34</v>
       </c>
       <c r="H260" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I260">
         <v>0</v>
@@ -43242,13 +43733,13 @@
         <v>1</v>
       </c>
       <c r="F261" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G261" t="s">
         <v>35</v>
       </c>
       <c r="H261" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -43286,13 +43777,13 @@
         <v>1</v>
       </c>
       <c r="F262" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="G262" t="s">
         <v>31</v>
       </c>
       <c r="H262" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -43330,13 +43821,13 @@
         <v>1</v>
       </c>
       <c r="F263" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="G263" t="s">
         <v>32</v>
       </c>
       <c r="H263" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -43374,13 +43865,13 @@
         <v>1</v>
       </c>
       <c r="F264" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="G264" t="s">
         <v>33</v>
       </c>
       <c r="H264" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -43418,13 +43909,13 @@
         <v>1</v>
       </c>
       <c r="F265" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="G265" t="s">
         <v>34</v>
       </c>
       <c r="H265" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -43462,13 +43953,13 @@
         <v>1</v>
       </c>
       <c r="F266" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="G266" t="s">
         <v>35</v>
       </c>
       <c r="H266" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="I266">
         <v>0</v>
@@ -43506,13 +43997,13 @@
         <v>1</v>
       </c>
       <c r="F267" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G267" t="s">
         <v>31</v>
       </c>
       <c r="H267" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I267">
         <v>0</v>
@@ -43550,13 +44041,13 @@
         <v>1</v>
       </c>
       <c r="F268" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G268" t="s">
         <v>32</v>
       </c>
       <c r="H268" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I268">
         <v>0</v>
@@ -43594,13 +44085,13 @@
         <v>1</v>
       </c>
       <c r="F269" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G269" t="s">
         <v>33</v>
       </c>
       <c r="H269" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -43638,13 +44129,13 @@
         <v>1</v>
       </c>
       <c r="F270" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G270" t="s">
         <v>34</v>
       </c>
       <c r="H270" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I270">
         <v>0</v>
@@ -43682,13 +44173,13 @@
         <v>1</v>
       </c>
       <c r="F271" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G271" t="s">
         <v>35</v>
       </c>
       <c r="H271" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -43726,13 +44217,13 @@
         <v>1</v>
       </c>
       <c r="F272" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="G272" t="s">
         <v>31</v>
       </c>
       <c r="H272" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I272">
         <v>0</v>
@@ -43770,13 +44261,13 @@
         <v>1</v>
       </c>
       <c r="F273" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="G273" t="s">
         <v>32</v>
       </c>
       <c r="H273" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I273">
         <v>1.25156488500975</v>
@@ -43814,13 +44305,13 @@
         <v>1</v>
       </c>
       <c r="F274" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="G274" t="s">
         <v>33</v>
       </c>
       <c r="H274" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -43858,13 +44349,13 @@
         <v>1</v>
       </c>
       <c r="F275" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="G275" t="s">
         <v>34</v>
       </c>
       <c r="H275" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I275">
         <v>1.25156488500975</v>
@@ -43902,13 +44393,13 @@
         <v>1</v>
       </c>
       <c r="F276" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="G276" t="s">
         <v>35</v>
       </c>
       <c r="H276" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="I276">
         <v>0.62578244250487502</v>
@@ -43946,13 +44437,13 @@
         <v>2</v>
       </c>
       <c r="F277" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G277" t="s">
         <v>31</v>
       </c>
       <c r="H277" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -43990,13 +44481,13 @@
         <v>2</v>
       </c>
       <c r="F278" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G278" t="s">
         <v>32</v>
       </c>
       <c r="H278" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="I278">
         <v>0</v>
@@ -44034,13 +44525,13 @@
         <v>2</v>
       </c>
       <c r="F279" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G279" t="s">
         <v>33</v>
       </c>
       <c r="H279" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -44078,13 +44569,13 @@
         <v>2</v>
       </c>
       <c r="F280" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G280" t="s">
         <v>34</v>
       </c>
       <c r="H280" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -44122,13 +44613,13 @@
         <v>2</v>
       </c>
       <c r="F281" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G281" t="s">
         <v>35</v>
       </c>
       <c r="H281" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="I281">
         <v>0</v>
@@ -44166,13 +44657,13 @@
         <v>2</v>
       </c>
       <c r="F282" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G282" t="s">
         <v>31</v>
       </c>
       <c r="H282" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="I282">
         <v>0</v>
@@ -44210,13 +44701,13 @@
         <v>2</v>
       </c>
       <c r="F283" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G283" t="s">
         <v>32</v>
       </c>
       <c r="H283" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="I283">
         <v>0</v>
@@ -44254,13 +44745,13 @@
         <v>2</v>
       </c>
       <c r="F284" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G284" t="s">
         <v>33</v>
       </c>
       <c r="H284" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -44298,13 +44789,13 @@
         <v>2</v>
       </c>
       <c r="F285" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G285" t="s">
         <v>34</v>
       </c>
       <c r="H285" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -44342,13 +44833,13 @@
         <v>2</v>
       </c>
       <c r="F286" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G286" t="s">
         <v>35</v>
       </c>
       <c r="H286" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="I286">
         <v>0</v>
@@ -44386,13 +44877,13 @@
         <v>2</v>
       </c>
       <c r="F287" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G287" t="s">
         <v>31</v>
       </c>
       <c r="H287" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="I287">
         <v>0</v>
@@ -44430,13 +44921,13 @@
         <v>2</v>
       </c>
       <c r="F288" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G288" t="s">
         <v>32</v>
       </c>
       <c r="H288" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="I288">
         <v>0</v>
@@ -44474,13 +44965,13 @@
         <v>2</v>
       </c>
       <c r="F289" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G289" t="s">
         <v>33</v>
       </c>
       <c r="H289" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -44518,13 +45009,13 @@
         <v>2</v>
       </c>
       <c r="F290" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G290" t="s">
         <v>34</v>
       </c>
       <c r="H290" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -44562,13 +45053,13 @@
         <v>2</v>
       </c>
       <c r="F291" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G291" t="s">
         <v>35</v>
       </c>
       <c r="H291" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -44606,13 +45097,13 @@
         <v>2</v>
       </c>
       <c r="F292" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="G292" t="s">
         <v>31</v>
       </c>
       <c r="H292" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="I292">
         <v>0</v>
@@ -44650,13 +45141,13 @@
         <v>2</v>
       </c>
       <c r="F293" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="G293" t="s">
         <v>32</v>
       </c>
       <c r="H293" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="I293">
         <v>0</v>
@@ -44694,13 +45185,13 @@
         <v>2</v>
       </c>
       <c r="F294" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="G294" t="s">
         <v>33</v>
       </c>
       <c r="H294" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -44738,13 +45229,13 @@
         <v>2</v>
       </c>
       <c r="F295" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="G295" t="s">
         <v>34</v>
       </c>
       <c r="H295" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="I295">
         <v>0</v>
@@ -44782,13 +45273,13 @@
         <v>2</v>
       </c>
       <c r="F296" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="G296" t="s">
         <v>35</v>
       </c>
       <c r="H296" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="I296">
         <v>0</v>
@@ -44826,13 +45317,13 @@
         <v>2</v>
       </c>
       <c r="F297" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G297" t="s">
         <v>31</v>
       </c>
       <c r="H297" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="I297">
         <v>0</v>
@@ -44870,13 +45361,13 @@
         <v>2</v>
       </c>
       <c r="F298" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G298" t="s">
         <v>32</v>
       </c>
       <c r="H298" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="I298">
         <v>0</v>
@@ -44914,13 +45405,13 @@
         <v>2</v>
       </c>
       <c r="F299" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G299" t="s">
         <v>33</v>
       </c>
       <c r="H299" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -44958,13 +45449,13 @@
         <v>2</v>
       </c>
       <c r="F300" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G300" t="s">
         <v>34</v>
       </c>
       <c r="H300" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -45002,13 +45493,13 @@
         <v>2</v>
       </c>
       <c r="F301" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G301" t="s">
         <v>35</v>
       </c>
       <c r="H301" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="I301">
         <v>0</v>
@@ -45046,13 +45537,13 @@
         <v>3</v>
       </c>
       <c r="F302" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="G302" t="s">
         <v>31</v>
       </c>
       <c r="H302" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I302">
         <v>0</v>
@@ -45090,13 +45581,13 @@
         <v>3</v>
       </c>
       <c r="F303" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="G303" t="s">
         <v>32</v>
       </c>
       <c r="H303" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -45134,13 +45625,13 @@
         <v>3</v>
       </c>
       <c r="F304" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="G304" t="s">
         <v>33</v>
       </c>
       <c r="H304" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -45178,13 +45669,13 @@
         <v>3</v>
       </c>
       <c r="F305" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="G305" t="s">
         <v>34</v>
       </c>
       <c r="H305" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -45222,13 +45713,13 @@
         <v>3</v>
       </c>
       <c r="F306" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="G306" t="s">
         <v>35</v>
       </c>
       <c r="H306" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I306">
         <v>0</v>
@@ -45266,13 +45757,13 @@
         <v>3</v>
       </c>
       <c r="F307" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="G307" t="s">
         <v>31</v>
       </c>
       <c r="H307" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -45310,13 +45801,13 @@
         <v>3</v>
       </c>
       <c r="F308" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="G308" t="s">
         <v>32</v>
       </c>
       <c r="H308" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="I308">
         <v>0</v>
@@ -45354,13 +45845,13 @@
         <v>3</v>
       </c>
       <c r="F309" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="G309" t="s">
         <v>33</v>
       </c>
       <c r="H309" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="I309">
         <v>0</v>
@@ -45398,13 +45889,13 @@
         <v>3</v>
       </c>
       <c r="F310" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="G310" t="s">
         <v>34</v>
       </c>
       <c r="H310" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="I310">
         <v>0</v>
@@ -45442,13 +45933,13 @@
         <v>3</v>
       </c>
       <c r="F311" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="G311" t="s">
         <v>35</v>
       </c>
       <c r="H311" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="I311">
         <v>0</v>
@@ -45486,13 +45977,13 @@
         <v>3</v>
       </c>
       <c r="F312" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G312" t="s">
         <v>31</v>
       </c>
       <c r="H312" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I312">
         <v>3.67692044888717E-2</v>
@@ -45530,13 +46021,13 @@
         <v>3</v>
       </c>
       <c r="F313" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G313" t="s">
         <v>32</v>
       </c>
       <c r="H313" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I313">
         <v>5.1580212930280904</v>
@@ -45574,13 +46065,13 @@
         <v>3</v>
       </c>
       <c r="F314" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G314" t="s">
         <v>33</v>
       </c>
       <c r="H314" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I314">
         <v>4.1562454215614801</v>
@@ -45618,13 +46109,13 @@
         <v>3</v>
       </c>
       <c r="F315" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G315" t="s">
         <v>34</v>
       </c>
       <c r="H315" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I315">
         <v>1.03854507595548</v>
@@ -45662,13 +46153,13 @@
         <v>3</v>
       </c>
       <c r="F316" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G316" t="s">
         <v>35</v>
       </c>
       <c r="H316" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="I316">
         <v>2.5973952487584802</v>
@@ -45706,13 +46197,13 @@
         <v>3</v>
       </c>
       <c r="F317" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G317" t="s">
         <v>31</v>
       </c>
       <c r="H317" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="I317">
         <v>0</v>
@@ -45750,13 +46241,13 @@
         <v>3</v>
       </c>
       <c r="F318" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G318" t="s">
         <v>32</v>
       </c>
       <c r="H318" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="I318">
         <v>0</v>
@@ -45794,13 +46285,13 @@
         <v>3</v>
       </c>
       <c r="F319" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G319" t="s">
         <v>33</v>
       </c>
       <c r="H319" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="I319">
         <v>0</v>
@@ -45838,13 +46329,13 @@
         <v>3</v>
       </c>
       <c r="F320" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G320" t="s">
         <v>34</v>
       </c>
       <c r="H320" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -45882,13 +46373,13 @@
         <v>3</v>
       </c>
       <c r="F321" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="G321" t="s">
         <v>35</v>
       </c>
       <c r="H321" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="I321">
         <v>0</v>
@@ -45926,13 +46417,13 @@
         <v>3</v>
       </c>
       <c r="F322" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G322" t="s">
         <v>31</v>
       </c>
       <c r="H322" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I322">
         <v>0</v>
@@ -45970,13 +46461,13 @@
         <v>3</v>
       </c>
       <c r="F323" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G323" t="s">
         <v>32</v>
       </c>
       <c r="H323" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I323">
         <v>0</v>
@@ -46014,13 +46505,13 @@
         <v>3</v>
       </c>
       <c r="F324" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G324" t="s">
         <v>33</v>
       </c>
       <c r="H324" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I324">
         <v>0</v>
@@ -46058,13 +46549,13 @@
         <v>3</v>
       </c>
       <c r="F325" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G325" t="s">
         <v>34</v>
       </c>
       <c r="H325" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I325">
         <v>0</v>
@@ -46102,13 +46593,13 @@
         <v>3</v>
       </c>
       <c r="F326" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G326" t="s">
         <v>35</v>
       </c>
       <c r="H326" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -46146,13 +46637,13 @@
         <v>4</v>
       </c>
       <c r="F327" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G327" t="s">
         <v>31</v>
       </c>
       <c r="H327" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="I327">
         <v>0</v>
@@ -46190,13 +46681,13 @@
         <v>4</v>
       </c>
       <c r="F328" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G328" t="s">
         <v>32</v>
       </c>
       <c r="H328" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="I328">
         <v>0</v>
@@ -46234,13 +46725,13 @@
         <v>4</v>
       </c>
       <c r="F329" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G329" t="s">
         <v>33</v>
       </c>
       <c r="H329" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="I329">
         <v>0</v>
@@ -46278,13 +46769,13 @@
         <v>4</v>
       </c>
       <c r="F330" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G330" t="s">
         <v>34</v>
       </c>
       <c r="H330" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -46322,13 +46813,13 @@
         <v>4</v>
       </c>
       <c r="F331" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G331" t="s">
         <v>35</v>
       </c>
       <c r="H331" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -46366,13 +46857,13 @@
         <v>4</v>
       </c>
       <c r="F332" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G332" t="s">
         <v>31</v>
       </c>
       <c r="H332" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -46410,13 +46901,13 @@
         <v>4</v>
       </c>
       <c r="F333" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G333" t="s">
         <v>32</v>
       </c>
       <c r="H333" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="I333">
         <v>0</v>
@@ -46454,13 +46945,13 @@
         <v>4</v>
       </c>
       <c r="F334" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G334" t="s">
         <v>33</v>
       </c>
       <c r="H334" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="I334">
         <v>0</v>
@@ -46498,13 +46989,13 @@
         <v>4</v>
       </c>
       <c r="F335" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G335" t="s">
         <v>34</v>
       </c>
       <c r="H335" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -46542,13 +47033,13 @@
         <v>4</v>
       </c>
       <c r="F336" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="G336" t="s">
         <v>35</v>
       </c>
       <c r="H336" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -46586,13 +47077,13 @@
         <v>4</v>
       </c>
       <c r="F337" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G337" t="s">
         <v>31</v>
       </c>
       <c r="H337" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="I337">
         <v>0</v>
@@ -46630,13 +47121,13 @@
         <v>4</v>
       </c>
       <c r="F338" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G338" t="s">
         <v>32</v>
       </c>
       <c r="H338" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="I338">
         <v>0</v>
@@ -46674,13 +47165,13 @@
         <v>4</v>
       </c>
       <c r="F339" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G339" t="s">
         <v>33</v>
       </c>
       <c r="H339" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="I339">
         <v>0</v>
@@ -46718,13 +47209,13 @@
         <v>4</v>
       </c>
       <c r="F340" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G340" t="s">
         <v>34</v>
       </c>
       <c r="H340" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="I340">
         <v>0</v>
@@ -46762,13 +47253,13 @@
         <v>4</v>
       </c>
       <c r="F341" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G341" t="s">
         <v>35</v>
       </c>
       <c r="H341" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="I341">
         <v>0</v>
@@ -46806,13 +47297,13 @@
         <v>4</v>
       </c>
       <c r="F342" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G342" t="s">
         <v>31</v>
       </c>
       <c r="H342" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I342">
         <v>0.11708758569579999</v>
@@ -46850,13 +47341,13 @@
         <v>4</v>
       </c>
       <c r="F343" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G343" t="s">
         <v>32</v>
       </c>
       <c r="H343" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I343">
         <v>1.14102552918476</v>
@@ -46894,13 +47385,13 @@
         <v>4</v>
       </c>
       <c r="F344" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G344" t="s">
         <v>33</v>
       </c>
       <c r="H344" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I344">
         <v>1.25811311488056</v>
@@ -46938,13 +47429,13 @@
         <v>4</v>
       </c>
       <c r="F345" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G345" t="s">
         <v>34</v>
       </c>
       <c r="H345" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -46982,13 +47473,13 @@
         <v>4</v>
       </c>
       <c r="F346" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="G346" t="s">
         <v>35</v>
       </c>
       <c r="H346" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I346">
         <v>0.62905655744028199</v>
@@ -47026,13 +47517,13 @@
         <v>4</v>
       </c>
       <c r="F347" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G347" t="s">
         <v>31</v>
       </c>
       <c r="H347" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I347">
         <v>0</v>
@@ -47070,13 +47561,13 @@
         <v>4</v>
       </c>
       <c r="F348" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G348" t="s">
         <v>32</v>
       </c>
       <c r="H348" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I348">
         <v>0</v>
@@ -47114,13 +47605,13 @@
         <v>4</v>
       </c>
       <c r="F349" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G349" t="s">
         <v>33</v>
       </c>
       <c r="H349" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -47158,13 +47649,13 @@
         <v>4</v>
       </c>
       <c r="F350" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G350" t="s">
         <v>34</v>
       </c>
       <c r="H350" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I350">
         <v>0</v>
@@ -47202,13 +47693,13 @@
         <v>4</v>
       </c>
       <c r="F351" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="G351" t="s">
         <v>35</v>
       </c>
       <c r="H351" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="I351">
         <v>0</v>
@@ -47246,13 +47737,13 @@
         <v>5</v>
       </c>
       <c r="F352" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="G352" t="s">
         <v>31</v>
       </c>
       <c r="H352" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I352">
         <v>0.47599092375152002</v>
@@ -47290,13 +47781,13 @@
         <v>5</v>
       </c>
       <c r="F353" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="G353" t="s">
         <v>32</v>
       </c>
       <c r="H353" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="I353">
         <v>1.9121423744086501</v>
@@ -47328,7 +47819,7 @@
         <v>12</v>
       </c>
       <c r="D354" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -54329,15 +54820,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="X30 X35 X39 X43">
-    <cfRule type="cellIs" dxfId="110" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54491,7 +54982,7 @@
         <v>100</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>1</v>
@@ -54515,7 +55006,7 @@
         <v>100</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="AE6" s="13" t="s">
         <v>1</v>
@@ -54539,7 +55030,7 @@
         <v>100</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="AT6" s="13" t="s">
         <v>1</v>
@@ -54563,7 +55054,7 @@
         <v>100</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -54799,7 +55290,7 @@
         <v>106</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="L10" s="26">
         <v>7.1200000000000006E-18</v>
@@ -54838,7 +55329,7 @@
         <v>172</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="AA10" s="6">
         <v>1.7899999999999999E-4</v>
@@ -54877,7 +55368,7 @@
         <v>109</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="AP10" s="6">
         <v>6.11E-4</v>
@@ -54916,10 +55407,10 @@
         <v>106</v>
       </c>
       <c r="BD10" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="BE10" s="6" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="BF10" s="26">
         <v>1.09E-2</v>
@@ -54957,10 +55448,10 @@
         <v>105</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="M11" s="26">
         <v>1.1600000000000001E-13</v>
@@ -54996,7 +55487,7 @@
         <v>172</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="AA11" s="6">
         <v>2.42E-4</v>
@@ -55035,7 +55526,7 @@
         <v>172</v>
       </c>
       <c r="AO11" s="6" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="AP11" s="6">
         <v>5.5600000000000001E-6</v>
@@ -55074,10 +55565,10 @@
         <v>109</v>
       </c>
       <c r="BD11" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="BE11" s="26" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="BF11" s="26">
         <v>8.1299999999999997E-5</v>
@@ -55115,7 +55606,7 @@
         <v>118</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="L12" s="26">
         <v>3.6299999999999998E-25</v>
@@ -55154,7 +55645,7 @@
         <v>109</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="AA12" s="6">
         <v>4.4700000000000002E-5</v>
@@ -55193,7 +55684,7 @@
         <v>106</v>
       </c>
       <c r="AO12" s="6" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="AP12" s="6">
         <v>4.3399999999999998E-4</v>
@@ -55232,7 +55723,7 @@
         <v>109</v>
       </c>
       <c r="BD12" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="BE12" s="6">
         <v>8.2900000000000002E-15</v>
@@ -55273,7 +55764,7 @@
         <v>110</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="L13" s="26">
         <v>7.6E-48</v>
@@ -55312,7 +55803,7 @@
         <v>106</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="AA13" s="6">
         <v>1.77E-5</v>
@@ -55351,7 +55842,7 @@
         <v>172</v>
       </c>
       <c r="AO13" s="6" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="AP13" s="6">
         <v>5.0099999999999998E-5</v>
@@ -55390,10 +55881,10 @@
         <v>118</v>
       </c>
       <c r="BD13" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="BE13" s="6" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="BF13" s="26">
         <v>1.32E-16</v>
@@ -55431,7 +55922,7 @@
         <v>155</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="L14" s="26">
         <v>2.9099999999999998E-68</v>
@@ -55470,7 +55961,7 @@
         <v>106</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="AA14" s="6">
         <v>2.26E-6</v>
@@ -55509,7 +56000,7 @@
         <v>172</v>
       </c>
       <c r="AO14" s="6" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="AP14" s="6">
         <v>1.2300000000000001E-4</v>
@@ -55545,10 +56036,10 @@
         <v>7.77</v>
       </c>
       <c r="BB14" s="6" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="BD14" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="BE14" s="26">
         <v>1.8700000000000001E-16</v>
@@ -55589,7 +56080,7 @@
         <v>156</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="L15" s="26">
         <v>5.39E-72</v>
@@ -55628,7 +56119,7 @@
         <v>106</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="AA15" s="6">
         <v>5.1600000000000001E-5</v>
@@ -55694,7 +56185,7 @@
         <v>155</v>
       </c>
       <c r="BD15" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="BE15" s="26">
         <v>1.0799999999999999E-13</v>
@@ -55735,10 +56226,10 @@
         <v>156</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="L16" s="26" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="M16" s="26">
         <v>6.5099999999999999E-68</v>
@@ -55774,7 +56265,7 @@
         <v>106</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="AA16" s="6">
         <v>7.1899999999999998E-6</v>
@@ -55840,7 +56331,7 @@
         <v>155</v>
       </c>
       <c r="BD16" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="BE16" s="26">
         <v>4.7499999999999998E-12</v>
@@ -55881,7 +56372,7 @@
         <v>156</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="L17" s="26">
         <v>1.4200000000000001E-64</v>
@@ -55920,7 +56411,7 @@
         <v>118</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="AA17" s="6">
         <v>6.3400000000000001E-4</v>
@@ -55986,10 +56477,10 @@
         <v>155</v>
       </c>
       <c r="BD17" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="BE17" s="6" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="BF17" s="26">
         <v>7.3200000000000004E-7</v>
@@ -56027,7 +56518,7 @@
         <v>156</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="L18" s="26">
         <v>2.9800000000000002E-51</v>
@@ -56066,7 +56557,7 @@
         <v>107</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="AA18" s="6">
         <v>1.12E-4</v>
@@ -56132,7 +56623,7 @@
         <v>176</v>
       </c>
       <c r="BD18" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="BE18" s="26">
         <v>1.32E-11</v>
@@ -56173,7 +56664,7 @@
         <v>155</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="L19" s="26">
         <v>8.5499999999999999E-16</v>
@@ -56263,10 +56754,10 @@
         <v>6.8319999999999999</v>
       </c>
       <c r="BB19" s="6" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="BD19" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="BE19" s="26">
         <v>6.28E-10</v>
@@ -56307,10 +56798,10 @@
         <v>118</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="M20" s="26">
         <v>9.9999999999999995E-8</v>
@@ -56400,10 +56891,10 @@
         <v>109</v>
       </c>
       <c r="BD20" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="BE20" s="26" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="BF20" s="26">
         <v>5.4299999999999997E-6</v>
@@ -56441,10 +56932,10 @@
         <v>107</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="M21" s="26">
         <v>3.1699999999999999E-2</v>
@@ -56534,10 +57025,10 @@
         <v>109</v>
       </c>
       <c r="BD21" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="BE21" s="6" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="BF21" s="26">
         <v>9.0000000000000006E-5</v>
@@ -56548,7 +57039,7 @@
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K22" s="28" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="L22" s="26">
         <v>7.0500000000000002E-18</v>
@@ -56560,7 +57051,7 @@
         <v>100</v>
       </c>
       <c r="BD22" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="BE22" s="6">
         <v>4.0799999999999999E-10</v>
@@ -56574,7 +57065,7 @@
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K23" s="28" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="L23" s="26">
         <v>1.7200000000000001E-39</v>
@@ -56589,7 +57080,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BD23" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="BE23" s="26">
         <v>2.4600000000000001E-13</v>
@@ -56603,7 +57094,7 @@
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K24" s="28" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="L24" s="26">
         <v>8.27E-44</v>
@@ -56615,7 +57106,7 @@
         <v>100</v>
       </c>
       <c r="BD24" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="BE24" s="26">
         <v>1.45E-11</v>
@@ -56629,7 +57120,7 @@
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K25" s="28" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="L25" s="26">
         <v>3.5599999999999998E-41</v>
@@ -56641,10 +57132,10 @@
         <v>100</v>
       </c>
       <c r="BD25" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="BE25" s="26" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="BF25" s="26">
         <v>1.99E-7</v>
@@ -56655,7 +57146,7 @@
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K26" s="28" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="L26" s="26">
         <v>2.6700000000000001E-35</v>
@@ -56667,10 +57158,10 @@
         <v>100</v>
       </c>
       <c r="BD26" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="BE26" s="6" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="BF26" s="26">
         <v>4.5199999999999999E-6</v>
@@ -56681,7 +57172,7 @@
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K27" s="28" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="L27" s="26">
         <v>3.7899999999999999E-21</v>
@@ -56693,10 +57184,10 @@
         <v>100</v>
       </c>
       <c r="BD27" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="BE27" s="26" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="BF27" s="26">
         <v>2.5500000000000002E-3</v>
@@ -56707,10 +57198,10 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K28" s="28" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="M28" s="26">
         <v>1.5800000000000002E-2</v>
@@ -56719,10 +57210,10 @@
         <v>99</v>
       </c>
       <c r="BD28" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="BE28" s="26" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="BF28" s="26">
         <v>1.8899999999999999E-5</v>
@@ -56733,10 +57224,10 @@
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K29" s="28" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="L29" s="26" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="M29" s="26">
         <v>1.6999999999999999E-3</v>
@@ -56745,10 +57236,10 @@
         <v>117</v>
       </c>
       <c r="BD29" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="BE29" s="26" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="BF29" s="26">
         <v>2.8600000000000001E-4</v>
@@ -56759,7 +57250,7 @@
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K30" s="28" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="L30" s="26">
         <v>9.5499999999999996E-21</v>
@@ -56771,10 +57262,10 @@
         <v>100</v>
       </c>
       <c r="BD30" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="BE30" s="6" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="BF30" s="26">
         <v>1.0200000000000001E-2</v>
@@ -56785,7 +57276,7 @@
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K31" s="28" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="L31" s="26">
         <v>1.4299999999999999E-42</v>
@@ -56797,10 +57288,10 @@
         <v>100</v>
       </c>
       <c r="BD31" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="BE31" s="26" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="BF31" s="26">
         <v>2.3400000000000001E-2</v>
@@ -56811,7 +57302,7 @@
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K32" s="28" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="L32" s="26">
         <v>7.4900000000000002E-47</v>
@@ -56823,10 +57314,10 @@
         <v>100</v>
       </c>
       <c r="BD32" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="BE32" s="6" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="BF32" s="26">
         <v>1.95E-4</v>
@@ -56837,7 +57328,7 @@
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K33" s="28" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="L33" s="26">
         <v>3.0499999999999998E-44</v>
@@ -56849,10 +57340,10 @@
         <v>100</v>
       </c>
       <c r="BD33" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="BE33" s="26" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="BF33" s="26">
         <v>2.9399999999999999E-3</v>
@@ -56863,7 +57354,7 @@
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K34" s="28" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="L34" s="26">
         <v>2.13E-38</v>
@@ -56875,10 +57366,10 @@
         <v>100</v>
       </c>
       <c r="BD34" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="BE34" s="6" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="BF34" s="26">
         <v>7.2200000000000003E-6</v>
@@ -56889,7 +57380,7 @@
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K35" s="28" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="L35" s="26">
         <v>4.0800000000000002E-24</v>
@@ -56901,10 +57392,10 @@
         <v>100</v>
       </c>
       <c r="BD35" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="BE35" s="6" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="BF35" s="26">
         <v>1.0699999999999999E-6</v>
@@ -56915,10 +57406,10 @@
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K36" s="28" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="M36" s="26">
         <v>1.0100000000000001E-6</v>
@@ -56927,7 +57418,7 @@
         <v>100</v>
       </c>
       <c r="BD36" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="BE36" s="26">
         <v>1.9699999999999999E-10</v>
@@ -56941,7 +57432,7 @@
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K37" s="28" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="L37" s="26">
         <v>1.14E-25</v>
@@ -56953,7 +57444,7 @@
         <v>100</v>
       </c>
       <c r="BD37" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="BE37" s="6">
         <v>2.0799999999999999E-11</v>
@@ -56967,7 +57458,7 @@
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K38" s="28" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="L38" s="26">
         <v>1.21E-29</v>
@@ -56979,10 +57470,10 @@
         <v>100</v>
       </c>
       <c r="BD38" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="BE38" s="26" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="BF38" s="26">
         <v>4.1100000000000001E-7</v>
@@ -56993,7 +57484,7 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K39" s="28" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="L39" s="26">
         <v>3.3100000000000002E-27</v>
@@ -57005,7 +57496,7 @@
         <v>100</v>
       </c>
       <c r="BD39" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="BE39" s="6">
         <v>9.6199999999999999E-10</v>
@@ -57019,7 +57510,7 @@
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K40" s="28" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="L40" s="26">
         <v>6.4500000000000001E-22</v>
@@ -57031,10 +57522,10 @@
         <v>100</v>
       </c>
       <c r="BD40" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="BE40" s="6" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="BF40" s="26">
         <v>4.71E-5</v>
@@ -57045,7 +57536,7 @@
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K41" s="28" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="L41" s="26">
         <v>2.4299999999999999E-10</v>
@@ -57057,10 +57548,10 @@
         <v>100</v>
       </c>
       <c r="BD41" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="BE41" s="6" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="BF41" s="26">
         <v>7.61E-6</v>
@@ -57071,10 +57562,10 @@
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K42" s="28" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="M42" s="26">
         <v>3.6700000000000001E-3</v>
@@ -57083,10 +57574,10 @@
         <v>117</v>
       </c>
       <c r="BD42" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="BE42" s="26" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BF42" s="26">
         <v>6.3400000000000001E-4</v>
@@ -57097,10 +57588,10 @@
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="K43" s="28" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="M43" s="26">
         <v>9.1800000000000001E-8</v>
@@ -57109,10 +57600,10 @@
         <v>100</v>
       </c>
       <c r="BD43" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="BE43" s="26" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="BF43" s="26">
         <v>1.25E-4</v>
@@ -57130,7 +57621,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="K44" s="28" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="L44" s="26">
         <v>9.9599999999999997E-11</v>
@@ -57172,7 +57663,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="K45" s="28" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="L45" s="26">
         <v>2.9899999999999998E-14</v>
@@ -57214,7 +57705,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="K46" s="28" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="L46" s="26">
         <v>4.6899999999999996E-12</v>
@@ -57265,10 +57756,10 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="K47" s="28" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="M47" s="26">
         <v>1.84E-6</v>
@@ -57331,7 +57822,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="K48" s="28" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="L48" s="26">
         <v>5.04E-20</v>
@@ -57397,10 +57888,10 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="K49" s="28" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="M49" s="26">
         <v>1.6000000000000001E-26</v>
@@ -57463,10 +57954,10 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="K50" s="28" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="L50" s="26" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="M50" s="26">
         <v>7.2200000000000003E-7</v>
@@ -57529,7 +58020,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="K51" s="28" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="L51" s="26">
         <v>8.2999999999999996E-42</v>
@@ -57595,7 +58086,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="K52" s="28" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="L52" s="26">
         <v>4.8299999999999999E-50</v>
@@ -57640,7 +58131,7 @@
         <v>0.89300000000000002</v>
       </c>
       <c r="AW52" s="6" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.25">
@@ -57661,7 +58152,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="K53" s="28" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="L53" s="26">
         <v>2.2800000000000001E-11</v>
@@ -57706,7 +58197,7 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="AW53" s="6" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="54" spans="1:49" x14ac:dyDescent="0.25">
@@ -57727,7 +58218,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="K54" s="28" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="L54" s="26">
         <v>4.24E-46</v>
@@ -57793,7 +58284,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="K55" s="28" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="L55" s="26">
         <v>3.3600000000000002E-54</v>
@@ -57859,10 +58350,10 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="K56" s="28" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="M56" s="26">
         <v>5.3300000000000001E-8</v>
@@ -57921,7 +58412,7 @@
         <v>156</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="L57" s="26">
         <v>1.75E-43</v>
@@ -57971,7 +58462,7 @@
     </row>
     <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="K58" s="28" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="L58" s="26">
         <v>1.1399999999999999E-51</v>
@@ -58021,13 +58512,13 @@
     </row>
     <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="L59" s="26" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="M59" s="26">
         <v>2.6200000000000003E-4</v>
@@ -58074,7 +58565,7 @@
     </row>
     <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="K60" s="28" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="L60" s="26">
         <v>1.2499999999999999E-37</v>
@@ -58088,7 +58579,7 @@
     </row>
     <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="K61" s="28" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="L61" s="26">
         <v>5.79E-46</v>
@@ -58100,18 +58591,18 @@
         <v>100</v>
       </c>
       <c r="P61" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="AE61" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="AT61" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="K62" s="28" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="L62" s="26">
         <v>2.2599999999999999E-23</v>
@@ -58125,7 +58616,7 @@
     </row>
     <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="K63" s="28" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="L63" s="26">
         <v>1.19E-31</v>
@@ -58142,15 +58633,15 @@
     <sortCondition ref="AU48:AU59"/>
   </sortState>
   <conditionalFormatting sqref="F6 U6 AJ6 AY6 AC10:AC11 AQ10:AQ14 AB10:AB18 BF10:BF46 M10:M63 AC17">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58321,7 +58812,7 @@
         <v>100</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="AB6" t="s">
         <v>5</v>
@@ -58345,7 +58836,7 @@
         <v>100</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="AQ6" s="6" t="s">
         <v>5</v>
@@ -58369,7 +58860,7 @@
         <v>100</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.25">
@@ -58638,7 +59129,7 @@
         <v>289</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="Y10" s="26">
         <v>1.8600000000000001E-3</v>
@@ -58677,7 +59168,7 @@
         <v>289</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="AN10" s="26">
         <v>1.74E-4</v>
@@ -58784,7 +59275,7 @@
         <v>290</v>
       </c>
       <c r="X11" s="26" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="Y11" s="26">
         <v>1.9700000000000002E-6</v>
@@ -58823,7 +59314,7 @@
         <v>290</v>
       </c>
       <c r="AM11" s="6" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="AN11" s="26">
         <v>4.2400000000000001E-4</v>
@@ -58930,7 +59421,7 @@
         <v>291</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="Y12" s="26">
         <v>2.2800000000000002E-6</v>
@@ -59115,7 +59606,7 @@
         <v>298</v>
       </c>
       <c r="AM13" s="6" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="AN13" s="26">
         <v>7.2000000000000005E-4</v>
@@ -59314,7 +59805,7 @@
         <v>299</v>
       </c>
       <c r="AM15" s="26" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="AN15" s="26">
         <v>1.4400000000000001E-3</v>
@@ -59357,7 +59848,7 @@
         <v>294</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AN17" s="26">
         <v>1.1300000000000001E-7</v>
@@ -59718,16 +60209,16 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AQ42:AT46">
     <sortCondition ref="AR42:AR46"/>
   </sortState>
-  <conditionalFormatting sqref="F6 R6 AG6 AV6 Y10:Y16 AN10:AN17 BC10:BC13">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="between">
+  <conditionalFormatting sqref="F6 R6 AG6 AV6 BC10:BC13 Y10:Y16 AN10:AN17">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78BD24-FEE0-4413-A7DA-778C3F65F66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569ED040-02F0-4440-BB10-2DAD77BFC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5698" uniqueCount="1031">
   <si>
     <t>Year</t>
   </si>
@@ -3254,9 +3254,6 @@
     <t>Dispersion p = 0.7108</t>
   </si>
   <si>
-    <t>Zero-inflation p = 09.336</t>
-  </si>
-  <si>
     <t>[1.11, 1.53]</t>
   </si>
   <si>
@@ -3333,6 +3330,51 @@
   </si>
   <si>
     <t>Within each Year*Season, affect of Turbidity</t>
+  </si>
+  <si>
+    <t>Zero-inflation p = 0.9336</t>
+  </si>
+  <si>
+    <t>Dispersion p = 0.0352</t>
+  </si>
+  <si>
+    <t>Zero-inflation p = 0.51</t>
+  </si>
+  <si>
+    <t>[3.84, 6.03]</t>
+  </si>
+  <si>
+    <t>[1.37, 1.94]</t>
+  </si>
+  <si>
+    <t>[0.52, 0.73]</t>
+  </si>
+  <si>
+    <t>[2.49, 3.80]</t>
+  </si>
+  <si>
+    <t>[0.26, 0.40]</t>
+  </si>
+  <si>
+    <t>[1.05, 1.45]</t>
+  </si>
+  <si>
+    <t>[0.69, 0.95]</t>
+  </si>
+  <si>
+    <t>fullBoth2 &lt;- glmer(cbind(Count, Total-Count) ~ Year + Sal_s + Turb_s + pH_s + (1|Station), data = Both_df, family = binomial, glmerControl(optimizer = "bobyqa", optCtrl=list(maxfun=10000)))</t>
+  </si>
+  <si>
+    <t>fullBoth3 &lt;- glmer(cbind(Count, Total-Count) ~ Year + Season + Turb_s + pH_s + (1|Station), data = Both_df, family = binomial, glmerControl(optimizer = "bobyqa", optCtrl=list(maxfun=10000)))</t>
+  </si>
+  <si>
+    <t>fullBoth3</t>
+  </si>
+  <si>
+    <t>fullBoth</t>
+  </si>
+  <si>
+    <t>fullBoth2</t>
   </si>
 </sst>
 </file>
@@ -3564,7 +3606,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3692,17 +3734,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3717,76 +3752,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="120">
     <dxf>
       <fill>
         <patternFill>
@@ -5616,13 +5589,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>185103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5659,15 +5632,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>431159</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>552452</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>598</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>88109</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>24410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5690,8 +5663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29160746" y="8227219"/>
-          <a:ext cx="4836362" cy="3024785"/>
+          <a:off x="29315722" y="7691437"/>
+          <a:ext cx="5121918" cy="3203379"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5704,13 +5677,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>470257</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:colOff>470256</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>122165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9901,28 +9874,28 @@
     <sortCondition ref="AU40:AU44"/>
   </sortState>
   <conditionalFormatting sqref="F6 U6 AJ6 AQ10:AQ14 M10:M19 AB10:AB19">
-    <cfRule type="cellIs" dxfId="116" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY6 BF10:BF16">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10265,54 +10238,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="107" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10934,41 +10907,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="98" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="95" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E34">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11258,8 +11231,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
@@ -11551,54 +11524,54 @@
     <mergeCell ref="A21:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="89" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="86" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="cellIs" dxfId="83" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="16" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="17" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="18" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E31">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13478,54 +13451,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C19">
-    <cfRule type="cellIs" dxfId="77" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="74" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E26">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E79">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14408,54 +14381,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C26">
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21:W26">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z11">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15441,54 +15414,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C58">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F19">
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F36">
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F53">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20291,80 +20264,80 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E25:E29">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="17" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9 Q7:Q9 AD7:AD9">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="22" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P33">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:T74">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25:AC35">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG123">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20391,7 +20364,7 @@
     <col min="20" max="21" width="11.85546875" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="26" max="26" width="17.7109375" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="7"/>
+    <col min="35" max="35" width="13.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -20424,11 +20397,11 @@
       <c r="A7" s="10" t="s">
         <v>985</v>
       </c>
-      <c r="R7" s="62" t="s">
+      <c r="R7" s="59" t="s">
         <v>986</v>
       </c>
-      <c r="AI7" s="62" t="s">
-        <v>1015</v>
+      <c r="AI7" s="59" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -20439,7 +20412,7 @@
         <v>988</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -20453,13 +20426,13 @@
         <v>989</v>
       </c>
       <c r="T9" t="s">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="AK9" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
@@ -20549,7 +20522,7 @@
         <v>1.24</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="U13" s="6">
         <v>1.1200000000000001</v>
@@ -20564,19 +20537,19 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="6">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>991</v>
+        <v>952</v>
       </c>
       <c r="AL13" s="6">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AM13" s="6">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="AN13" s="6" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
@@ -20605,7 +20578,7 @@
         <v>1.92</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="U14" s="6">
         <v>1.39</v>
@@ -20614,25 +20587,25 @@
         <v>0.52</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="AJ14" s="6">
-        <v>1.92</v>
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="43">
+        <v>4.78</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
       <c r="AL14" s="6">
-        <v>1.39</v>
+        <v>2.19</v>
       </c>
       <c r="AM14" s="6">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
       <c r="AN14" s="6" t="s">
-        <v>993</v>
+        <v>954</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -20661,7 +20634,7 @@
         <v>3.5</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="U15" s="6">
         <v>1.87</v>
@@ -20670,25 +20643,25 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="AJ15" s="43">
-        <v>3.5</v>
+        <v>921</v>
+      </c>
+      <c r="AJ15" s="57">
+        <v>1.59</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>994</v>
+        <v>1020</v>
       </c>
       <c r="AL15" s="6">
-        <v>1.87</v>
+        <v>1.26</v>
       </c>
       <c r="AM15" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.63</v>
       </c>
       <c r="AN15" s="6" t="s">
-        <v>995</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -20729,29 +20702,29 @@
         <v>948</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>923</v>
-      </c>
-      <c r="AJ16" s="6">
-        <v>1.39</v>
+        <v>922</v>
+      </c>
+      <c r="AJ16" s="43">
+        <v>3.04</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>949</v>
+        <v>1022</v>
       </c>
       <c r="AL16" s="6">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="AM16" s="6">
-        <v>0.72</v>
+        <v>0.33</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>948</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>923</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <v>1.1200000000000001</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -20773,7 +20746,7 @@
         <v>1.33</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="U17" s="6">
         <v>1.1499999999999999</v>
@@ -20782,32 +20755,32 @@
         <v>0.75</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AI17" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AJ17" s="6">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>996</v>
+        <v>952</v>
       </c>
       <c r="AL17" s="6">
-        <v>1.1499999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AM17" s="6">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>997</v>
+        <v>947</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>924</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <v>1.23</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -20829,7 +20802,7 @@
         <v>7.81</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="U18" s="6">
         <v>2.79</v>
@@ -20838,29 +20811,29 @@
         <v>0.13</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="43">
-        <v>7.81</v>
+        <v>924</v>
+      </c>
+      <c r="AJ18" s="57">
+        <v>1.1499999999999999</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>998</v>
+        <v>1024</v>
       </c>
       <c r="AL18" s="6">
-        <v>2.79</v>
+        <v>1.07</v>
       </c>
       <c r="AM18" s="6">
-        <v>0.13</v>
+        <v>0.87</v>
       </c>
       <c r="AN18" s="6" t="s">
-        <v>999</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -20882,7 +20855,7 @@
       <c r="E20" s="20" t="s">
         <v>919</v>
       </c>
-      <c r="R20" s="63" t="s">
+      <c r="R20" s="60" t="s">
         <v>925</v>
       </c>
       <c r="S20" s="20" t="s">
@@ -20897,7 +20870,7 @@
       <c r="V20" s="20" t="s">
         <v>919</v>
       </c>
-      <c r="AI20" s="63" t="s">
+      <c r="AI20" s="60" t="s">
         <v>925</v>
       </c>
       <c r="AJ20" s="20" t="s">
@@ -20937,7 +20910,7 @@
       </c>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6">
-        <v>323.67</v>
+        <v>587.54999999999995</v>
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="6"/>
@@ -20955,7 +20928,7 @@
       <c r="D22" s="6">
         <v>5.3658000000000001</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="26">
         <v>0.14688799999999999</v>
       </c>
       <c r="R22" s="7" t="s">
@@ -20970,7 +20943,7 @@
       <c r="U22" s="6">
         <v>55.683</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="26">
         <v>4.9099999999999999E-12</v>
       </c>
       <c r="W22" t="s">
@@ -20983,13 +20956,13 @@
         <v>3</v>
       </c>
       <c r="AK22" s="6">
-        <v>373.35</v>
+        <v>640.39</v>
       </c>
       <c r="AL22" s="6">
-        <v>55.683</v>
-      </c>
-      <c r="AM22" s="6">
-        <v>4.9099999999999999E-12</v>
+        <v>58.844000000000001</v>
+      </c>
+      <c r="AM22" s="26">
+        <v>1.038E-12</v>
       </c>
       <c r="AN22" t="s">
         <v>100</v>
@@ -21008,7 +20981,7 @@
       <c r="D23" s="6">
         <v>7.7675000000000001</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="26">
         <v>5.1069000000000003E-2</v>
       </c>
       <c r="F23" t="s">
@@ -21026,7 +20999,7 @@
       <c r="U23" s="6">
         <v>3.6469999999999998</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="26">
         <v>0.30209999999999998</v>
       </c>
       <c r="AI23" s="7" t="s">
@@ -21036,13 +21009,16 @@
         <v>3</v>
       </c>
       <c r="AK23" s="6">
-        <v>321.31</v>
+        <v>589.34</v>
       </c>
       <c r="AL23" s="6">
-        <v>3.6469999999999998</v>
-      </c>
-      <c r="AM23" s="6">
-        <v>0.30209999999999998</v>
+        <v>7.798</v>
+      </c>
+      <c r="AM23" s="26">
+        <v>5.0376999999999998E-2</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
@@ -21058,7 +21034,7 @@
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="26">
         <v>0.99656900000000004</v>
       </c>
       <c r="R24" s="7" t="s">
@@ -21073,7 +21049,7 @@
       <c r="U24" s="6">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="26">
         <v>0.77139999999999997</v>
       </c>
       <c r="AI24" s="7" t="s">
@@ -21083,13 +21059,13 @@
         <v>1</v>
       </c>
       <c r="AK24" s="6">
-        <v>321.75</v>
+        <v>587.48</v>
       </c>
       <c r="AL24" s="6">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="AM24" s="6">
-        <v>0.77139999999999997</v>
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="AM24" s="26">
+        <v>0.16430600000000001</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
@@ -21105,7 +21081,7 @@
       <c r="D25" s="6">
         <v>1.2782</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="26">
         <v>0.25824200000000003</v>
       </c>
       <c r="R25" s="7" t="s">
@@ -21120,7 +21096,7 @@
       <c r="U25" s="6">
         <v>2.3420000000000001</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="26">
         <v>0.12590000000000001</v>
       </c>
       <c r="AI25" s="7" t="s">
@@ -21130,13 +21106,13 @@
         <v>1</v>
       </c>
       <c r="AK25" s="6">
-        <v>324.01</v>
+        <v>585.54999999999995</v>
       </c>
       <c r="AL25" s="6">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="AM25" s="6">
-        <v>0.12590000000000001</v>
+        <v>1E-3</v>
+      </c>
+      <c r="AM25" s="26">
+        <v>0.975827</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
@@ -21152,7 +21128,7 @@
       <c r="D26" s="6">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="26">
         <v>0.80627499999999996</v>
       </c>
       <c r="R26" s="7" t="s">
@@ -21167,7 +21143,7 @@
       <c r="U26" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="26">
         <v>0.85119999999999996</v>
       </c>
       <c r="AI26" s="7" t="s">
@@ -21177,13 +21153,16 @@
         <v>1</v>
       </c>
       <c r="AK26" s="6">
-        <v>321.7</v>
+        <v>594.44000000000005</v>
       </c>
       <c r="AL26" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AM26" s="6">
-        <v>0.85119999999999996</v>
+        <v>8.8919999999999995</v>
+      </c>
+      <c r="AM26" s="26">
+        <v>2.8639999999999998E-3</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
@@ -21199,7 +21178,7 @@
       <c r="D27" s="6">
         <v>10.638199999999999</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="26">
         <v>1.108E-3</v>
       </c>
       <c r="F27" t="s">
@@ -21217,7 +21196,7 @@
       <c r="U27" s="6">
         <v>0.30499999999999999</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="26">
         <v>0.5806</v>
       </c>
       <c r="AI27" s="7" t="s">
@@ -21227,13 +21206,16 @@
         <v>1</v>
       </c>
       <c r="AK27" s="6">
-        <v>321.97000000000003</v>
+        <v>592.82000000000005</v>
       </c>
       <c r="AL27" s="6">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="AM27" s="6">
-        <v>0.5806</v>
+        <v>7.2750000000000004</v>
+      </c>
+      <c r="AM27" s="26">
+        <v>6.9909999999999998E-3</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
@@ -21241,10 +21223,10 @@
         <v>964</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AI29" s="7" t="s">
-        <v>1003</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
@@ -21252,26 +21234,20 @@
         <v>966</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AI30" s="7" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="R31" s="67" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AI31" s="67" t="s">
-        <v>1005</v>
+      <c r="R31" s="64" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="R32" s="7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AI32" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.25">
@@ -21280,6 +21256,9 @@
       </c>
       <c r="C33" s="8" t="s">
         <v>967</v>
+      </c>
+      <c r="AI33" s="39" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.25">
@@ -21323,8 +21302,42 @@
       <c r="R34" s="39" t="s">
         <v>926</v>
       </c>
-      <c r="AI34" s="39" t="s">
-        <v>926</v>
+      <c r="AI34" s="61"/>
+      <c r="AJ34" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="AK34" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="AL34" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="AM34" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="AN34" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="AO34" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="AP34" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="AQ34" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR34" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="AS34" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="AT34" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="AU34" s="14" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
@@ -21361,7 +21374,7 @@
       <c r="M35" s="13">
         <v>0.90200000000000002</v>
       </c>
-      <c r="R35" s="64"/>
+      <c r="R35" s="61"/>
       <c r="S35" s="14" t="s">
         <v>934</v>
       </c>
@@ -21398,42 +21411,40 @@
       <c r="AD35" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="14" t="s">
-        <v>934</v>
-      </c>
-      <c r="AK35" s="14" t="s">
-        <v>924</v>
-      </c>
-      <c r="AL35" s="14" t="s">
-        <v>921</v>
-      </c>
-      <c r="AM35" s="14" t="s">
-        <v>935</v>
-      </c>
-      <c r="AN35" s="14" t="s">
-        <v>936</v>
-      </c>
-      <c r="AO35" s="14" t="s">
-        <v>937</v>
-      </c>
-      <c r="AP35" s="14" t="s">
-        <v>938</v>
-      </c>
-      <c r="AQ35" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="AR35" s="14" t="s">
-        <v>939</v>
-      </c>
-      <c r="AS35" s="14" t="s">
-        <v>940</v>
-      </c>
-      <c r="AT35" s="14" t="s">
-        <v>941</v>
-      </c>
-      <c r="AU35" s="14" t="s">
-        <v>942</v>
+      <c r="AI35" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AJ35" s="6">
+        <v>-0.80079999999999996</v>
+      </c>
+      <c r="AK35" s="6">
+        <v>0.3206</v>
+      </c>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6">
+        <v>-0.36349999999999999</v>
+      </c>
+      <c r="AP35" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="AQ35" s="6">
+        <v>10</v>
+      </c>
+      <c r="AR35" s="6">
+        <v>-282.745</v>
+      </c>
+      <c r="AS35" s="62">
+        <v>586.6</v>
+      </c>
+      <c r="AT35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="6">
+        <v>0.747</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.25">
@@ -21477,7 +21488,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="S36" s="6">
         <v>-3.4049999999999998</v>
@@ -21500,7 +21511,7 @@
       <c r="AA36" s="6">
         <v>-150.036</v>
       </c>
-      <c r="AB36" s="65">
+      <c r="AB36" s="62">
         <v>319</v>
       </c>
       <c r="AC36" s="6">
@@ -21510,37 +21521,43 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="AJ36" s="6">
-        <v>-3.4049999999999998</v>
-      </c>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
+        <v>-0.61950000000000005</v>
+      </c>
+      <c r="AK36" s="6">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="AL36" s="6">
+        <v>-0.24149999999999999</v>
+      </c>
       <c r="AM36" s="6" t="s">
         <v>944</v>
       </c>
       <c r="AN36" s="6">
-        <v>-0.35320000000000001</v>
-      </c>
-      <c r="AO36" s="6"/>
+        <v>4.64E-3</v>
+      </c>
+      <c r="AO36" s="6">
+        <v>-0.34660000000000002</v>
+      </c>
       <c r="AP36" s="6" t="s">
         <v>944</v>
       </c>
       <c r="AQ36" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR36" s="6">
-        <v>-150.036</v>
-      </c>
-      <c r="AS36" s="65">
-        <v>319</v>
+        <v>-281.77300000000002</v>
+      </c>
+      <c r="AS36" s="6">
+        <v>589.1</v>
       </c>
       <c r="AT36" s="6">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="AU36" s="6">
-        <v>0.43099999999999999</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.25">
@@ -21582,7 +21599,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="S37" s="6">
         <v>-3.508</v>
@@ -21613,18 +21630,22 @@
         <v>0.35699999999999998</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="AJ37" s="6">
-        <v>-3.508</v>
-      </c>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6" t="s">
-        <v>944</v>
-      </c>
+        <v>-0.39529999999999998</v>
+      </c>
+      <c r="AK37" s="6">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="AL37" s="6">
+        <v>-0.28410000000000002</v>
+      </c>
+      <c r="AM37" s="6"/>
       <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
+      <c r="AO37" s="6">
+        <v>-0.23039999999999999</v>
+      </c>
       <c r="AP37" s="6" t="s">
         <v>944</v>
       </c>
@@ -21632,21 +21653,21 @@
         <v>8</v>
       </c>
       <c r="AR37" s="6">
-        <v>-151.315</v>
+        <v>-287.81900000000002</v>
       </c>
       <c r="AS37" s="6">
-        <v>319.3</v>
+        <v>592.4</v>
       </c>
       <c r="AT37" s="6">
-        <v>0.37</v>
+        <v>5.76</v>
       </c>
       <c r="AU37" s="6">
-        <v>0.35699999999999998</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="R38" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="S38" s="6">
         <v>-3.778</v>
@@ -21680,41 +21701,6 @@
       <c r="AD38" s="6">
         <v>0.19400000000000001</v>
       </c>
-      <c r="AI38" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AJ38" s="6">
-        <v>-3.778</v>
-      </c>
-      <c r="AK38" s="6">
-        <v>0.11210000000000001</v>
-      </c>
-      <c r="AL38" s="6">
-        <v>0.13980000000000001</v>
-      </c>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6">
-        <v>-0.1013</v>
-      </c>
-      <c r="AP38" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="AQ38" s="6">
-        <v>8</v>
-      </c>
-      <c r="AR38" s="6">
-        <v>-151.92699999999999</v>
-      </c>
-      <c r="AS38" s="6">
-        <v>320.60000000000002</v>
-      </c>
-      <c r="AT38" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="AU38" s="6">
-        <v>0.19400000000000001</v>
-      </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="R39" s="7" t="s">
@@ -21756,44 +21742,14 @@
       <c r="AD39" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="AI39" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="AJ39" s="6">
-        <v>-3.3570000000000002</v>
-      </c>
-      <c r="AK39" s="6">
-        <v>9.4100000000000003E-2</v>
-      </c>
-      <c r="AL39" s="6">
-        <v>-9.0429999999999996E-2</v>
-      </c>
-      <c r="AM39" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="AN39" s="6">
-        <v>-0.33860000000000001</v>
-      </c>
-      <c r="AO39" s="6">
-        <v>-3.108E-2</v>
-      </c>
-      <c r="AP39" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="AQ39" s="6">
-        <v>12</v>
-      </c>
-      <c r="AR39" s="6">
-        <v>-149.833</v>
-      </c>
-      <c r="AS39" s="6">
-        <v>325.2</v>
-      </c>
-      <c r="AT39" s="6">
-        <v>6.27</v>
-      </c>
-      <c r="AU39" s="6">
-        <v>1.9E-2</v>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AI40" s="39" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.25">
@@ -21806,17 +21762,86 @@
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="R42" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="Z42" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="AI42" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AQ42" s="4"/>
-      <c r="AR42" s="4" t="s">
-        <v>968</v>
+    </row>
+    <row r="64" spans="35:48" x14ac:dyDescent="0.25">
+      <c r="AI64" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ64" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="AL64" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM64" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="AN64" s="21" t="s">
+        <v>978</v>
+      </c>
+      <c r="AQ64" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR64" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS64" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT64" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU64" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV64" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AI65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ65" s="6">
+        <v>2018</v>
+      </c>
+      <c r="AK65" s="6">
+        <v>0.30985502999999998</v>
+      </c>
+      <c r="AL65" s="6">
+        <v>0.18279831999999999</v>
+      </c>
+      <c r="AM65" s="6">
+        <v>7.7542990000000006E-2</v>
+      </c>
+      <c r="AN65" s="6">
+        <v>0.70570489999999997</v>
+      </c>
+      <c r="AQ65" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AR65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS65" s="6">
+        <v>0.91130730000000004</v>
+      </c>
+      <c r="AT65" s="6">
+        <v>0.21702489999999999</v>
+      </c>
+      <c r="AU65" s="6">
+        <v>-0.38999109999999998</v>
+      </c>
+      <c r="AV65" s="58">
+        <v>0.97986969999999995</v>
       </c>
     </row>
     <row r="66" spans="1:49" x14ac:dyDescent="0.25">
@@ -21856,7 +21881,7 @@
       <c r="N66" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R66" s="66" t="s">
+      <c r="R66" s="63" t="s">
         <v>2</v>
       </c>
       <c r="S66" s="21" t="s">
@@ -21892,41 +21917,44 @@
       <c r="AE66" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="AI66" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ66" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="21" t="s">
-        <v>976</v>
-      </c>
-      <c r="AL66" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM66" s="21" t="s">
-        <v>977</v>
-      </c>
-      <c r="AN66" s="21" t="s">
-        <v>978</v>
-      </c>
-      <c r="AQ66" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR66" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS66" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="AT66" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU66" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV66" s="6" t="s">
-        <v>158</v>
+      <c r="AI66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ66" s="6">
+        <v>2018</v>
+      </c>
+      <c r="AK66" s="6">
+        <v>0.3789534</v>
+      </c>
+      <c r="AL66" s="6">
+        <v>0.20067393</v>
+      </c>
+      <c r="AM66" s="6">
+        <v>0.10291980000000001</v>
+      </c>
+      <c r="AN66" s="6">
+        <v>0.76444570000000001</v>
+      </c>
+      <c r="AQ66" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AR66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS66" s="6">
+        <v>5.3746169999999998</v>
+      </c>
+      <c r="AT66" s="6">
+        <v>1.4779838999999999</v>
+      </c>
+      <c r="AU66" s="6">
+        <v>6.1153746</v>
+      </c>
+      <c r="AV66" s="26">
+        <v>5.7763050000000004E-9</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:49" x14ac:dyDescent="0.25">
@@ -21963,7 +21991,7 @@
       <c r="M67" s="6">
         <v>2.7975951000000001</v>
       </c>
-      <c r="N67" s="59">
+      <c r="N67" s="58">
         <v>2.646768E-2</v>
       </c>
       <c r="O67" t="s">
@@ -21988,7 +22016,7 @@
         <v>0.12041978</v>
       </c>
       <c r="Z67" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AA67" s="6" t="s">
         <v>16</v>
@@ -22002,44 +22030,47 @@
       <c r="AD67" s="6">
         <v>1.0581769999999999</v>
       </c>
-      <c r="AE67" s="59">
+      <c r="AE67" s="58">
         <v>0.715005</v>
       </c>
       <c r="AI67" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ67" s="6">
         <v>2018</v>
       </c>
       <c r="AK67" s="6">
-        <v>0.30985502999999998</v>
+        <v>0.36986662999999997</v>
       </c>
       <c r="AL67" s="6">
-        <v>0.18279831999999999</v>
+        <v>0.19866332</v>
       </c>
       <c r="AM67" s="6">
-        <v>7.7542990000000006E-2</v>
+        <v>9.9441169999999995E-2</v>
       </c>
       <c r="AN67" s="6">
-        <v>0.70570489999999997</v>
+        <v>0.75728859999999998</v>
       </c>
       <c r="AQ67" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AR67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AS67" s="6">
-        <v>0.91130730000000004</v>
+        <v>2.7512591999999998</v>
       </c>
       <c r="AT67" s="6">
-        <v>0.21702489999999999</v>
+        <v>0.68152250000000003</v>
       </c>
       <c r="AU67" s="6">
-        <v>-0.38999109999999998</v>
-      </c>
-      <c r="AV67" s="59">
-        <v>0.97986969999999995</v>
+        <v>4.0856111000000004</v>
+      </c>
+      <c r="AV67" s="26">
+        <v>2.5684589999999999E-4</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:49" x14ac:dyDescent="0.25">
@@ -22076,7 +22107,7 @@
       <c r="M68" s="6">
         <v>0.97997199999999995</v>
       </c>
-      <c r="N68" s="60">
+      <c r="N68" s="26">
         <v>0.76089359999999995</v>
       </c>
       <c r="R68" s="7" t="s">
@@ -22098,7 +22129,7 @@
         <v>0.10444914</v>
       </c>
       <c r="Z68" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AA68" s="6" t="s">
         <v>16</v>
@@ -22112,47 +22143,47 @@
       <c r="AD68" s="6">
         <v>-3.0079739999999999</v>
       </c>
-      <c r="AE68" s="60">
+      <c r="AE68" s="26">
         <v>1.4003109999999999E-2</v>
       </c>
       <c r="AF68" t="s">
         <v>99</v>
       </c>
       <c r="AI68" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ68" s="6">
         <v>2018</v>
       </c>
       <c r="AK68" s="6">
-        <v>0.3789534</v>
+        <v>0.53438684000000003</v>
       </c>
       <c r="AL68" s="6">
-        <v>0.20067393</v>
+        <v>0.21270886</v>
       </c>
       <c r="AM68" s="6">
-        <v>0.10291980000000001</v>
+        <v>0.17686013</v>
       </c>
       <c r="AN68" s="6">
-        <v>0.76444570000000001</v>
+        <v>0.85975979999999996</v>
       </c>
       <c r="AQ68" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AR68" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AS68" s="6">
-        <v>5.3746169999999998</v>
+        <v>5.8977000000000004</v>
       </c>
       <c r="AT68" s="6">
-        <v>1.4779838999999999</v>
+        <v>1.625918</v>
       </c>
       <c r="AU68" s="6">
-        <v>6.1153746</v>
-      </c>
-      <c r="AV68" s="60">
-        <v>5.7763050000000004E-9</v>
+        <v>6.4368784999999997</v>
+      </c>
+      <c r="AV68" s="26">
+        <v>7.3154250000000001E-10</v>
       </c>
       <c r="AW68" t="s">
         <v>100</v>
@@ -22192,7 +22223,7 @@
       <c r="M69" s="6">
         <v>1.4432147</v>
       </c>
-      <c r="N69" s="60">
+      <c r="N69" s="26">
         <v>0.47227959000000003</v>
       </c>
       <c r="R69" s="7" t="s">
@@ -22214,7 +22245,7 @@
         <v>7.2916439999999999E-2</v>
       </c>
       <c r="Z69" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA69" s="6" t="s">
         <v>16</v>
@@ -22228,47 +22259,47 @@
       <c r="AD69" s="6">
         <v>-5.1120200000000002</v>
       </c>
-      <c r="AE69" s="60">
+      <c r="AE69" s="26">
         <v>1.903542E-6</v>
       </c>
       <c r="AF69" t="s">
         <v>100</v>
       </c>
       <c r="AI69" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ69" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="AK69" s="6">
-        <v>0.36986662999999997</v>
+        <v>0.33005815999999999</v>
       </c>
       <c r="AL69" s="6">
-        <v>0.19866332</v>
+        <v>0.18885879</v>
       </c>
       <c r="AM69" s="6">
-        <v>9.9441169999999995E-2</v>
+        <v>8.4560979999999994E-2</v>
       </c>
       <c r="AN69" s="6">
-        <v>0.75728859999999998</v>
+        <v>0.72433879999999995</v>
       </c>
       <c r="AQ69" s="6" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AR69" s="6" t="s">
         <v>16</v>
       </c>
       <c r="AS69" s="6">
-        <v>2.7512591999999998</v>
+        <v>3.0190245999999998</v>
       </c>
       <c r="AT69" s="6">
-        <v>0.68152250000000003</v>
+        <v>0.76064799999999999</v>
       </c>
       <c r="AU69" s="6">
-        <v>4.0856111000000004</v>
-      </c>
-      <c r="AV69" s="60">
-        <v>2.5684589999999999E-4</v>
+        <v>4.3855008</v>
+      </c>
+      <c r="AV69" s="26">
+        <v>6.829525E-5</v>
       </c>
       <c r="AW69" t="s">
         <v>100</v>
@@ -22308,7 +22339,7 @@
       <c r="M70" s="6">
         <v>-1.9456321000000001</v>
       </c>
-      <c r="N70" s="60">
+      <c r="N70" s="26">
         <v>0.20904328999999999</v>
       </c>
       <c r="R70" s="7" t="s">
@@ -22330,7 +22361,7 @@
         <v>5.461328E-2</v>
       </c>
       <c r="Z70" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AA70" s="6" t="s">
         <v>16</v>
@@ -22344,50 +22375,47 @@
       <c r="AD70" s="6">
         <v>-3.7258879999999999</v>
       </c>
-      <c r="AE70" s="60">
+      <c r="AE70" s="26">
         <v>1.1158310000000001E-3</v>
       </c>
       <c r="AF70" t="s">
         <v>117</v>
       </c>
       <c r="AI70" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ70" s="6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="AK70" s="6">
-        <v>0.53438684000000003</v>
+        <v>0.40104382</v>
       </c>
       <c r="AL70" s="6">
-        <v>0.21270886</v>
+        <v>0.20457023999999999</v>
       </c>
       <c r="AM70" s="6">
-        <v>0.17686013</v>
+        <v>0.11201723</v>
       </c>
       <c r="AN70" s="6">
-        <v>0.85975979999999996</v>
-      </c>
-      <c r="AQ70" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AR70" s="6" t="s">
+        <v>0.78041119999999997</v>
+      </c>
+      <c r="AQ70" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AR70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AS70" s="6">
-        <v>5.8977000000000004</v>
-      </c>
-      <c r="AT70" s="6">
-        <v>1.625918</v>
-      </c>
-      <c r="AU70" s="6">
-        <v>6.4368784999999997</v>
-      </c>
-      <c r="AV70" s="60">
-        <v>7.3154250000000001E-10</v>
-      </c>
-      <c r="AW70" t="s">
-        <v>100</v>
+      <c r="AS70" s="21">
+        <v>0.51189859999999998</v>
+      </c>
+      <c r="AT70" s="21">
+        <v>0.1387476</v>
+      </c>
+      <c r="AU70" s="21">
+        <v>-2.4705428999999999</v>
+      </c>
+      <c r="AV70" s="38">
+        <v>6.4584310000000006E-2</v>
       </c>
     </row>
     <row r="71" spans="1:49" x14ac:dyDescent="0.25">
@@ -22424,7 +22452,7 @@
       <c r="M71" s="6">
         <v>-1.2851767999999999</v>
       </c>
-      <c r="N71" s="60">
+      <c r="N71" s="26">
         <v>0.57238834000000005</v>
       </c>
       <c r="R71" s="7" t="s">
@@ -22446,7 +22474,7 @@
         <v>8.170753E-2</v>
       </c>
       <c r="Z71" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AA71" s="6" t="s">
         <v>16</v>
@@ -22460,50 +22488,47 @@
       <c r="AD71" s="6">
         <v>-5.4361870000000003</v>
       </c>
-      <c r="AE71" s="60">
+      <c r="AE71" s="26">
         <v>3.2578240000000002E-7</v>
       </c>
       <c r="AF71" t="s">
         <v>100</v>
       </c>
       <c r="AI71" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ71" s="6">
         <v>2019</v>
       </c>
       <c r="AK71" s="6">
-        <v>0.33005815999999999</v>
+        <v>0.39176148</v>
       </c>
       <c r="AL71" s="6">
-        <v>0.18885879</v>
+        <v>0.20312491999999999</v>
       </c>
       <c r="AM71" s="6">
-        <v>8.4560979999999994E-2</v>
+        <v>0.10806311</v>
       </c>
       <c r="AN71" s="6">
-        <v>0.72433879999999995</v>
+        <v>0.77396770000000004</v>
       </c>
       <c r="AQ71" s="6" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="AR71" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS71" s="6">
-        <v>3.0190245999999998</v>
+        <v>0.91130730000000004</v>
       </c>
       <c r="AT71" s="6">
-        <v>0.76064799999999999</v>
+        <v>0.21702489999999999</v>
       </c>
       <c r="AU71" s="6">
-        <v>4.3855008</v>
-      </c>
-      <c r="AV71" s="60">
-        <v>6.829525E-5</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>100</v>
+        <v>-0.38999109999999998</v>
+      </c>
+      <c r="AV71" s="26">
+        <v>0.97986969999999995</v>
       </c>
     </row>
     <row r="72" spans="1:49" x14ac:dyDescent="0.25">
@@ -22540,7 +22565,7 @@
       <c r="M72" s="6">
         <v>0.52275919999999998</v>
       </c>
-      <c r="N72" s="60">
+      <c r="N72" s="26">
         <v>0.95363458999999995</v>
       </c>
       <c r="R72" s="7" t="s">
@@ -22562,7 +22587,7 @@
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="Z72" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA72" s="21" t="s">
         <v>16</v>
@@ -22580,40 +22605,43 @@
         <v>0.17833170000000001</v>
       </c>
       <c r="AI72" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ72" s="6">
         <v>2019</v>
       </c>
       <c r="AK72" s="6">
-        <v>0.40104382</v>
+        <v>0.55740573999999998</v>
       </c>
       <c r="AL72" s="6">
-        <v>0.20457023999999999</v>
+        <v>0.21027645</v>
       </c>
       <c r="AM72" s="6">
-        <v>0.11201723</v>
+        <v>0.19155806</v>
       </c>
       <c r="AN72" s="6">
-        <v>0.78041119999999997</v>
-      </c>
-      <c r="AQ72" s="21" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AR72" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS72" s="21">
-        <v>0.51189859999999998</v>
-      </c>
-      <c r="AT72" s="21">
-        <v>0.1387476</v>
-      </c>
-      <c r="AU72" s="21">
-        <v>-2.4705428999999999</v>
-      </c>
-      <c r="AV72" s="38">
-        <v>6.4584310000000006E-2</v>
+        <v>0.87002699999999999</v>
+      </c>
+      <c r="AQ72" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AR72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS72" s="6">
+        <v>5.3746169999999998</v>
+      </c>
+      <c r="AT72" s="6">
+        <v>1.4779838999999999</v>
+      </c>
+      <c r="AU72" s="6">
+        <v>6.1153746</v>
+      </c>
+      <c r="AV72" s="26">
+        <v>5.7763050000000004E-9</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:49" x14ac:dyDescent="0.25">
@@ -22650,7 +22678,7 @@
       <c r="M73" s="47">
         <v>2.7975951000000001</v>
       </c>
-      <c r="N73" s="59">
+      <c r="N73" s="58">
         <v>2.646768E-2</v>
       </c>
       <c r="O73" t="s">
@@ -22675,7 +22703,7 @@
         <v>4.7485140000000002E-2</v>
       </c>
       <c r="Z73" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AA73" s="6" t="s">
         <v>19</v>
@@ -22689,44 +22717,47 @@
       <c r="AD73" s="6">
         <v>1.0581769999999999</v>
       </c>
-      <c r="AE73" s="60">
+      <c r="AE73" s="26">
         <v>0.715005</v>
       </c>
       <c r="AI73" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ73" s="6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="AK73" s="6">
-        <v>0.39176148</v>
+        <v>7.7095239999999995E-2</v>
       </c>
       <c r="AL73" s="6">
-        <v>0.20312491999999999</v>
+        <v>6.2141450000000001E-2</v>
       </c>
       <c r="AM73" s="6">
-        <v>0.10806311</v>
+        <v>1.485792E-2</v>
       </c>
       <c r="AN73" s="6">
-        <v>0.77396770000000004</v>
+        <v>0.3163242</v>
       </c>
       <c r="AQ73" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AR73" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AS73" s="6">
-        <v>0.91130730000000004</v>
+        <v>2.7512591999999998</v>
       </c>
       <c r="AT73" s="6">
-        <v>0.21702489999999999</v>
+        <v>0.68152250000000003</v>
       </c>
       <c r="AU73" s="6">
-        <v>-0.38999109999999998</v>
-      </c>
-      <c r="AV73" s="60">
-        <v>0.97986969999999995</v>
+        <v>4.0856111000000004</v>
+      </c>
+      <c r="AV73" s="26">
+        <v>2.5684589999999999E-4</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:49" x14ac:dyDescent="0.25">
@@ -22763,7 +22794,7 @@
       <c r="M74" s="6">
         <v>0.97997199999999995</v>
       </c>
-      <c r="N74" s="60">
+      <c r="N74" s="26">
         <v>0.76089359999999995</v>
       </c>
       <c r="R74" s="7" t="s">
@@ -22785,7 +22816,7 @@
         <v>3.4853509999999997E-2</v>
       </c>
       <c r="Z74" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AA74" s="6" t="s">
         <v>19</v>
@@ -22799,47 +22830,47 @@
       <c r="AD74" s="6">
         <v>-3.0079739999999999</v>
       </c>
-      <c r="AE74" s="60">
+      <c r="AE74" s="26">
         <v>1.4003109999999999E-2</v>
       </c>
       <c r="AF74" t="s">
         <v>99</v>
       </c>
       <c r="AI74" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ74" s="6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="AK74" s="6">
-        <v>0.55740573999999998</v>
+        <v>0.10195577</v>
       </c>
       <c r="AL74" s="6">
-        <v>0.21027645</v>
+        <v>7.8870579999999996E-2</v>
       </c>
       <c r="AM74" s="6">
-        <v>0.19155806</v>
+        <v>2.0552709999999998E-2</v>
       </c>
       <c r="AN74" s="6">
-        <v>0.87002699999999999</v>
+        <v>0.38051449999999998</v>
       </c>
       <c r="AQ74" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AR74" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AS74" s="6">
-        <v>5.3746169999999998</v>
+        <v>5.8977000000000004</v>
       </c>
       <c r="AT74" s="6">
-        <v>1.4779838999999999</v>
+        <v>1.625918</v>
       </c>
       <c r="AU74" s="6">
-        <v>6.1153746</v>
-      </c>
-      <c r="AV74" s="60">
-        <v>5.7763050000000004E-9</v>
+        <v>6.4368784999999997</v>
+      </c>
+      <c r="AV74" s="26">
+        <v>7.3154250000000001E-10</v>
       </c>
       <c r="AW74" t="s">
         <v>100</v>
@@ -22879,7 +22910,7 @@
       <c r="M75" s="6">
         <v>1.4432147</v>
       </c>
-      <c r="N75" s="60">
+      <c r="N75" s="26">
         <v>0.47227959000000003</v>
       </c>
       <c r="R75" s="7" t="s">
@@ -22901,7 +22932,7 @@
         <v>0.30410473999999998</v>
       </c>
       <c r="Z75" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA75" s="6" t="s">
         <v>19</v>
@@ -22915,47 +22946,47 @@
       <c r="AD75" s="6">
         <v>-5.1120200000000002</v>
       </c>
-      <c r="AE75" s="60">
+      <c r="AE75" s="26">
         <v>1.903542E-6</v>
       </c>
       <c r="AF75" t="s">
         <v>100</v>
       </c>
       <c r="AI75" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ75" s="6">
         <v>2020</v>
       </c>
       <c r="AK75" s="6">
-        <v>7.7095239999999995E-2</v>
+        <v>9.8458019999999993E-2</v>
       </c>
       <c r="AL75" s="6">
-        <v>6.2141450000000001E-2</v>
+        <v>7.6765410000000006E-2</v>
       </c>
       <c r="AM75" s="6">
-        <v>1.485792E-2</v>
+        <v>1.9656340000000001E-2</v>
       </c>
       <c r="AN75" s="6">
-        <v>0.3163242</v>
+        <v>0.37298100000000001</v>
       </c>
       <c r="AQ75" s="6" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AR75" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AS75" s="6">
-        <v>2.7512591999999998</v>
+        <v>3.0190245999999998</v>
       </c>
       <c r="AT75" s="6">
-        <v>0.68152250000000003</v>
+        <v>0.76064799999999999</v>
       </c>
       <c r="AU75" s="6">
-        <v>4.0856111000000004</v>
-      </c>
-      <c r="AV75" s="60">
-        <v>2.5684589999999999E-4</v>
+        <v>4.3855008</v>
+      </c>
+      <c r="AV75" s="26">
+        <v>6.829525E-5</v>
       </c>
       <c r="AW75" t="s">
         <v>100</v>
@@ -22995,7 +23026,7 @@
       <c r="M76" s="6">
         <v>-1.9456321000000001</v>
       </c>
-      <c r="N76" s="60">
+      <c r="N76" s="26">
         <v>0.20904328999999999</v>
       </c>
       <c r="R76" s="7" t="s">
@@ -23017,7 +23048,7 @@
         <v>0.26701838</v>
       </c>
       <c r="Z76" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AA76" s="6" t="s">
         <v>19</v>
@@ -23031,50 +23062,47 @@
       <c r="AD76" s="6">
         <v>-3.7258879999999999</v>
       </c>
-      <c r="AE76" s="60">
+      <c r="AE76" s="26">
         <v>1.1158310000000001E-3</v>
       </c>
       <c r="AF76" t="s">
         <v>117</v>
       </c>
       <c r="AI76" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ76" s="6">
         <v>2020</v>
       </c>
       <c r="AK76" s="6">
-        <v>0.10195577</v>
+        <v>0.17596577999999999</v>
       </c>
       <c r="AL76" s="6">
-        <v>7.8870579999999996E-2</v>
+        <v>0.1248187</v>
       </c>
       <c r="AM76" s="6">
-        <v>2.0552709999999998E-2</v>
+        <v>3.801293E-2</v>
       </c>
       <c r="AN76" s="6">
-        <v>0.38051449999999998</v>
-      </c>
-      <c r="AQ76" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AR76" s="6" t="s">
+        <v>0.53574630000000001</v>
+      </c>
+      <c r="AQ76" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AR76" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AS76" s="6">
-        <v>5.8977000000000004</v>
-      </c>
-      <c r="AT76" s="6">
-        <v>1.625918</v>
-      </c>
-      <c r="AU76" s="6">
-        <v>6.4368784999999997</v>
-      </c>
-      <c r="AV76" s="60">
-        <v>7.3154250000000001E-10</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>100</v>
+      <c r="AS76" s="21">
+        <v>0.51189859999999998</v>
+      </c>
+      <c r="AT76" s="21">
+        <v>0.1387476</v>
+      </c>
+      <c r="AU76" s="21">
+        <v>-2.4705428999999999</v>
+      </c>
+      <c r="AV76" s="38">
+        <v>6.4584310000000006E-2</v>
       </c>
     </row>
     <row r="77" spans="1:49" x14ac:dyDescent="0.25">
@@ -23111,7 +23139,7 @@
       <c r="M77" s="6">
         <v>-1.2851767999999999</v>
       </c>
-      <c r="N77" s="60">
+      <c r="N77" s="26">
         <v>0.57238834000000005</v>
       </c>
       <c r="R77" s="7" t="s">
@@ -23133,7 +23161,7 @@
         <v>0.18996278999999999</v>
       </c>
       <c r="Z77" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AA77" s="6" t="s">
         <v>19</v>
@@ -23147,50 +23175,47 @@
       <c r="AD77" s="6">
         <v>-5.4361870000000003</v>
       </c>
-      <c r="AE77" s="60">
+      <c r="AE77" s="26">
         <v>3.2578240000000002E-7</v>
       </c>
       <c r="AF77" t="s">
         <v>100</v>
       </c>
       <c r="AI77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ77" s="6">
+        <v>2021</v>
+      </c>
+      <c r="AK77" s="6">
+        <v>0.14029332999999999</v>
+      </c>
+      <c r="AL77" s="6">
+        <v>0.10366129</v>
+      </c>
+      <c r="AM77" s="6">
+        <v>2.9386849999999999E-2</v>
+      </c>
+      <c r="AN77" s="6">
+        <v>0.46796120000000002</v>
+      </c>
+      <c r="AQ77" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AR77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AJ77" s="6">
-        <v>2020</v>
-      </c>
-      <c r="AK77" s="6">
-        <v>9.8458019999999993E-2</v>
-      </c>
-      <c r="AL77" s="6">
-        <v>7.6765410000000006E-2</v>
-      </c>
-      <c r="AM77" s="6">
-        <v>1.9656340000000001E-2</v>
-      </c>
-      <c r="AN77" s="6">
-        <v>0.37298100000000001</v>
-      </c>
-      <c r="AQ77" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AR77" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="AS77" s="6">
-        <v>3.0190245999999998</v>
+        <v>0.91130730000000004</v>
       </c>
       <c r="AT77" s="6">
-        <v>0.76064799999999999</v>
+        <v>0.21702489999999999</v>
       </c>
       <c r="AU77" s="6">
-        <v>4.3855008</v>
-      </c>
-      <c r="AV77" s="60">
-        <v>6.829525E-5</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>100</v>
+        <v>-0.38999109999999998</v>
+      </c>
+      <c r="AV77" s="26">
+        <v>0.97986969999999995</v>
       </c>
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.25">
@@ -23227,7 +23252,7 @@
       <c r="M78" s="6">
         <v>0.52275919999999998</v>
       </c>
-      <c r="N78" s="60">
+      <c r="N78" s="26">
         <v>0.95363458999999995</v>
       </c>
       <c r="R78" s="7" t="s">
@@ -23249,7 +23274,7 @@
         <v>0.14345596999999999</v>
       </c>
       <c r="Z78" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA78" s="21" t="s">
         <v>19</v>
@@ -23267,40 +23292,43 @@
         <v>0.17833170000000001</v>
       </c>
       <c r="AI78" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ78" s="6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="AK78" s="6">
-        <v>0.17596577999999999</v>
+        <v>0.18152468999999999</v>
       </c>
       <c r="AL78" s="6">
-        <v>0.1248187</v>
+        <v>0.12728833000000001</v>
       </c>
       <c r="AM78" s="6">
-        <v>3.801293E-2</v>
+        <v>3.972556E-2</v>
       </c>
       <c r="AN78" s="6">
-        <v>0.53574630000000001</v>
-      </c>
-      <c r="AQ78" s="21" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AR78" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS78" s="21">
-        <v>0.51189859999999998</v>
-      </c>
-      <c r="AT78" s="21">
-        <v>0.1387476</v>
-      </c>
-      <c r="AU78" s="21">
-        <v>-2.4705428999999999</v>
-      </c>
-      <c r="AV78" s="38">
-        <v>6.4584310000000006E-2</v>
+        <v>0.54317249999999995</v>
+      </c>
+      <c r="AQ78" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AR78" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS78" s="6">
+        <v>5.3746169999999998</v>
+      </c>
+      <c r="AT78" s="6">
+        <v>1.4779838999999999</v>
+      </c>
+      <c r="AU78" s="6">
+        <v>6.1153746</v>
+      </c>
+      <c r="AV78" s="26">
+        <v>5.7763050000000004E-9</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:49" x14ac:dyDescent="0.25">
@@ -23337,7 +23365,7 @@
       <c r="M79" s="47">
         <v>2.7975951000000001</v>
       </c>
-      <c r="N79" s="59">
+      <c r="N79" s="58">
         <v>2.646768E-2</v>
       </c>
       <c r="O79" t="s">
@@ -23362,7 +23390,7 @@
         <v>0.42221420999999998</v>
       </c>
       <c r="Z79" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AA79" s="6" t="s">
         <v>20</v>
@@ -23376,44 +23404,47 @@
       <c r="AD79" s="6">
         <v>1.0581769999999999</v>
       </c>
-      <c r="AE79" s="60">
+      <c r="AE79" s="26">
         <v>0.715005</v>
       </c>
       <c r="AI79" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ79" s="6">
         <v>2021</v>
       </c>
       <c r="AK79" s="6">
-        <v>0.14029332999999999</v>
+        <v>0.17583167</v>
       </c>
       <c r="AL79" s="6">
-        <v>0.10366129</v>
+        <v>0.12429465000000001</v>
       </c>
       <c r="AM79" s="6">
-        <v>2.9386849999999999E-2</v>
+        <v>3.8201720000000002E-2</v>
       </c>
       <c r="AN79" s="6">
-        <v>0.46796120000000002</v>
+        <v>0.5340047</v>
       </c>
       <c r="AQ79" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AR79" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AS79" s="6">
-        <v>0.91130730000000004</v>
+        <v>2.7512591999999998</v>
       </c>
       <c r="AT79" s="6">
-        <v>0.21702489999999999</v>
+        <v>0.68152250000000003</v>
       </c>
       <c r="AU79" s="6">
-        <v>-0.38999109999999998</v>
-      </c>
-      <c r="AV79" s="60">
-        <v>0.97986969999999995</v>
+        <v>4.0856111000000004</v>
+      </c>
+      <c r="AV79" s="26">
+        <v>2.5684589999999999E-4</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:49" x14ac:dyDescent="0.25">
@@ -23450,7 +23481,7 @@
       <c r="M80" s="6">
         <v>0.97997199999999995</v>
       </c>
-      <c r="N80" s="60">
+      <c r="N80" s="26">
         <v>0.76089359999999995</v>
       </c>
       <c r="R80" s="7" t="s">
@@ -23472,7 +23503,7 @@
         <v>0.38512865000000002</v>
       </c>
       <c r="Z80" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AA80" s="6" t="s">
         <v>20</v>
@@ -23486,47 +23517,47 @@
       <c r="AD80" s="6">
         <v>-3.0079739999999999</v>
       </c>
-      <c r="AE80" s="60">
+      <c r="AE80" s="26">
         <v>1.4003109999999999E-2</v>
       </c>
       <c r="AF80" t="s">
         <v>99</v>
       </c>
       <c r="AI80" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ80" s="6">
         <v>2021</v>
       </c>
       <c r="AK80" s="6">
-        <v>0.18152468999999999</v>
+        <v>0.29436162999999999</v>
       </c>
       <c r="AL80" s="6">
-        <v>0.12728833000000001</v>
+        <v>0.17760565</v>
       </c>
       <c r="AM80" s="6">
-        <v>3.972556E-2</v>
+        <v>7.2415179999999996E-2</v>
       </c>
       <c r="AN80" s="6">
-        <v>0.54317249999999995</v>
+        <v>0.6903125</v>
       </c>
       <c r="AQ80" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AR80" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AS80" s="6">
-        <v>5.3746169999999998</v>
+        <v>5.8977000000000004</v>
       </c>
       <c r="AT80" s="6">
-        <v>1.4779838999999999</v>
+        <v>1.625918</v>
       </c>
       <c r="AU80" s="6">
-        <v>6.1153746</v>
-      </c>
-      <c r="AV80" s="60">
-        <v>5.7763050000000004E-9</v>
+        <v>6.4368784999999997</v>
+      </c>
+      <c r="AV80" s="26">
+        <v>7.3154250000000001E-10</v>
       </c>
       <c r="AW80" t="s">
         <v>100</v>
@@ -23566,7 +23597,7 @@
       <c r="M81" s="6">
         <v>1.4432147</v>
       </c>
-      <c r="N81" s="60">
+      <c r="N81" s="26">
         <v>0.47227959000000003</v>
       </c>
       <c r="R81" s="7" t="s">
@@ -23588,7 +23619,7 @@
         <v>0.29049236000000001</v>
       </c>
       <c r="Z81" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA81" s="6" t="s">
         <v>20</v>
@@ -23602,47 +23633,29 @@
       <c r="AD81" s="6">
         <v>-5.1120200000000002</v>
       </c>
-      <c r="AE81" s="60">
+      <c r="AE81" s="26">
         <v>1.903542E-6</v>
       </c>
       <c r="AF81" t="s">
         <v>100</v>
       </c>
-      <c r="AI81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ81" s="6">
-        <v>2021</v>
-      </c>
-      <c r="AK81" s="6">
-        <v>0.17583167</v>
-      </c>
-      <c r="AL81" s="6">
-        <v>0.12429465000000001</v>
-      </c>
-      <c r="AM81" s="6">
-        <v>3.8201720000000002E-2</v>
-      </c>
-      <c r="AN81" s="6">
-        <v>0.5340047</v>
-      </c>
       <c r="AQ81" s="6" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AR81" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AS81" s="6">
-        <v>2.7512591999999998</v>
+        <v>3.0190245999999998</v>
       </c>
       <c r="AT81" s="6">
-        <v>0.68152250000000003</v>
+        <v>0.76064799999999999</v>
       </c>
       <c r="AU81" s="6">
-        <v>4.0856111000000004</v>
-      </c>
-      <c r="AV81" s="60">
-        <v>2.5684589999999999E-4</v>
+        <v>4.3855008</v>
+      </c>
+      <c r="AV81" s="26">
+        <v>6.829525E-5</v>
       </c>
       <c r="AW81" t="s">
         <v>100</v>
@@ -23682,7 +23695,7 @@
       <c r="M82" s="6">
         <v>-1.9456321000000001</v>
       </c>
-      <c r="N82" s="60">
+      <c r="N82" s="26">
         <v>0.20904328999999999</v>
       </c>
       <c r="R82" s="7" t="s">
@@ -23704,7 +23717,7 @@
         <v>0.22968060000000001</v>
       </c>
       <c r="Z82" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AA82" s="6" t="s">
         <v>20</v>
@@ -23718,50 +23731,29 @@
       <c r="AD82" s="6">
         <v>-3.7258879999999999</v>
       </c>
-      <c r="AE82" s="60">
+      <c r="AE82" s="26">
         <v>1.1158310000000001E-3</v>
       </c>
       <c r="AF82" t="s">
         <v>117</v>
       </c>
-      <c r="AI82" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ82" s="6">
-        <v>2021</v>
-      </c>
-      <c r="AK82" s="6">
-        <v>0.29436162999999999</v>
-      </c>
-      <c r="AL82" s="6">
-        <v>0.17760565</v>
-      </c>
-      <c r="AM82" s="6">
-        <v>7.2415179999999996E-2</v>
-      </c>
-      <c r="AN82" s="6">
-        <v>0.6903125</v>
-      </c>
-      <c r="AQ82" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AR82" s="6" t="s">
+      <c r="AQ82" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AR82" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AS82" s="6">
-        <v>5.8977000000000004</v>
-      </c>
-      <c r="AT82" s="6">
-        <v>1.625918</v>
-      </c>
-      <c r="AU82" s="6">
-        <v>6.4368784999999997</v>
-      </c>
-      <c r="AV82" s="60">
-        <v>7.3154250000000001E-10</v>
-      </c>
-      <c r="AW82" t="s">
-        <v>100</v>
+      <c r="AS82" s="21">
+        <v>0.51189859999999998</v>
+      </c>
+      <c r="AT82" s="21">
+        <v>0.1387476</v>
+      </c>
+      <c r="AU82" s="21">
+        <v>-2.4705428999999999</v>
+      </c>
+      <c r="AV82" s="38">
+        <v>6.4584310000000006E-2</v>
       </c>
     </row>
     <row r="83" spans="1:49" x14ac:dyDescent="0.25">
@@ -23780,50 +23772,47 @@
       <c r="M83" s="6">
         <v>-1.2851767999999999</v>
       </c>
-      <c r="N83" s="60">
+      <c r="N83" s="26">
         <v>0.57238834000000005</v>
       </c>
-      <c r="Z83" s="61" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AA83" s="61" t="s">
+      <c r="Z83" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AA83" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB83" s="61">
+      <c r="AB83" s="6">
         <v>0.10291649999999999</v>
       </c>
-      <c r="AC83" s="61">
+      <c r="AC83" s="6">
         <v>4.3047710000000003E-2</v>
       </c>
-      <c r="AD83" s="61">
+      <c r="AD83" s="6">
         <v>-5.4361870000000003</v>
       </c>
-      <c r="AE83" s="60">
+      <c r="AE83" s="26">
         <v>3.2578240000000002E-7</v>
       </c>
       <c r="AF83" t="s">
         <v>100</v>
       </c>
-      <c r="AQ83" s="61" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AR83" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS83" s="61">
-        <v>3.0190245999999998</v>
-      </c>
-      <c r="AT83" s="61">
-        <v>0.76064799999999999</v>
-      </c>
-      <c r="AU83" s="61">
-        <v>4.3855008</v>
-      </c>
-      <c r="AV83" s="60">
-        <v>6.829525E-5</v>
-      </c>
-      <c r="AW83" t="s">
-        <v>100</v>
+      <c r="AQ83" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AR83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS83" s="6">
+        <v>0.91130730000000004</v>
+      </c>
+      <c r="AT83" s="6">
+        <v>0.21702489999999999</v>
+      </c>
+      <c r="AU83" s="6">
+        <v>-0.38999109999999998</v>
+      </c>
+      <c r="AV83" s="26">
+        <v>0.97986969999999995</v>
       </c>
     </row>
     <row r="84" spans="1:49" x14ac:dyDescent="0.25">
@@ -23842,11 +23831,11 @@
       <c r="M84" s="6">
         <v>0.52275919999999998</v>
       </c>
-      <c r="N84" s="60">
+      <c r="N84" s="26">
         <v>0.95363458999999995</v>
       </c>
       <c r="Z84" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA84" s="21" t="s">
         <v>20</v>
@@ -23863,23 +23852,26 @@
       <c r="AE84" s="38">
         <v>0.17833170000000001</v>
       </c>
-      <c r="AQ84" s="21" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AR84" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS84" s="21">
-        <v>0.51189859999999998</v>
-      </c>
-      <c r="AT84" s="21">
-        <v>0.1387476</v>
-      </c>
-      <c r="AU84" s="21">
-        <v>-2.4705428999999999</v>
-      </c>
-      <c r="AV84" s="38">
-        <v>6.4584310000000006E-2</v>
+      <c r="AQ84" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AR84" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS84" s="6">
+        <v>5.3746169999999998</v>
+      </c>
+      <c r="AT84" s="6">
+        <v>1.4779838999999999</v>
+      </c>
+      <c r="AU84" s="6">
+        <v>6.1153746</v>
+      </c>
+      <c r="AV84" s="26">
+        <v>5.7763050000000004E-9</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:49" x14ac:dyDescent="0.25">
@@ -23898,14 +23890,14 @@
       <c r="M85" s="47">
         <v>2.7975951000000001</v>
       </c>
-      <c r="N85" s="59">
+      <c r="N85" s="58">
         <v>2.646768E-2</v>
       </c>
       <c r="O85" t="s">
         <v>99</v>
       </c>
       <c r="Z85" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AA85" s="6" t="s">
         <v>21</v>
@@ -23919,49 +23911,52 @@
       <c r="AD85" s="6">
         <v>1.0581769999999999</v>
       </c>
-      <c r="AE85" s="60">
+      <c r="AE85" s="26">
         <v>0.715005</v>
       </c>
       <c r="AQ85" s="6" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AR85" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AS85" s="6">
-        <v>0.91130730000000004</v>
+        <v>2.7512591999999998</v>
       </c>
       <c r="AT85" s="6">
-        <v>0.21702489999999999</v>
+        <v>0.68152250000000003</v>
       </c>
       <c r="AU85" s="6">
-        <v>-0.38999109999999998</v>
-      </c>
-      <c r="AV85" s="60">
-        <v>0.97986969999999995</v>
+        <v>4.0856111000000004</v>
+      </c>
+      <c r="AV85" s="26">
+        <v>2.5684589999999999E-4</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="I86" s="61" t="s">
+      <c r="I86" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="J86" s="61">
+      <c r="J86" s="6">
         <v>2021</v>
       </c>
-      <c r="K86" s="61">
+      <c r="K86" s="6">
         <v>1.2669234</v>
       </c>
-      <c r="L86" s="61">
+      <c r="L86" s="6">
         <v>0.30586920000000001</v>
       </c>
-      <c r="M86" s="61">
+      <c r="M86" s="6">
         <v>0.97997199999999995</v>
       </c>
-      <c r="N86" s="60">
+      <c r="N86" s="26">
         <v>0.76089359999999995</v>
       </c>
       <c r="Z86" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AA86" s="6" t="s">
         <v>21</v>
@@ -23975,29 +23970,29 @@
       <c r="AD86" s="6">
         <v>-3.0079739999999999</v>
       </c>
-      <c r="AE86" s="60">
+      <c r="AE86" s="26">
         <v>1.4003109999999999E-2</v>
       </c>
       <c r="AF86" t="s">
         <v>99</v>
       </c>
       <c r="AQ86" s="6" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AR86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AS86" s="6">
-        <v>5.3746169999999998</v>
+        <v>5.8977000000000004</v>
       </c>
       <c r="AT86" s="6">
-        <v>1.4779838999999999</v>
+        <v>1.625918</v>
       </c>
       <c r="AU86" s="6">
-        <v>6.1153746</v>
-      </c>
-      <c r="AV86" s="60">
-        <v>5.7763050000000004E-9</v>
+        <v>6.4368784999999997</v>
+      </c>
+      <c r="AV86" s="26">
+        <v>7.3154250000000001E-10</v>
       </c>
       <c r="AW86" t="s">
         <v>100</v>
@@ -24019,11 +24014,11 @@
       <c r="M87" s="6">
         <v>1.4432147</v>
       </c>
-      <c r="N87" s="60">
+      <c r="N87" s="26">
         <v>0.47227959000000003</v>
       </c>
       <c r="Z87" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA87" s="6" t="s">
         <v>21</v>
@@ -24037,29 +24032,29 @@
       <c r="AD87" s="6">
         <v>-5.1120200000000002</v>
       </c>
-      <c r="AE87" s="60">
+      <c r="AE87" s="26">
         <v>1.903542E-6</v>
       </c>
       <c r="AF87" t="s">
         <v>100</v>
       </c>
       <c r="AQ87" s="6" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AR87" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AS87" s="6">
-        <v>2.7512591999999998</v>
+        <v>3.0190245999999998</v>
       </c>
       <c r="AT87" s="6">
-        <v>0.68152250000000003</v>
+        <v>0.76064799999999999</v>
       </c>
       <c r="AU87" s="6">
-        <v>4.0856111000000004</v>
-      </c>
-      <c r="AV87" s="60">
-        <v>2.5684589999999999E-4</v>
+        <v>4.3855008</v>
+      </c>
+      <c r="AV87" s="26">
+        <v>6.829525E-5</v>
       </c>
       <c r="AW87" t="s">
         <v>100</v>
@@ -24081,11 +24076,11 @@
       <c r="M88" s="6">
         <v>-1.9456321000000001</v>
       </c>
-      <c r="N88" s="60">
+      <c r="N88" s="26">
         <v>0.20904328999999999</v>
       </c>
       <c r="Z88" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AA88" s="6" t="s">
         <v>21</v>
@@ -24099,32 +24094,29 @@
       <c r="AD88" s="6">
         <v>-3.7258879999999999</v>
       </c>
-      <c r="AE88" s="60">
+      <c r="AE88" s="26">
         <v>1.1158310000000001E-3</v>
       </c>
       <c r="AF88" t="s">
         <v>117</v>
       </c>
       <c r="AQ88" s="6" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AR88" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AS88" s="6">
-        <v>5.8977000000000004</v>
+        <v>0.51189859999999998</v>
       </c>
       <c r="AT88" s="6">
-        <v>1.625918</v>
+        <v>0.1387476</v>
       </c>
       <c r="AU88" s="6">
-        <v>6.4368784999999997</v>
-      </c>
-      <c r="AV88" s="60">
-        <v>7.3154250000000001E-10</v>
-      </c>
-      <c r="AW88" t="s">
-        <v>100</v>
+        <v>-2.4705428999999999</v>
+      </c>
+      <c r="AV88" s="26">
+        <v>6.4584310000000006E-2</v>
       </c>
     </row>
     <row r="89" spans="1:49" x14ac:dyDescent="0.25">
@@ -24143,11 +24135,11 @@
       <c r="M89" s="6">
         <v>-1.2851767999999999</v>
       </c>
-      <c r="N89" s="60">
+      <c r="N89" s="26">
         <v>0.57238834000000005</v>
       </c>
       <c r="Z89" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AA89" s="6" t="s">
         <v>21</v>
@@ -24161,31 +24153,10 @@
       <c r="AD89" s="6">
         <v>-5.4361870000000003</v>
       </c>
-      <c r="AE89" s="60">
+      <c r="AE89" s="26">
         <v>3.2578240000000002E-7</v>
       </c>
       <c r="AF89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ89" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="AR89" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS89" s="6">
-        <v>3.0190245999999998</v>
-      </c>
-      <c r="AT89" s="6">
-        <v>0.76064799999999999</v>
-      </c>
-      <c r="AU89" s="6">
-        <v>4.3855008</v>
-      </c>
-      <c r="AV89" s="60">
-        <v>6.829525E-5</v>
-      </c>
-      <c r="AW89" t="s">
         <v>100</v>
       </c>
     </row>
@@ -24205,11 +24176,11 @@
       <c r="M90" s="6">
         <v>0.52275919999999998</v>
       </c>
-      <c r="N90" s="60">
+      <c r="N90" s="26">
         <v>0.95363458999999995</v>
       </c>
       <c r="Z90" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA90" s="6" t="s">
         <v>21</v>
@@ -24223,56 +24194,64 @@
       <c r="AD90" s="6">
         <v>-2.0260579999999999</v>
       </c>
-      <c r="AE90" s="60">
+      <c r="AE90" s="26">
         <v>0.17833170000000001</v>
       </c>
-      <c r="AQ90" s="6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AR90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS90" s="6">
-        <v>0.51189859999999998</v>
-      </c>
-      <c r="AT90" s="6">
-        <v>0.1387476</v>
-      </c>
-      <c r="AU90" s="6">
-        <v>-2.4705428999999999</v>
-      </c>
-      <c r="AV90" s="60">
-        <v>6.4584310000000006E-2</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N67:N90 E22:E27">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
+  <conditionalFormatting sqref="E22:E27 N67:N90">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE67:AE90">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV67:AV90">
+  <conditionalFormatting sqref="AV65:AV88">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22:V27">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22:AM27">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
@@ -58934,15 +58913,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="X30 X35 X39 X43">
-    <cfRule type="cellIs" dxfId="125" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62747,15 +62726,15 @@
     <sortCondition ref="AU48:AU59"/>
   </sortState>
   <conditionalFormatting sqref="F6 U6 AJ6 AY6 AC10:AC11 AQ10:AQ14 AB10:AB18 BF10:BF46 M10:M63 AC17">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64324,15 +64303,15 @@
     <sortCondition ref="AR42:AR46"/>
   </sortState>
   <conditionalFormatting sqref="F6 R6 AG6 AV6 BC10:BC13 Y10:Y16 AN10:AN17">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SPV1_Output_summary_analyses.xlsx
+++ b/SPV1_Output_summary_analyses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\Oyster-Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\Oyster-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569ED040-02F0-4440-BB10-2DAD77BFC894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822ECD97-A961-4151-B626-8251393D15D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81C3F422-726C-4DB6-9C7E-77C36839A3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -3759,28 +3759,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="117">
     <dxf>
       <fill>
         <patternFill>
@@ -4672,15 +4651,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361504</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:colOff>599629</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57878</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4703,8 +4682,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2799904" y="2952749"/>
-          <a:ext cx="5258245" cy="3391629"/>
+          <a:off x="3038029" y="1914526"/>
+          <a:ext cx="9363588" cy="6039622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7068,12 +7047,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104332</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>489234</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>66453</xdr:rowOff>
     </xdr:to>
@@ -7098,8 +7077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495425" y="4676332"/>
-          <a:ext cx="6734175" cy="4343621"/>
+          <a:off x="1495425" y="2419350"/>
+          <a:ext cx="10233309" cy="6600603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7345,16 +7324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>80347</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>402244</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71359</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7377,8 +7356,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5414347" y="819150"/>
-          <a:ext cx="5951172" cy="3838575"/>
+          <a:off x="2409825" y="214169"/>
+          <a:ext cx="9820274" cy="6334190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9874,28 +9853,28 @@
     <sortCondition ref="AU40:AU44"/>
   </sortState>
   <conditionalFormatting sqref="F6 U6 AJ6 AQ10:AQ14 M10:M19 AB10:AB19">
-    <cfRule type="cellIs" dxfId="110" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY6 BF10:BF16">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9908,7 +9887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D6615B-0CD8-476B-B32B-B3AAF4C50096}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10238,54 +10217,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C15:C16">
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10298,7 +10277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B56724E-CB8A-4F61-8AAE-FE627EE22B44}">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10907,41 +10886,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="92" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="89" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E34">
-    <cfRule type="cellIs" dxfId="86" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10954,7 +10933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D035DE31-C390-47A3-B376-CC2F4B6A70A6}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11524,54 +11503,54 @@
     <mergeCell ref="A21:B21"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E20">
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E26">
-    <cfRule type="cellIs" dxfId="77" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="16" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="18" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E31">
-    <cfRule type="cellIs" dxfId="74" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13451,54 +13430,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C17:C19">
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D14">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E26">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:E79">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13511,7 +13490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C22FD8A-563D-45CB-A028-7DFAE1A1D103}">
   <dimension ref="A1:AI28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14381,54 +14360,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C21:C26">
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21:W26">
-    <cfRule type="cellIs" dxfId="53" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:Z11">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15414,54 +15393,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C58">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F19">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F36">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F53">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20264,80 +20243,80 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E25:E29">
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9 Q7:Q9 AD7:AD9">
-    <cfRule type="cellIs" dxfId="32" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P33">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:T74">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC25:AC35">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25:AG123">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24200,67 +24179,67 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E22:E27 N67:N90">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22:V27">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE67:AE90">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22:AM27">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+      <formula>0.01</formula>
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0.001</formula>
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV65:AV88">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V22:V27">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
-      <formula>0.01</formula>
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
-      <formula>0.001</formula>
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22:AM27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
-      <formula>0.01</formula>
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>0.001</formula>
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57388,7 +57367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3534C77-A05D-416D-BB1A-F6112434CDBF}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -58913,15 +58894,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="X30 X35 X39 X43">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58934,7 +58915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AE58FF-50D1-446A-8C66-07AEB901989B}">
   <dimension ref="A1:BG63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -62726,15 +62707,15 @@
     <sortCondition ref="AU48:AU59"/>
   </sortState>
   <conditionalFormatting sqref="F6 U6 AJ6 AY6 AC10:AC11 AQ10:AQ14 AB10:AB18 BF10:BF46 M10:M63 AC17">
-    <cfRule type="cellIs" dxfId="116" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
@@ -64303,15 +64284,15 @@
     <sortCondition ref="AR42:AR46"/>
   </sortState>
   <conditionalFormatting sqref="F6 R6 AG6 AV6 BC10:BC13 Y10:Y16 AN10:AN17">
-    <cfRule type="cellIs" dxfId="113" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="1" operator="between">
       <formula>0.01</formula>
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="2" operator="between">
       <formula>0.001</formula>
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="3" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
   </conditionalFormatting>
